--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="658">
   <si>
     <t>编号</t>
   </si>
@@ -5090,6 +5090,22 @@
   </si>
   <si>
     <t>tts原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过沟通确定由后鼎修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7247,117 +7263,7 @@
     <cellStyle name="常规 3 7" xfId="16"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7967,8 +7873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="D193" workbookViewId="0">
+      <selection activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12588,7 +12494,7 @@
       </c>
       <c r="P118" s="206"/>
     </row>
-    <row r="119" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="119" spans="1:16" s="207" customFormat="1" ht="27">
       <c r="A119" s="292">
         <v>117</v>
       </c>
@@ -13705,7 +13611,7 @@
       </c>
       <c r="P147" s="371"/>
     </row>
-    <row r="148" spans="1:16" s="244" customFormat="1" ht="67.5">
+    <row r="148" spans="1:16" s="244" customFormat="1" ht="27">
       <c r="A148" s="292">
         <v>146</v>
       </c>
@@ -15549,10 +15455,16 @@
       <c r="I192" s="254"/>
       <c r="J192" s="254"/>
       <c r="K192" s="254"/>
-      <c r="L192" s="258"/>
+      <c r="L192" s="258" t="s">
+        <v>656</v>
+      </c>
       <c r="M192" s="254"/>
-      <c r="N192" s="254"/>
-      <c r="O192" s="304"/>
+      <c r="N192" s="254" t="s">
+        <v>657</v>
+      </c>
+      <c r="O192" s="304">
+        <v>42657</v>
+      </c>
       <c r="P192" s="254" t="s">
         <v>535</v>
       </c>
@@ -15897,10 +15809,16 @@
       <c r="I200" s="254"/>
       <c r="J200" s="254"/>
       <c r="K200" s="254"/>
-      <c r="L200" s="258"/>
+      <c r="L200" s="258" t="s">
+        <v>656</v>
+      </c>
       <c r="M200" s="254"/>
-      <c r="N200" s="254"/>
-      <c r="O200" s="304"/>
+      <c r="N200" s="254" t="s">
+        <v>657</v>
+      </c>
+      <c r="O200" s="304">
+        <v>42657</v>
+      </c>
       <c r="P200" s="254" t="s">
         <v>535</v>
       </c>
@@ -16783,10 +16701,17 @@
       <c r="H224" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L224" s="352"/>
-      <c r="O224" s="367"/>
+      <c r="L224" s="352" t="s">
+        <v>654</v>
+      </c>
+      <c r="N224" s="350" t="s">
+        <v>655</v>
+      </c>
+      <c r="O224" s="367">
+        <v>42657</v>
+      </c>
       <c r="P224" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="350" customFormat="1" ht="54">
@@ -17111,7 +17036,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18504,7 +18429,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="659">
   <si>
     <t>编号</t>
   </si>
@@ -5106,6 +5106,10 @@
   </si>
   <si>
     <t>经过沟通确定由后鼎修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过确定为固件传递键值问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7873,8 +7877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D193" workbookViewId="0">
-      <selection activeCell="O200" sqref="O200"/>
+    <sheetView tabSelected="1" topLeftCell="D143" workbookViewId="0">
+      <selection activeCell="O153" sqref="O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13840,10 +13844,16 @@
       <c r="I153" s="197"/>
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
-      <c r="L153" s="197"/>
+      <c r="L153" s="352" t="s">
+        <v>372</v>
+      </c>
       <c r="M153" s="197"/>
-      <c r="N153" s="197"/>
-      <c r="O153" s="34"/>
+      <c r="N153" s="352" t="s">
+        <v>658</v>
+      </c>
+      <c r="O153" s="34">
+        <v>42657</v>
+      </c>
       <c r="P153" s="237" t="s">
         <v>535</v>
       </c>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$234</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="660">
   <si>
     <t>编号</t>
   </si>
@@ -5110,6 +5110,10 @@
   </si>
   <si>
     <t>经过确定为固件传递键值问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加个个界面的更新操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7875,10 +7879,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D143" workbookViewId="0">
-      <selection activeCell="O153" sqref="O153"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7953,7 +7958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="274" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="274" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="266">
         <v>1</v>
       </c>
@@ -7997,7 +8002,7 @@
       </c>
       <c r="P3" s="273"/>
     </row>
-    <row r="4" spans="1:16" s="72" customFormat="1" ht="81">
+    <row r="4" spans="1:16" s="72" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="292">
         <v>2</v>
       </c>
@@ -8035,7 +8040,7 @@
       </c>
       <c r="P4" s="176"/>
     </row>
-    <row r="5" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="5" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="292">
         <v>3</v>
       </c>
@@ -8075,7 +8080,7 @@
       </c>
       <c r="P5" s="176"/>
     </row>
-    <row r="6" spans="1:16" s="177" customFormat="1" ht="54">
+    <row r="6" spans="1:16" s="177" customFormat="1" ht="54" hidden="1">
       <c r="A6" s="292">
         <v>4</v>
       </c>
@@ -8117,7 +8122,7 @@
       </c>
       <c r="P6" s="176"/>
     </row>
-    <row r="7" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="7" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="292">
         <v>5</v>
       </c>
@@ -8157,7 +8162,7 @@
       </c>
       <c r="P7" s="286"/>
     </row>
-    <row r="8" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="8" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="292">
         <v>6</v>
       </c>
@@ -8197,7 +8202,7 @@
       </c>
       <c r="P8" s="176"/>
     </row>
-    <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5">
+    <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="292">
         <v>7</v>
       </c>
@@ -8261,15 +8266,21 @@
       <c r="I10" s="197"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="197"/>
+      <c r="L10" s="352" t="s">
+        <v>58</v>
+      </c>
       <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="34"/>
+      <c r="N10" s="352" t="s">
+        <v>659</v>
+      </c>
+      <c r="O10" s="34">
+        <v>42660</v>
+      </c>
       <c r="P10" s="237" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5">
+    <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="292">
         <v>9</v>
       </c>
@@ -8307,7 +8318,7 @@
       <c r="O11" s="91"/>
       <c r="P11" s="96"/>
     </row>
-    <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5">
+    <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="292">
         <v>10</v>
       </c>
@@ -8343,7 +8354,7 @@
       <c r="O12" s="172"/>
       <c r="P12" s="176"/>
     </row>
-    <row r="13" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="13" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="292">
         <v>11</v>
       </c>
@@ -8379,7 +8390,7 @@
       <c r="O13" s="172"/>
       <c r="P13" s="176"/>
     </row>
-    <row r="14" spans="1:16" s="283" customFormat="1" ht="81">
+    <row r="14" spans="1:16" s="283" customFormat="1" ht="81" hidden="1">
       <c r="A14" s="292">
         <v>12</v>
       </c>
@@ -8417,7 +8428,7 @@
       </c>
       <c r="P14" s="286"/>
     </row>
-    <row r="15" spans="1:16" s="283" customFormat="1" ht="67.5">
+    <row r="15" spans="1:16" s="283" customFormat="1" ht="67.5" hidden="1">
       <c r="A15" s="292">
         <v>13</v>
       </c>
@@ -8455,7 +8466,7 @@
       </c>
       <c r="P15" s="286"/>
     </row>
-    <row r="16" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="16" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A16" s="292">
         <v>14</v>
       </c>
@@ -8493,7 +8504,7 @@
       </c>
       <c r="P16" s="286"/>
     </row>
-    <row r="17" spans="1:16" s="283" customFormat="1" ht="40.5">
+    <row r="17" spans="1:16" s="283" customFormat="1" ht="40.5" hidden="1">
       <c r="A17" s="292">
         <v>15</v>
       </c>
@@ -8531,7 +8542,7 @@
       </c>
       <c r="P17" s="286"/>
     </row>
-    <row r="18" spans="1:16" s="274" customFormat="1" ht="27">
+    <row r="18" spans="1:16" s="274" customFormat="1" ht="27" hidden="1">
       <c r="A18" s="354">
         <v>16</v>
       </c>
@@ -8571,7 +8582,7 @@
       </c>
       <c r="P18" s="273"/>
     </row>
-    <row r="19" spans="1:16" s="372" customFormat="1" ht="229.5">
+    <row r="19" spans="1:16" s="372" customFormat="1" ht="229.5" hidden="1">
       <c r="A19" s="354">
         <v>17</v>
       </c>
@@ -8611,7 +8622,7 @@
       </c>
       <c r="P19" s="371"/>
     </row>
-    <row r="20" spans="1:16" s="372" customFormat="1" ht="67.5">
+    <row r="20" spans="1:16" s="372" customFormat="1" ht="67.5" hidden="1">
       <c r="A20" s="354">
         <v>18</v>
       </c>
@@ -8651,7 +8662,7 @@
       </c>
       <c r="P20" s="371"/>
     </row>
-    <row r="21" spans="1:16" s="184" customFormat="1" ht="216">
+    <row r="21" spans="1:16" s="184" customFormat="1" ht="216" hidden="1">
       <c r="A21" s="292">
         <v>19</v>
       </c>
@@ -8689,7 +8700,7 @@
       </c>
       <c r="P21" s="237"/>
     </row>
-    <row r="22" spans="1:16" s="274" customFormat="1" ht="81">
+    <row r="22" spans="1:16" s="274" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="354">
         <v>20</v>
       </c>
@@ -8727,7 +8738,7 @@
       </c>
       <c r="P22" s="273"/>
     </row>
-    <row r="23" spans="1:16" s="177" customFormat="1" ht="108">
+    <row r="23" spans="1:16" s="177" customFormat="1" ht="108" hidden="1">
       <c r="A23" s="292">
         <v>21</v>
       </c>
@@ -8765,7 +8776,7 @@
       </c>
       <c r="P23" s="176"/>
     </row>
-    <row r="24" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="24" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A24" s="292">
         <v>22</v>
       </c>
@@ -8803,7 +8814,7 @@
       </c>
       <c r="P24" s="176"/>
     </row>
-    <row r="25" spans="1:16" s="274" customFormat="1" ht="40.5">
+    <row r="25" spans="1:16" s="274" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="354">
         <v>23</v>
       </c>
@@ -8843,7 +8854,7 @@
       </c>
       <c r="P25" s="273"/>
     </row>
-    <row r="26" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="26" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="292">
         <v>24</v>
       </c>
@@ -8877,7 +8888,7 @@
       <c r="O26" s="172"/>
       <c r="P26" s="176"/>
     </row>
-    <row r="27" spans="1:16" s="283" customFormat="1" ht="135">
+    <row r="27" spans="1:16" s="283" customFormat="1" ht="135" hidden="1">
       <c r="A27" s="292">
         <v>25</v>
       </c>
@@ -8919,7 +8930,7 @@
       </c>
       <c r="P27" s="286"/>
     </row>
-    <row r="28" spans="1:16" s="372" customFormat="1" ht="256.5">
+    <row r="28" spans="1:16" s="372" customFormat="1" ht="256.5" hidden="1">
       <c r="A28" s="354">
         <v>26</v>
       </c>
@@ -8963,7 +8974,7 @@
       </c>
       <c r="P28" s="371"/>
     </row>
-    <row r="29" spans="1:16" s="372" customFormat="1" ht="135">
+    <row r="29" spans="1:16" s="372" customFormat="1" ht="135" hidden="1">
       <c r="A29" s="354">
         <v>27</v>
       </c>
@@ -9001,7 +9012,7 @@
       </c>
       <c r="P29" s="371"/>
     </row>
-    <row r="30" spans="1:16" s="207" customFormat="1" ht="67.5">
+    <row r="30" spans="1:16" s="207" customFormat="1" ht="67.5" hidden="1">
       <c r="A30" s="292">
         <v>28</v>
       </c>
@@ -9035,7 +9046,7 @@
       <c r="O30" s="201"/>
       <c r="P30" s="206"/>
     </row>
-    <row r="31" spans="1:16" s="207" customFormat="1" ht="54">
+    <row r="31" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
       <c r="A31" s="292">
         <v>29</v>
       </c>
@@ -9071,7 +9082,7 @@
       <c r="O31" s="201"/>
       <c r="P31" s="206"/>
     </row>
-    <row r="32" spans="1:16" s="177" customFormat="1" ht="54">
+    <row r="32" spans="1:16" s="177" customFormat="1" ht="54" hidden="1">
       <c r="A32" s="292">
         <v>30</v>
       </c>
@@ -9109,7 +9120,7 @@
       </c>
       <c r="P32" s="176"/>
     </row>
-    <row r="33" spans="1:16" s="177" customFormat="1" ht="54">
+    <row r="33" spans="1:16" s="177" customFormat="1" ht="54" hidden="1">
       <c r="A33" s="292">
         <v>31</v>
       </c>
@@ -9147,7 +9158,7 @@
       </c>
       <c r="P33" s="176"/>
     </row>
-    <row r="34" spans="1:16" s="177" customFormat="1" ht="94.5">
+    <row r="34" spans="1:16" s="177" customFormat="1" ht="94.5" hidden="1">
       <c r="A34" s="292">
         <v>32</v>
       </c>
@@ -9185,7 +9196,7 @@
       </c>
       <c r="P34" s="176"/>
     </row>
-    <row r="35" spans="1:16" s="177" customFormat="1" ht="67.5">
+    <row r="35" spans="1:16" s="177" customFormat="1" ht="67.5" hidden="1">
       <c r="A35" s="292">
         <v>33</v>
       </c>
@@ -9223,7 +9234,7 @@
       </c>
       <c r="P35" s="176"/>
     </row>
-    <row r="36" spans="1:16" s="72" customFormat="1">
+    <row r="36" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A36" s="292">
         <v>34</v>
       </c>
@@ -9261,7 +9272,7 @@
       <c r="O36" s="172"/>
       <c r="P36" s="176"/>
     </row>
-    <row r="37" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="37" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A37" s="292">
         <v>35</v>
       </c>
@@ -9303,7 +9314,7 @@
       </c>
       <c r="P37" s="176"/>
     </row>
-    <row r="38" spans="1:16" s="177" customFormat="1">
+    <row r="38" spans="1:16" s="177" customFormat="1" hidden="1">
       <c r="A38" s="292">
         <v>36</v>
       </c>
@@ -9346,7 +9357,7 @@
       </c>
       <c r="P38" s="176"/>
     </row>
-    <row r="39" spans="1:16" s="177" customFormat="1">
+    <row r="39" spans="1:16" s="177" customFormat="1" hidden="1">
       <c r="A39" s="292">
         <v>37</v>
       </c>
@@ -9382,7 +9393,7 @@
       <c r="O39" s="172"/>
       <c r="P39" s="176"/>
     </row>
-    <row r="40" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="40" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A40" s="292">
         <v>38</v>
       </c>
@@ -9422,7 +9433,7 @@
       <c r="O40" s="172"/>
       <c r="P40" s="176"/>
     </row>
-    <row r="41" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="41" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="292">
         <v>39</v>
       </c>
@@ -9462,7 +9473,7 @@
       </c>
       <c r="P41" s="176"/>
     </row>
-    <row r="42" spans="1:16" s="177" customFormat="1" ht="108">
+    <row r="42" spans="1:16" s="177" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="292">
         <v>40</v>
       </c>
@@ -9502,7 +9513,7 @@
       </c>
       <c r="P42" s="176"/>
     </row>
-    <row r="43" spans="1:16" s="177" customFormat="1" ht="256.5">
+    <row r="43" spans="1:16" s="177" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="292">
         <v>41</v>
       </c>
@@ -9542,7 +9553,7 @@
       </c>
       <c r="P43" s="176"/>
     </row>
-    <row r="44" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="44" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="292">
         <v>42</v>
       </c>
@@ -9580,7 +9591,7 @@
       </c>
       <c r="P44" s="176"/>
     </row>
-    <row r="45" spans="1:16" s="177" customFormat="1" ht="121.5">
+    <row r="45" spans="1:16" s="177" customFormat="1" ht="121.5" hidden="1">
       <c r="A45" s="292">
         <v>43</v>
       </c>
@@ -9618,7 +9629,7 @@
       </c>
       <c r="P45" s="176"/>
     </row>
-    <row r="46" spans="1:16" s="177" customFormat="1" ht="270">
+    <row r="46" spans="1:16" s="177" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="292">
         <v>44</v>
       </c>
@@ -9658,7 +9669,7 @@
       </c>
       <c r="P46" s="176"/>
     </row>
-    <row r="47" spans="1:16" s="244" customFormat="1" ht="121.5">
+    <row r="47" spans="1:16" s="244" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="292">
         <v>45</v>
       </c>
@@ -9694,7 +9705,7 @@
       <c r="O47" s="240"/>
       <c r="P47" s="245"/>
     </row>
-    <row r="48" spans="1:16" s="177" customFormat="1" ht="94.5">
+    <row r="48" spans="1:16" s="177" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="292">
         <v>46</v>
       </c>
@@ -9730,7 +9741,7 @@
       <c r="O48" s="172"/>
       <c r="P48" s="176"/>
     </row>
-    <row r="49" spans="1:16" s="372" customFormat="1" ht="108">
+    <row r="49" spans="1:16" s="372" customFormat="1" ht="108" hidden="1">
       <c r="A49" s="354">
         <v>47</v>
       </c>
@@ -9774,7 +9785,7 @@
       </c>
       <c r="P49" s="371"/>
     </row>
-    <row r="50" spans="1:16" s="372" customFormat="1" ht="135">
+    <row r="50" spans="1:16" s="372" customFormat="1" ht="135" hidden="1">
       <c r="A50" s="354">
         <v>48</v>
       </c>
@@ -9816,7 +9827,7 @@
       </c>
       <c r="P50" s="371"/>
     </row>
-    <row r="51" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="292">
         <v>49</v>
       </c>
@@ -9852,7 +9863,7 @@
       <c r="O51" s="172"/>
       <c r="P51" s="176"/>
     </row>
-    <row r="52" spans="1:16" s="274" customFormat="1" ht="67.5">
+    <row r="52" spans="1:16" s="274" customFormat="1" ht="67.5" hidden="1">
       <c r="A52" s="266">
         <v>50</v>
       </c>
@@ -9893,7 +9904,7 @@
       </c>
       <c r="P52" s="273"/>
     </row>
-    <row r="53" spans="1:16" s="177" customFormat="1">
+    <row r="53" spans="1:16" s="177" customFormat="1" hidden="1">
       <c r="A53" s="292">
         <v>51</v>
       </c>
@@ -9929,7 +9940,7 @@
       <c r="O53" s="172"/>
       <c r="P53" s="176"/>
     </row>
-    <row r="54" spans="1:16" s="283" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="283" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="292">
         <v>52</v>
       </c>
@@ -9973,7 +9984,7 @@
       </c>
       <c r="P54" s="286"/>
     </row>
-    <row r="55" spans="1:16" s="177" customFormat="1">
+    <row r="55" spans="1:16" s="177" customFormat="1" hidden="1">
       <c r="A55" s="292">
         <v>53</v>
       </c>
@@ -10013,7 +10024,7 @@
       </c>
       <c r="P55" s="176"/>
     </row>
-    <row r="56" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="56" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="292">
         <v>54</v>
       </c>
@@ -10051,7 +10062,7 @@
       </c>
       <c r="P56" s="176"/>
     </row>
-    <row r="57" spans="1:16" s="244" customFormat="1" ht="189">
+    <row r="57" spans="1:16" s="244" customFormat="1" ht="189" hidden="1">
       <c r="A57" s="292">
         <v>55</v>
       </c>
@@ -10089,7 +10100,7 @@
       <c r="O57" s="240"/>
       <c r="P57" s="245"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="292">
         <v>56</v>
       </c>
@@ -10127,7 +10138,7 @@
       </c>
       <c r="P58" s="58"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="292">
         <v>57</v>
       </c>
@@ -10165,7 +10176,7 @@
       </c>
       <c r="P59" s="58"/>
     </row>
-    <row r="60" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="60" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="292">
         <v>58</v>
       </c>
@@ -10204,7 +10215,7 @@
       </c>
       <c r="P60" s="176"/>
     </row>
-    <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5">
+    <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5" hidden="1">
       <c r="A61" s="292">
         <v>59</v>
       </c>
@@ -10242,7 +10253,7 @@
       </c>
       <c r="P61" s="167"/>
     </row>
-    <row r="62" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="62" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="292">
         <v>60</v>
       </c>
@@ -10284,7 +10295,7 @@
       </c>
       <c r="P62" s="176"/>
     </row>
-    <row r="63" spans="1:16" s="72" customFormat="1">
+    <row r="63" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A63" s="292">
         <v>61</v>
       </c>
@@ -10324,7 +10335,7 @@
       </c>
       <c r="P63" s="176"/>
     </row>
-    <row r="64" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="64" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="292">
         <v>62</v>
       </c>
@@ -10368,7 +10379,7 @@
       </c>
       <c r="P64" s="176"/>
     </row>
-    <row r="65" spans="1:16" s="72" customFormat="1">
+    <row r="65" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A65" s="292">
         <v>63</v>
       </c>
@@ -10408,7 +10419,7 @@
       </c>
       <c r="P65" s="176"/>
     </row>
-    <row r="66" spans="1:16" s="72" customFormat="1">
+    <row r="66" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A66" s="292">
         <v>64</v>
       </c>
@@ -10448,7 +10459,7 @@
       </c>
       <c r="P66" s="176"/>
     </row>
-    <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5">
+    <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="292">
         <v>65</v>
       </c>
@@ -10488,7 +10499,7 @@
       </c>
       <c r="P67" s="176"/>
     </row>
-    <row r="68" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="68" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="292">
         <v>66</v>
       </c>
@@ -10528,7 +10539,7 @@
       </c>
       <c r="P68" s="176"/>
     </row>
-    <row r="69" spans="1:16" s="72" customFormat="1">
+    <row r="69" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A69" s="292">
         <v>67</v>
       </c>
@@ -10568,7 +10579,7 @@
       </c>
       <c r="P69" s="176"/>
     </row>
-    <row r="70" spans="1:16" s="177" customFormat="1" ht="54">
+    <row r="70" spans="1:16" s="177" customFormat="1" ht="54" hidden="1">
       <c r="A70" s="292">
         <v>68</v>
       </c>
@@ -10612,7 +10623,7 @@
       </c>
       <c r="P70" s="176"/>
     </row>
-    <row r="71" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="71" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="292">
         <v>69</v>
       </c>
@@ -10654,7 +10665,7 @@
       </c>
       <c r="P71" s="176"/>
     </row>
-    <row r="72" spans="1:16" s="72" customFormat="1">
+    <row r="72" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A72" s="292">
         <v>70</v>
       </c>
@@ -10694,7 +10705,7 @@
       </c>
       <c r="P72" s="176"/>
     </row>
-    <row r="73" spans="1:16" s="177" customFormat="1" ht="54">
+    <row r="73" spans="1:16" s="177" customFormat="1" ht="54" hidden="1">
       <c r="A73" s="292">
         <v>71</v>
       </c>
@@ -10736,7 +10747,7 @@
       </c>
       <c r="P73" s="176"/>
     </row>
-    <row r="74" spans="1:16" s="177" customFormat="1" ht="27">
+    <row r="74" spans="1:16" s="177" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="292">
         <v>72</v>
       </c>
@@ -10778,7 +10789,7 @@
       </c>
       <c r="P74" s="176"/>
     </row>
-    <row r="75" spans="1:16" s="72" customFormat="1">
+    <row r="75" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A75" s="292">
         <v>73</v>
       </c>
@@ -10818,7 +10829,7 @@
       </c>
       <c r="P75" s="176"/>
     </row>
-    <row r="76" spans="1:16" s="274" customFormat="1" ht="94.5">
+    <row r="76" spans="1:16" s="274" customFormat="1" ht="94.5" hidden="1">
       <c r="A76" s="266">
         <v>74</v>
       </c>
@@ -10860,7 +10871,7 @@
       </c>
       <c r="P76" s="273"/>
     </row>
-    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5">
+    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="292">
         <v>75</v>
       </c>
@@ -10898,7 +10909,7 @@
       </c>
       <c r="P77" s="58"/>
     </row>
-    <row r="78" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="78" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="292">
         <v>76</v>
       </c>
@@ -10938,7 +10949,7 @@
       </c>
       <c r="P78" s="176"/>
     </row>
-    <row r="79" spans="1:16" s="177" customFormat="1" ht="40.5">
+    <row r="79" spans="1:16" s="177" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="292">
         <v>77</v>
       </c>
@@ -11012,7 +11023,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="274" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="274" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="266">
         <v>79</v>
       </c>
@@ -11054,7 +11065,7 @@
       </c>
       <c r="P81" s="273"/>
     </row>
-    <row r="82" spans="1:16" s="372" customFormat="1" ht="67.5">
+    <row r="82" spans="1:16" s="372" customFormat="1" ht="67.5" hidden="1">
       <c r="A82" s="354">
         <v>80</v>
       </c>
@@ -11098,7 +11109,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="292">
         <v>81</v>
       </c>
@@ -11136,7 +11147,7 @@
       </c>
       <c r="P83" s="176"/>
     </row>
-    <row r="84" spans="1:16" s="177" customFormat="1">
+    <row r="84" spans="1:16" s="177" customFormat="1" hidden="1">
       <c r="A84" s="292">
         <v>82</v>
       </c>
@@ -11208,7 +11219,7 @@
       <c r="O85" s="134"/>
       <c r="P85" s="167"/>
     </row>
-    <row r="86" spans="1:16" s="207" customFormat="1" ht="148.5">
+    <row r="86" spans="1:16" s="207" customFormat="1" ht="148.5" hidden="1">
       <c r="A86" s="292">
         <v>84</v>
       </c>
@@ -11250,7 +11261,7 @@
       <c r="O86" s="201"/>
       <c r="P86" s="206"/>
     </row>
-    <row r="87" spans="1:16" s="207" customFormat="1" ht="189">
+    <row r="87" spans="1:16" s="207" customFormat="1" ht="189" hidden="1">
       <c r="A87" s="292">
         <v>85</v>
       </c>
@@ -11292,7 +11303,7 @@
       <c r="O87" s="201"/>
       <c r="P87" s="206"/>
     </row>
-    <row r="88" spans="1:16" s="372" customFormat="1" ht="40.5">
+    <row r="88" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
       <c r="A88" s="354">
         <v>86</v>
       </c>
@@ -11331,7 +11342,7 @@
       </c>
       <c r="P88" s="371"/>
     </row>
-    <row r="89" spans="1:16" s="207" customFormat="1">
+    <row r="89" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A89" s="292">
         <v>87</v>
       </c>
@@ -11367,7 +11378,7 @@
       <c r="O89" s="201"/>
       <c r="P89" s="206"/>
     </row>
-    <row r="90" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="90" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A90" s="292">
         <v>88</v>
       </c>
@@ -11407,7 +11418,7 @@
       <c r="O90" s="201"/>
       <c r="P90" s="206"/>
     </row>
-    <row r="91" spans="1:16" s="207" customFormat="1">
+    <row r="91" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A91" s="292">
         <v>89</v>
       </c>
@@ -11445,7 +11456,7 @@
       <c r="O91" s="201"/>
       <c r="P91" s="206"/>
     </row>
-    <row r="92" spans="1:16" s="207" customFormat="1">
+    <row r="92" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A92" s="292">
         <v>90</v>
       </c>
@@ -11483,7 +11494,7 @@
       <c r="O92" s="201"/>
       <c r="P92" s="206"/>
     </row>
-    <row r="93" spans="1:16" s="207" customFormat="1">
+    <row r="93" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A93" s="292">
         <v>91</v>
       </c>
@@ -11521,7 +11532,7 @@
       <c r="O93" s="201"/>
       <c r="P93" s="206"/>
     </row>
-    <row r="94" spans="1:16" s="207" customFormat="1">
+    <row r="94" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A94" s="292">
         <v>92</v>
       </c>
@@ -11559,7 +11570,7 @@
       <c r="O94" s="201"/>
       <c r="P94" s="206"/>
     </row>
-    <row r="95" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="95" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A95" s="292">
         <v>93</v>
       </c>
@@ -11597,7 +11608,7 @@
       <c r="O95" s="201"/>
       <c r="P95" s="206"/>
     </row>
-    <row r="96" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="96" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A96" s="354">
         <v>94</v>
       </c>
@@ -11640,7 +11651,7 @@
       </c>
       <c r="P96" s="371"/>
     </row>
-    <row r="97" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="97" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A97" s="292">
         <v>95</v>
       </c>
@@ -11680,7 +11691,7 @@
       </c>
       <c r="P97" s="245"/>
     </row>
-    <row r="98" spans="1:16" s="244" customFormat="1" ht="40.5">
+    <row r="98" spans="1:16" s="244" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="292">
         <v>96</v>
       </c>
@@ -11720,7 +11731,7 @@
       </c>
       <c r="P98" s="245"/>
     </row>
-    <row r="99" spans="1:16" s="244" customFormat="1" ht="40.5">
+    <row r="99" spans="1:16" s="244" customFormat="1" ht="40.5" hidden="1">
       <c r="A99" s="292">
         <v>97</v>
       </c>
@@ -11760,7 +11771,7 @@
       </c>
       <c r="P99" s="245"/>
     </row>
-    <row r="100" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="100" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A100" s="292">
         <v>98</v>
       </c>
@@ -11800,7 +11811,7 @@
       <c r="O100" s="278"/>
       <c r="P100" s="286"/>
     </row>
-    <row r="101" spans="1:16" s="207" customFormat="1" ht="54">
+    <row r="101" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="292">
         <v>99</v>
       </c>
@@ -11834,7 +11845,7 @@
       <c r="O101" s="201"/>
       <c r="P101" s="206"/>
     </row>
-    <row r="102" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="102" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="292">
         <v>100</v>
       </c>
@@ -11872,7 +11883,7 @@
       </c>
       <c r="P102" s="206"/>
     </row>
-    <row r="103" spans="1:16" s="207" customFormat="1">
+    <row r="103" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A103" s="292">
         <v>101</v>
       </c>
@@ -11910,7 +11921,7 @@
       </c>
       <c r="P103" s="206"/>
     </row>
-    <row r="104" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="104" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="292">
         <v>102</v>
       </c>
@@ -11948,7 +11959,7 @@
       </c>
       <c r="P104" s="206"/>
     </row>
-    <row r="105" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="105" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A105" s="292">
         <v>103</v>
       </c>
@@ -11990,7 +12001,7 @@
       </c>
       <c r="P105" s="206"/>
     </row>
-    <row r="106" spans="1:16" s="177" customFormat="1">
+    <row r="106" spans="1:16" s="177" customFormat="1" hidden="1">
       <c r="A106" s="292">
         <v>104</v>
       </c>
@@ -12028,7 +12039,7 @@
       </c>
       <c r="P106" s="176"/>
     </row>
-    <row r="107" spans="1:16" s="207" customFormat="1" ht="54">
+    <row r="107" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
       <c r="A107" s="292">
         <v>105</v>
       </c>
@@ -12110,7 +12121,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="109" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="292">
         <v>107</v>
       </c>
@@ -12148,7 +12159,7 @@
       </c>
       <c r="P109" s="206"/>
     </row>
-    <row r="110" spans="1:16" s="308" customFormat="1" ht="54">
+    <row r="110" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
       <c r="A110" s="292">
         <v>108</v>
       </c>
@@ -12192,7 +12203,7 @@
       </c>
       <c r="P110" s="313"/>
     </row>
-    <row r="111" spans="1:16" s="207" customFormat="1" ht="81">
+    <row r="111" spans="1:16" s="207" customFormat="1" ht="81" hidden="1">
       <c r="A111" s="292">
         <v>109</v>
       </c>
@@ -12268,7 +12279,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A113" s="292">
         <v>111</v>
       </c>
@@ -12308,7 +12319,7 @@
       </c>
       <c r="P113" s="237"/>
     </row>
-    <row r="114" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="114" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="292">
         <v>112</v>
       </c>
@@ -12346,7 +12357,7 @@
       </c>
       <c r="P114" s="206"/>
     </row>
-    <row r="115" spans="1:16" s="207" customFormat="1" ht="81">
+    <row r="115" spans="1:16" s="207" customFormat="1" ht="81" hidden="1">
       <c r="A115" s="292">
         <v>113</v>
       </c>
@@ -12384,7 +12395,7 @@
       </c>
       <c r="P115" s="206"/>
     </row>
-    <row r="116" spans="1:16" s="372" customFormat="1" ht="40.5">
+    <row r="116" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
       <c r="A116" s="354">
         <v>114</v>
       </c>
@@ -12424,7 +12435,7 @@
       </c>
       <c r="P116" s="371"/>
     </row>
-    <row r="117" spans="1:16" s="207" customFormat="1" ht="67.5">
+    <row r="117" spans="1:16" s="207" customFormat="1" ht="67.5" hidden="1">
       <c r="A117" s="292">
         <v>115</v>
       </c>
@@ -12458,7 +12469,7 @@
       <c r="O117" s="201"/>
       <c r="P117" s="206"/>
     </row>
-    <row r="118" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="118" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A118" s="292">
         <v>116</v>
       </c>
@@ -12498,7 +12509,7 @@
       </c>
       <c r="P118" s="206"/>
     </row>
-    <row r="119" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="119" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A119" s="292">
         <v>117</v>
       </c>
@@ -12538,7 +12549,7 @@
       </c>
       <c r="P119" s="206"/>
     </row>
-    <row r="120" spans="1:16" s="207" customFormat="1" ht="94.5">
+    <row r="120" spans="1:16" s="207" customFormat="1" ht="94.5" hidden="1">
       <c r="A120" s="292">
         <v>118</v>
       </c>
@@ -12576,7 +12587,7 @@
       </c>
       <c r="P120" s="206"/>
     </row>
-    <row r="121" spans="1:16" s="207" customFormat="1" ht="121.5">
+    <row r="121" spans="1:16" s="207" customFormat="1" ht="121.5" hidden="1">
       <c r="A121" s="292">
         <v>119</v>
       </c>
@@ -12614,7 +12625,7 @@
       </c>
       <c r="P121" s="206"/>
     </row>
-    <row r="122" spans="1:16" s="207" customFormat="1" ht="54">
+    <row r="122" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
       <c r="A122" s="292">
         <v>120</v>
       </c>
@@ -12692,7 +12703,7 @@
       <c r="O123" s="201"/>
       <c r="P123" s="206"/>
     </row>
-    <row r="124" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="124" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A124" s="292">
         <v>122</v>
       </c>
@@ -12730,7 +12741,7 @@
       </c>
       <c r="P124" s="206"/>
     </row>
-    <row r="125" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="125" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A125" s="292">
         <v>123</v>
       </c>
@@ -12768,7 +12779,7 @@
       </c>
       <c r="P125" s="206"/>
     </row>
-    <row r="126" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="126" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A126" s="292">
         <v>124</v>
       </c>
@@ -12808,7 +12819,7 @@
       <c r="O126" s="201"/>
       <c r="P126" s="206"/>
     </row>
-    <row r="127" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="127" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A127" s="292">
         <v>125</v>
       </c>
@@ -12848,7 +12859,7 @@
       </c>
       <c r="P127" s="206"/>
     </row>
-    <row r="128" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="128" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A128" s="292">
         <v>126</v>
       </c>
@@ -12890,7 +12901,7 @@
       </c>
       <c r="P128" s="206"/>
     </row>
-    <row r="129" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="129" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A129" s="292">
         <v>127</v>
       </c>
@@ -12932,7 +12943,7 @@
       </c>
       <c r="P129" s="206"/>
     </row>
-    <row r="130" spans="1:16" s="207" customFormat="1" ht="81">
+    <row r="130" spans="1:16" s="207" customFormat="1" ht="81" hidden="1">
       <c r="A130" s="292">
         <v>128</v>
       </c>
@@ -12974,7 +12985,7 @@
       </c>
       <c r="P130" s="206"/>
     </row>
-    <row r="131" spans="1:16" s="308" customFormat="1" ht="40.5">
+    <row r="131" spans="1:16" s="308" customFormat="1" ht="40.5" hidden="1">
       <c r="A131" s="266">
         <v>129</v>
       </c>
@@ -13018,7 +13029,7 @@
       </c>
       <c r="P131" s="307"/>
     </row>
-    <row r="132" spans="1:16" s="372" customFormat="1">
+    <row r="132" spans="1:16" s="372" customFormat="1" hidden="1">
       <c r="A132" s="354">
         <v>130</v>
       </c>
@@ -13060,7 +13071,7 @@
       </c>
       <c r="P132" s="371"/>
     </row>
-    <row r="133" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="133" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A133" s="292">
         <v>131</v>
       </c>
@@ -13100,7 +13111,7 @@
       </c>
       <c r="P133" s="206"/>
     </row>
-    <row r="134" spans="1:16" s="308" customFormat="1" ht="54">
+    <row r="134" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
       <c r="A134" s="292">
         <v>132</v>
       </c>
@@ -13138,7 +13149,7 @@
       </c>
       <c r="P134" s="307"/>
     </row>
-    <row r="135" spans="1:16" s="308" customFormat="1" ht="40.5">
+    <row r="135" spans="1:16" s="308" customFormat="1" ht="40.5" hidden="1">
       <c r="A135" s="292">
         <v>133</v>
       </c>
@@ -13212,7 +13223,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="207" customFormat="1" ht="40.5">
+    <row r="137" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="292">
         <v>135</v>
       </c>
@@ -13250,7 +13261,7 @@
       </c>
       <c r="P137" s="206"/>
     </row>
-    <row r="138" spans="1:16" s="274" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="274" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="292">
         <v>136</v>
       </c>
@@ -13292,7 +13303,7 @@
       </c>
       <c r="P138" s="273"/>
     </row>
-    <row r="139" spans="1:16" s="207" customFormat="1">
+    <row r="139" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A139" s="292">
         <v>137</v>
       </c>
@@ -13334,7 +13345,7 @@
       </c>
       <c r="P139" s="206"/>
     </row>
-    <row r="140" spans="1:16" s="274" customFormat="1" ht="54">
+    <row r="140" spans="1:16" s="274" customFormat="1" ht="54" hidden="1">
       <c r="A140" s="292">
         <v>138</v>
       </c>
@@ -13374,7 +13385,7 @@
       </c>
       <c r="P140" s="273"/>
     </row>
-    <row r="141" spans="1:16" s="283" customFormat="1" ht="81">
+    <row r="141" spans="1:16" s="283" customFormat="1" ht="81" hidden="1">
       <c r="A141" s="292">
         <v>139</v>
       </c>
@@ -13418,7 +13429,7 @@
       </c>
       <c r="P141" s="286"/>
     </row>
-    <row r="142" spans="1:16" s="283" customFormat="1" ht="81">
+    <row r="142" spans="1:16" s="283" customFormat="1" ht="81" hidden="1">
       <c r="A142" s="292">
         <v>140</v>
       </c>
@@ -13454,7 +13465,7 @@
       </c>
       <c r="P142" s="286"/>
     </row>
-    <row r="143" spans="1:16" s="207" customFormat="1">
+    <row r="143" spans="1:16" s="207" customFormat="1" hidden="1">
       <c r="A143" s="292">
         <v>141</v>
       </c>
@@ -13482,7 +13493,7 @@
       </c>
       <c r="P143" s="206"/>
     </row>
-    <row r="144" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="144" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A144" s="292">
         <v>142</v>
       </c>
@@ -13510,7 +13521,7 @@
       </c>
       <c r="P144" s="206"/>
     </row>
-    <row r="145" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="145" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A145" s="292">
         <v>143</v>
       </c>
@@ -13538,7 +13549,7 @@
       </c>
       <c r="P145" s="206"/>
     </row>
-    <row r="146" spans="1:16" s="372" customFormat="1" ht="54">
+    <row r="146" spans="1:16" s="372" customFormat="1" ht="54" hidden="1">
       <c r="A146" s="354">
         <v>144</v>
       </c>
@@ -13578,7 +13589,7 @@
       </c>
       <c r="P146" s="371"/>
     </row>
-    <row r="147" spans="1:16" s="372" customFormat="1">
+    <row r="147" spans="1:16" s="372" customFormat="1" hidden="1">
       <c r="A147" s="354">
         <v>145</v>
       </c>
@@ -13615,7 +13626,7 @@
       </c>
       <c r="P147" s="371"/>
     </row>
-    <row r="148" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="148" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A148" s="292">
         <v>146</v>
       </c>
@@ -13654,7 +13665,7 @@
       </c>
       <c r="P148" s="245"/>
     </row>
-    <row r="149" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="338">
         <v>147</v>
       </c>
@@ -13693,7 +13704,7 @@
       </c>
       <c r="P149" s="286"/>
     </row>
-    <row r="150" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="150" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A150" s="292">
         <v>148</v>
       </c>
@@ -13730,7 +13741,7 @@
       </c>
       <c r="P150" s="237"/>
     </row>
-    <row r="151" spans="1:16" s="283" customFormat="1">
+    <row r="151" spans="1:16" s="283" customFormat="1" hidden="1">
       <c r="A151" s="292">
         <v>149</v>
       </c>
@@ -13772,7 +13783,7 @@
       </c>
       <c r="P151" s="286"/>
     </row>
-    <row r="152" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="152" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A152" s="292">
         <v>150</v>
       </c>
@@ -13816,7 +13827,7 @@
       </c>
       <c r="P152" s="245"/>
     </row>
-    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A153" s="292">
         <v>151</v>
       </c>
@@ -13858,7 +13869,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="154" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="292">
         <v>152</v>
       </c>
@@ -13902,7 +13913,7 @@
       </c>
       <c r="P154" s="245"/>
     </row>
-    <row r="155" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="155" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A155" s="292">
         <v>153</v>
       </c>
@@ -13944,7 +13955,7 @@
       </c>
       <c r="P155" s="245"/>
     </row>
-    <row r="156" spans="1:16" s="283" customFormat="1">
+    <row r="156" spans="1:16" s="283" customFormat="1" hidden="1">
       <c r="A156" s="292">
         <v>154</v>
       </c>
@@ -13986,7 +13997,7 @@
       </c>
       <c r="P156" s="286"/>
     </row>
-    <row r="157" spans="1:16" s="244" customFormat="1" ht="54">
+    <row r="157" spans="1:16" s="244" customFormat="1" ht="54" hidden="1">
       <c r="A157" s="292">
         <v>155</v>
       </c>
@@ -14028,7 +14039,7 @@
       </c>
       <c r="P157" s="245"/>
     </row>
-    <row r="158" spans="1:16" s="184" customFormat="1" ht="27">
+    <row r="158" spans="1:16" s="184" customFormat="1" ht="27" hidden="1">
       <c r="A158" s="292">
         <v>156</v>
       </c>
@@ -14070,7 +14081,7 @@
       </c>
       <c r="P158" s="237"/>
     </row>
-    <row r="159" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="159" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A159" s="292">
         <v>157</v>
       </c>
@@ -14114,7 +14125,7 @@
       </c>
       <c r="P159" s="245"/>
     </row>
-    <row r="160" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="160" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A160" s="292">
         <v>158</v>
       </c>
@@ -14156,7 +14167,7 @@
       </c>
       <c r="P160" s="286"/>
     </row>
-    <row r="161" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="292">
         <v>159</v>
       </c>
@@ -14196,7 +14207,7 @@
       </c>
       <c r="P161" s="286"/>
     </row>
-    <row r="162" spans="1:16" s="283" customFormat="1">
+    <row r="162" spans="1:16" s="283" customFormat="1" hidden="1">
       <c r="A162" s="292">
         <v>160</v>
       </c>
@@ -14238,7 +14249,7 @@
       </c>
       <c r="P162" s="286"/>
     </row>
-    <row r="163" spans="1:16" s="244" customFormat="1" ht="27">
+    <row r="163" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
       <c r="A163" s="292">
         <v>161</v>
       </c>
@@ -14282,7 +14293,7 @@
       </c>
       <c r="P163" s="245"/>
     </row>
-    <row r="164" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="164" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A164" s="354">
         <v>162</v>
       </c>
@@ -14326,7 +14337,7 @@
       </c>
       <c r="P164" s="371"/>
     </row>
-    <row r="165" spans="1:16" s="274" customFormat="1" ht="27">
+    <row r="165" spans="1:16" s="274" customFormat="1" ht="27" hidden="1">
       <c r="A165" s="266">
         <v>163</v>
       </c>
@@ -14368,7 +14379,7 @@
       </c>
       <c r="P165" s="273"/>
     </row>
-    <row r="166" spans="1:16" s="308" customFormat="1">
+    <row r="166" spans="1:16" s="308" customFormat="1" hidden="1">
       <c r="A166" s="292">
         <v>164</v>
       </c>
@@ -14412,7 +14423,7 @@
       </c>
       <c r="P166" s="307"/>
     </row>
-    <row r="167" spans="1:16" s="274" customFormat="1" ht="27">
+    <row r="167" spans="1:16" s="274" customFormat="1" ht="27" hidden="1">
       <c r="A167" s="292">
         <v>165</v>
       </c>
@@ -14454,7 +14465,7 @@
       </c>
       <c r="P167" s="273"/>
     </row>
-    <row r="168" spans="1:16" s="193" customFormat="1" ht="54">
+    <row r="168" spans="1:16" s="193" customFormat="1" ht="54" hidden="1">
       <c r="A168" s="292">
         <v>166</v>
       </c>
@@ -14494,7 +14505,7 @@
       </c>
       <c r="P168" s="199"/>
     </row>
-    <row r="169" spans="1:16" s="193" customFormat="1" ht="67.5">
+    <row r="169" spans="1:16" s="193" customFormat="1" ht="67.5" hidden="1">
       <c r="A169" s="292">
         <v>167</v>
       </c>
@@ -14534,7 +14545,7 @@
       </c>
       <c r="P169" s="199"/>
     </row>
-    <row r="170" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="170" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A170" s="292">
         <v>168</v>
       </c>
@@ -14576,7 +14587,7 @@
       </c>
       <c r="P170" s="286"/>
     </row>
-    <row r="171" spans="1:16" s="274" customFormat="1" ht="54">
+    <row r="171" spans="1:16" s="274" customFormat="1" ht="54" hidden="1">
       <c r="A171" s="266">
         <v>169</v>
       </c>
@@ -14615,7 +14626,7 @@
         <v>42640</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="244" customFormat="1" ht="40.5">
+    <row r="172" spans="1:16" s="244" customFormat="1" ht="40.5" hidden="1">
       <c r="A172" s="292">
         <v>170</v>
       </c>
@@ -14654,7 +14665,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="244" customFormat="1" ht="94.5">
+    <row r="173" spans="1:16" s="244" customFormat="1" ht="94.5" hidden="1">
       <c r="A173" s="292">
         <v>171</v>
       </c>
@@ -14696,7 +14707,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="283" customFormat="1" ht="27">
+    <row r="174" spans="1:16" s="283" customFormat="1" ht="27" hidden="1">
       <c r="A174" s="292">
         <v>172</v>
       </c>
@@ -14767,7 +14778,7 @@
       <c r="O175" s="252"/>
       <c r="P175" s="246"/>
     </row>
-    <row r="176" spans="1:16" s="308" customFormat="1" ht="54">
+    <row r="176" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
       <c r="A176" s="266">
         <v>174</v>
       </c>
@@ -14809,7 +14820,7 @@
       </c>
       <c r="P176" s="274"/>
     </row>
-    <row r="177" spans="1:16" s="372" customFormat="1" ht="94.5">
+    <row r="177" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
       <c r="A177" s="375">
         <v>175</v>
       </c>
@@ -14849,7 +14860,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="372" customFormat="1" ht="108">
+    <row r="178" spans="1:16" s="372" customFormat="1" ht="108" hidden="1">
       <c r="A178" s="354">
         <v>176</v>
       </c>
@@ -14889,7 +14900,7 @@
       </c>
       <c r="P178" s="274"/>
     </row>
-    <row r="179" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="179" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A179" s="354">
         <v>177</v>
       </c>
@@ -14929,7 +14940,7 @@
       </c>
       <c r="P179" s="274"/>
     </row>
-    <row r="180" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="180" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A180" s="354">
         <v>178</v>
       </c>
@@ -14969,7 +14980,7 @@
       </c>
       <c r="P180" s="274"/>
     </row>
-    <row r="181" spans="1:16" ht="54">
+    <row r="181" spans="1:16" ht="54" hidden="1">
       <c r="A181" s="292">
         <v>179</v>
       </c>
@@ -15007,7 +15018,7 @@
       </c>
       <c r="P181" s="254"/>
     </row>
-    <row r="182" spans="1:16" ht="27">
+    <row r="182" spans="1:16" ht="27" hidden="1">
       <c r="A182" s="292">
         <v>180</v>
       </c>
@@ -15045,7 +15056,7 @@
       </c>
       <c r="P182" s="254"/>
     </row>
-    <row r="183" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="183" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A183" s="354">
         <v>181</v>
       </c>
@@ -15087,7 +15098,7 @@
       </c>
       <c r="P183" s="274"/>
     </row>
-    <row r="184" spans="1:16" ht="54">
+    <row r="184" spans="1:16" ht="54" hidden="1">
       <c r="A184" s="292">
         <v>182</v>
       </c>
@@ -15127,7 +15138,7 @@
       </c>
       <c r="P184" s="254"/>
     </row>
-    <row r="185" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="185" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A185" s="375">
         <v>183</v>
       </c>
@@ -15170,7 +15181,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="186" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A186" s="375">
         <v>184</v>
       </c>
@@ -15215,7 +15226,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="372" customFormat="1" ht="40.5">
+    <row r="187" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
       <c r="A187" s="375">
         <v>185</v>
       </c>
@@ -15257,7 +15268,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="188" spans="1:16" s="381" customFormat="1" ht="81">
+    <row r="188" spans="1:16" s="381" customFormat="1" ht="81" hidden="1">
       <c r="A188" s="382">
         <v>186</v>
       </c>
@@ -15302,7 +15313,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="372" customFormat="1" ht="94.5">
+    <row r="189" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
       <c r="A189" s="375">
         <v>187</v>
       </c>
@@ -15347,7 +15358,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="190" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A190" s="375">
         <v>188</v>
       </c>
@@ -15392,7 +15403,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="372" customFormat="1" ht="40.5">
+    <row r="191" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
       <c r="A191" s="375">
         <v>189</v>
       </c>
@@ -15437,7 +15448,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="27">
+    <row r="192" spans="1:16" ht="27" hidden="1">
       <c r="A192" s="292">
         <v>190</v>
       </c>
@@ -15479,7 +15490,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="193" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A193" s="354">
         <v>191</v>
       </c>
@@ -15525,7 +15536,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="194" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A194" s="375">
         <v>192</v>
       </c>
@@ -15570,7 +15581,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="195" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A195" s="375">
         <v>193</v>
       </c>
@@ -15615,7 +15626,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="372" customFormat="1">
+    <row r="196" spans="1:16" s="372" customFormat="1" hidden="1">
       <c r="A196" s="375">
         <v>194</v>
       </c>
@@ -15657,7 +15668,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="197" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A197" s="375">
         <v>195</v>
       </c>
@@ -15702,7 +15713,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="308" customFormat="1" ht="54">
+    <row r="198" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
       <c r="A198" s="266">
         <v>196</v>
       </c>
@@ -15746,7 +15757,7 @@
       </c>
       <c r="P198" s="274"/>
     </row>
-    <row r="199" spans="1:16" s="372" customFormat="1" ht="94.5">
+    <row r="199" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
       <c r="A199" s="375">
         <v>197</v>
       </c>
@@ -15791,7 +15802,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="40.5">
+    <row r="200" spans="1:16" ht="40.5" hidden="1">
       <c r="A200" s="292">
         <v>198</v>
       </c>
@@ -15833,7 +15844,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="372" customFormat="1">
+    <row r="201" spans="1:16" s="372" customFormat="1" hidden="1">
       <c r="A201" s="354">
         <v>199</v>
       </c>
@@ -15877,7 +15888,7 @@
       </c>
       <c r="P201" s="274"/>
     </row>
-    <row r="202" spans="1:16" s="308" customFormat="1" ht="27">
+    <row r="202" spans="1:16" s="308" customFormat="1" ht="27" hidden="1">
       <c r="A202" s="266">
         <v>200</v>
       </c>
@@ -15919,7 +15930,7 @@
       </c>
       <c r="P202" s="274"/>
     </row>
-    <row r="203" spans="1:16" s="308" customFormat="1" ht="27">
+    <row r="203" spans="1:16" s="308" customFormat="1" ht="27" hidden="1">
       <c r="A203" s="266">
         <v>201</v>
       </c>
@@ -15961,7 +15972,7 @@
       </c>
       <c r="P203" s="274"/>
     </row>
-    <row r="204" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="204" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A204" s="354">
         <v>202</v>
       </c>
@@ -16005,7 +16016,7 @@
       </c>
       <c r="P204" s="274"/>
     </row>
-    <row r="205" spans="1:16" s="372" customFormat="1">
+    <row r="205" spans="1:16" s="372" customFormat="1" hidden="1">
       <c r="A205" s="354">
         <v>203</v>
       </c>
@@ -16047,7 +16058,7 @@
       </c>
       <c r="P205" s="274"/>
     </row>
-    <row r="206" spans="1:16" ht="54">
+    <row r="206" spans="1:16" ht="54" hidden="1">
       <c r="A206" s="292">
         <v>204</v>
       </c>
@@ -16089,7 +16100,7 @@
       </c>
       <c r="P206" s="254"/>
     </row>
-    <row r="207" spans="1:16" ht="40.5">
+    <row r="207" spans="1:16" ht="40.5" hidden="1">
       <c r="A207" s="344">
         <v>205</v>
       </c>
@@ -16272,7 +16283,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="27">
+    <row r="213" spans="1:16" ht="27" hidden="1">
       <c r="A213" s="344">
         <v>211</v>
       </c>
@@ -16313,7 +16324,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="214" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A214" s="375">
         <v>212</v>
       </c>
@@ -16353,7 +16364,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="27">
+    <row r="215" spans="1:16" ht="27" hidden="1">
       <c r="A215" s="344">
         <v>213</v>
       </c>
@@ -16392,7 +16403,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="372" customFormat="1" ht="40.5">
+    <row r="216" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
       <c r="A216" s="375">
         <v>214</v>
       </c>
@@ -16432,7 +16443,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="217" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A217" s="375">
         <v>215</v>
       </c>
@@ -16472,7 +16483,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="218" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A218" s="354">
         <v>216</v>
       </c>
@@ -16512,7 +16523,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="27">
+    <row r="219" spans="1:16" ht="27" hidden="1">
       <c r="A219" s="168">
         <v>217</v>
       </c>
@@ -16551,7 +16562,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="372" customFormat="1" ht="27">
+    <row r="220" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A220" s="354">
         <v>218</v>
       </c>
@@ -16591,7 +16602,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="27">
+    <row r="221" spans="1:16" ht="27" hidden="1">
       <c r="A221" s="168">
         <v>219</v>
       </c>
@@ -16686,7 +16697,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5">
+    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5" hidden="1">
       <c r="A224" s="344">
         <v>222</v>
       </c>
@@ -17035,10 +17046,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P221">
+  <autoFilter ref="A2:P234">
     <filterColumn colId="5"/>
     <filterColumn colId="8"/>
-    <filterColumn colId="11"/>
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1">
+        <dateGroupItem year="2016" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="660">
   <si>
     <t>编号</t>
   </si>
@@ -1365,10 +1365,6 @@
   </si>
   <si>
     <t>回调中添加文件操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加了关机广播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5114,6 +5110,10 @@
   </si>
   <si>
     <t>添加个个界面的更新操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了关机广播，新机器验证没有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7632,7 +7632,7 @@
         <v>42616</v>
       </c>
       <c r="F3" s="191" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="142"/>
     </row>
@@ -7651,7 +7651,7 @@
         <v>42625</v>
       </c>
       <c r="F4" s="212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="142"/>
     </row>
@@ -7669,7 +7669,7 @@
         <v>42625</v>
       </c>
       <c r="F5" s="212" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="232" customFormat="1">
@@ -7686,7 +7686,7 @@
         <v>42632</v>
       </c>
       <c r="F6" s="212" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="192" customFormat="1">
@@ -7703,7 +7703,7 @@
         <v>42634</v>
       </c>
       <c r="F7" s="330" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="253" customFormat="1">
@@ -7715,13 +7715,13 @@
         <v>42638</v>
       </c>
       <c r="D8" s="332" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E8" s="328">
         <v>42634</v>
       </c>
       <c r="F8" s="330" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G8" s="327"/>
     </row>
@@ -7736,7 +7736,7 @@
         <v>42640</v>
       </c>
       <c r="F9" s="336" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G9" s="327"/>
     </row>
@@ -7755,7 +7755,7 @@
         <v>42643</v>
       </c>
       <c r="F10" s="330" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G10" s="327"/>
     </row>
@@ -7773,7 +7773,7 @@
         <v>42643</v>
       </c>
       <c r="F11" s="330" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="327" customFormat="1">
@@ -7790,7 +7790,7 @@
         <v>42651</v>
       </c>
       <c r="F12" s="364" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="327" customFormat="1">
@@ -7808,7 +7808,7 @@
         <v>42651</v>
       </c>
       <c r="F13" s="364" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G13" s="349"/>
     </row>
@@ -7826,7 +7826,7 @@
         <v>42656</v>
       </c>
       <c r="F14" s="364" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7845,7 +7845,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="349" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -7856,18 +7856,18 @@
         <v>42657</v>
       </c>
       <c r="D22" s="163" t="s">
+        <v>638</v>
+      </c>
+      <c r="E22" s="349" t="s">
+        <v>652</v>
+      </c>
+      <c r="F22" s="349" t="s">
         <v>639</v>
-      </c>
-      <c r="E22" s="349" t="s">
-        <v>653</v>
-      </c>
-      <c r="F22" s="349" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="27">
       <c r="F23" s="343" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -7883,7 +7883,7 @@
   <dimension ref="A1:P234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+      <selection activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7925,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="256" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -7975,16 +7975,16 @@
         <v>42555</v>
       </c>
       <c r="F3" s="295" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="270" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H3" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="267" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J3" s="272"/>
       <c r="K3" s="268">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="M3" s="271"/>
       <c r="N3" s="271" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O3" s="268">
         <v>42641</v>
@@ -8097,14 +8097,14 @@
         <v>42555</v>
       </c>
       <c r="F6" s="188" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H6" s="175"/>
       <c r="I6" s="171" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J6" s="131"/>
       <c r="K6" s="172">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="M6" s="175"/>
       <c r="N6" s="175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O6" s="172">
         <v>42631</v>
@@ -8139,14 +8139,14 @@
         <v>42555</v>
       </c>
       <c r="F7" s="294" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="280" t="s">
         <v>386</v>
-      </c>
-      <c r="G7" s="280" t="s">
-        <v>387</v>
       </c>
       <c r="H7" s="281"/>
       <c r="I7" s="277" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J7" s="282"/>
       <c r="K7" s="278">
@@ -8255,10 +8255,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" s="284" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="197" t="s">
         <v>47</v>
@@ -8271,13 +8271,13 @@
       </c>
       <c r="M10" s="197"/>
       <c r="N10" s="352" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O10" s="34">
         <v>42660</v>
       </c>
       <c r="P10" s="237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
@@ -8560,11 +8560,11 @@
       </c>
       <c r="F18" s="363"/>
       <c r="G18" s="355" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H18" s="356"/>
       <c r="I18" s="267" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J18" s="272"/>
       <c r="K18" s="268">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="M18" s="356"/>
       <c r="N18" s="356" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O18" s="268">
         <v>42632</v>
@@ -8599,14 +8599,14 @@
         <v>42555</v>
       </c>
       <c r="F19" s="363" t="s">
+        <v>561</v>
+      </c>
+      <c r="G19" s="355" t="s">
         <v>562</v>
-      </c>
-      <c r="G19" s="355" t="s">
-        <v>563</v>
       </c>
       <c r="H19" s="356"/>
       <c r="I19" s="356" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J19" s="370"/>
       <c r="K19" s="369">
@@ -8639,14 +8639,14 @@
         <v>42555</v>
       </c>
       <c r="F20" s="363" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G20" s="355" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H20" s="356"/>
       <c r="I20" s="356" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J20" s="370"/>
       <c r="K20" s="369">
@@ -8679,14 +8679,14 @@
         <v>42555</v>
       </c>
       <c r="F21" s="187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G21" s="351" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H21" s="197"/>
       <c r="I21" s="352" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -8756,11 +8756,11 @@
       </c>
       <c r="F23" s="188"/>
       <c r="G23" s="174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="175"/>
       <c r="I23" s="171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J23" s="131"/>
       <c r="K23" s="172">
@@ -8794,11 +8794,11 @@
       </c>
       <c r="F24" s="188"/>
       <c r="G24" s="174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="175"/>
       <c r="I24" s="171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J24" s="131"/>
       <c r="K24" s="172">
@@ -8905,10 +8905,10 @@
         <v>42555</v>
       </c>
       <c r="F27" s="294" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G27" s="287" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H27" s="281" t="s">
         <v>47</v>
@@ -8947,16 +8947,16 @@
         <v>42555</v>
       </c>
       <c r="F28" s="363" t="s">
+        <v>567</v>
+      </c>
+      <c r="G28" s="355" t="s">
+        <v>569</v>
+      </c>
+      <c r="H28" s="356" t="s">
         <v>568</v>
       </c>
-      <c r="G28" s="355" t="s">
-        <v>570</v>
-      </c>
-      <c r="H28" s="356" t="s">
-        <v>569</v>
-      </c>
       <c r="I28" s="356" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J28" s="370"/>
       <c r="K28" s="369">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="M28" s="356"/>
       <c r="N28" s="356" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O28" s="369">
         <v>42652</v>
@@ -8992,11 +8992,11 @@
       </c>
       <c r="F29" s="363"/>
       <c r="G29" s="355" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H29" s="356"/>
       <c r="I29" s="356" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J29" s="370"/>
       <c r="K29" s="369">
@@ -9030,11 +9030,11 @@
       </c>
       <c r="F30" s="202"/>
       <c r="G30" s="203" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H30" s="204"/>
       <c r="I30" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J30" s="205"/>
       <c r="K30" s="201">
@@ -9063,14 +9063,14 @@
         <v>42507</v>
       </c>
       <c r="F31" s="202" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" s="203" t="s">
         <v>330</v>
-      </c>
-      <c r="G31" s="203" t="s">
-        <v>331</v>
       </c>
       <c r="H31" s="204"/>
       <c r="I31" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J31" s="205"/>
       <c r="K31" s="201">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="F32" s="188"/>
       <c r="G32" s="174" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" s="175"/>
       <c r="I32" s="171" t="s">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="F33" s="188"/>
       <c r="G33" s="174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="175"/>
       <c r="I33" s="171" t="s">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="F34" s="188"/>
       <c r="G34" s="174" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" s="175"/>
       <c r="I34" s="171" t="s">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="F35" s="188"/>
       <c r="G35" s="174" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" s="175"/>
       <c r="I35" s="171" t="s">
@@ -9289,14 +9289,14 @@
         <v>42555</v>
       </c>
       <c r="F37" s="188" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="174" t="s">
         <v>228</v>
-      </c>
-      <c r="G37" s="174" t="s">
-        <v>229</v>
       </c>
       <c r="H37" s="175"/>
       <c r="I37" s="171" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J37" s="131"/>
       <c r="K37" s="172">
@@ -9331,13 +9331,13 @@
         <v>42555</v>
       </c>
       <c r="F38" s="175" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="174" t="s">
         <v>218</v>
       </c>
-      <c r="G38" s="174" t="s">
-        <v>219</v>
-      </c>
       <c r="I38" s="171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J38" s="131"/>
       <c r="K38" s="172">
@@ -9347,10 +9347,10 @@
         <v>184</v>
       </c>
       <c r="M38" s="175" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" s="175" t="s">
         <v>220</v>
-      </c>
-      <c r="N38" s="175" t="s">
-        <v>221</v>
       </c>
       <c r="O38" s="172">
         <v>42631</v>
@@ -9410,14 +9410,14 @@
         <v>42555</v>
       </c>
       <c r="F40" s="188" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G40" s="174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H40" s="175"/>
       <c r="I40" s="171" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J40" s="131"/>
       <c r="K40" s="172">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F42" s="188"/>
       <c r="G42" s="174" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H42" s="175" t="s">
         <v>47</v>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="F43" s="188"/>
       <c r="G43" s="178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H43" s="175" t="s">
         <v>47</v>
@@ -9571,11 +9571,11 @@
       </c>
       <c r="F44" s="188"/>
       <c r="G44" s="174" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H44" s="175"/>
       <c r="I44" s="171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J44" s="131"/>
       <c r="K44" s="172">
@@ -9609,11 +9609,11 @@
       </c>
       <c r="F45" s="188"/>
       <c r="G45" s="174" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H45" s="175"/>
       <c r="I45" s="171" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J45" s="131"/>
       <c r="K45" s="172">
@@ -9646,14 +9646,14 @@
         <v>42555</v>
       </c>
       <c r="F46" s="188" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G46" s="174" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H46" s="175"/>
       <c r="I46" s="171" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J46" s="131"/>
       <c r="K46" s="172">
@@ -9686,10 +9686,10 @@
         <v>42555</v>
       </c>
       <c r="F47" s="294" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G47" s="280" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H47" s="281"/>
       <c r="I47" s="281" t="s">
@@ -9758,16 +9758,16 @@
         <v>42558</v>
       </c>
       <c r="F49" s="363" t="s">
+        <v>575</v>
+      </c>
+      <c r="G49" s="365" t="s">
+        <v>578</v>
+      </c>
+      <c r="H49" s="356" t="s">
+        <v>568</v>
+      </c>
+      <c r="I49" s="356" t="s">
         <v>576</v>
-      </c>
-      <c r="G49" s="365" t="s">
-        <v>579</v>
-      </c>
-      <c r="H49" s="356" t="s">
-        <v>569</v>
-      </c>
-      <c r="I49" s="356" t="s">
-        <v>577</v>
       </c>
       <c r="J49" s="370"/>
       <c r="K49" s="369">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="M49" s="356"/>
       <c r="N49" s="356" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O49" s="369">
         <v>42654</v>
@@ -9802,16 +9802,16 @@
         <v>42558</v>
       </c>
       <c r="F50" s="363" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G50" s="355" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H50" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I50" s="356" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J50" s="370"/>
       <c r="K50" s="369">
@@ -9880,24 +9880,24 @@
         <v>42612</v>
       </c>
       <c r="F52" s="295" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G52" s="270" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H52" s="271"/>
       <c r="I52" s="271" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J52" s="272"/>
       <c r="K52" s="268">
         <v>42651</v>
       </c>
       <c r="L52" s="267" t="s">
+        <v>488</v>
+      </c>
+      <c r="N52" s="274" t="s">
         <v>489</v>
-      </c>
-      <c r="N52" s="274" t="s">
-        <v>490</v>
       </c>
       <c r="O52" s="230">
         <v>42651</v>
@@ -9921,14 +9921,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="173" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G53" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H53" s="175"/>
       <c r="I53" s="210" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J53" s="131"/>
       <c r="K53" s="172">
@@ -9957,16 +9957,16 @@
         <v>42612</v>
       </c>
       <c r="F54" s="294" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G54" s="280" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H54" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I54" s="277" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J54" s="282"/>
       <c r="K54" s="278">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="M54" s="281"/>
       <c r="N54" s="281" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O54" s="278">
         <v>42634</v>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="F56" s="188"/>
       <c r="G56" s="174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H56" s="175"/>
       <c r="I56" s="171" t="s">
@@ -10079,16 +10079,16 @@
         <v>42612</v>
       </c>
       <c r="F57" s="294" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" s="287" t="s">
         <v>397</v>
       </c>
-      <c r="G57" s="287" t="s">
+      <c r="H57" s="281" t="s">
         <v>398</v>
       </c>
-      <c r="H57" s="281" t="s">
-        <v>399</v>
-      </c>
       <c r="I57" s="277" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J57" s="239"/>
       <c r="K57" s="240">
@@ -10118,11 +10118,11 @@
       </c>
       <c r="F58" s="190"/>
       <c r="G58" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H58" s="56"/>
       <c r="I58" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J58" s="57"/>
       <c r="K58" s="53">
@@ -10156,11 +10156,11 @@
       </c>
       <c r="F59" s="190"/>
       <c r="G59" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H59" s="56"/>
       <c r="I59" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J59" s="57"/>
       <c r="K59" s="53">
@@ -10194,10 +10194,10 @@
       </c>
       <c r="F60" s="188"/>
       <c r="G60" s="174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I60" s="175" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J60" s="131"/>
       <c r="K60" s="172">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="M60" s="175"/>
       <c r="N60" s="175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O60" s="172">
         <v>42630</v>
@@ -10232,14 +10232,14 @@
         <v>42612</v>
       </c>
       <c r="F61" s="187" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G61" s="186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H61" s="87"/>
       <c r="I61" s="185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J61" s="88"/>
       <c r="K61" s="88"/>
@@ -10270,14 +10270,14 @@
         <v>42612</v>
       </c>
       <c r="F62" s="188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G62" s="174" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H62" s="175"/>
       <c r="I62" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J62" s="131"/>
       <c r="K62" s="172">
@@ -10352,16 +10352,16 @@
         <v>42612</v>
       </c>
       <c r="F64" s="188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G64" s="174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H64" s="175" t="s">
         <v>47</v>
       </c>
       <c r="I64" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J64" s="131"/>
       <c r="K64" s="172">
@@ -10596,16 +10596,16 @@
         <v>42612</v>
       </c>
       <c r="F70" s="188" t="s">
+        <v>256</v>
+      </c>
+      <c r="G70" s="174" t="s">
         <v>257</v>
-      </c>
-      <c r="G70" s="174" t="s">
-        <v>258</v>
       </c>
       <c r="H70" s="175" t="s">
         <v>47</v>
       </c>
       <c r="I70" s="171" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J70" s="131"/>
       <c r="K70" s="172">
@@ -10722,16 +10722,16 @@
         <v>42612</v>
       </c>
       <c r="F73" s="188" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G73" s="178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H73" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I73" s="171" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="172">
@@ -10846,10 +10846,10 @@
         <v>42612</v>
       </c>
       <c r="F76" s="295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G76" s="296" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H76" s="271"/>
       <c r="I76" s="267" t="s">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="M76" s="271"/>
       <c r="N76" s="271" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O76" s="268">
         <v>42651</v>
@@ -10889,11 +10889,11 @@
       </c>
       <c r="F77" s="190"/>
       <c r="G77" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H77" s="56"/>
       <c r="I77" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J77" s="57"/>
       <c r="K77" s="53">
@@ -11004,7 +11004,7 @@
         <v>42612</v>
       </c>
       <c r="F80" s="187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G80" s="359" t="s">
         <v>158</v>
@@ -11020,7 +11020,7 @@
       <c r="N80" s="197"/>
       <c r="O80" s="34"/>
       <c r="P80" s="237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="274" customFormat="1" ht="40.5" hidden="1">
@@ -11040,14 +11040,14 @@
         <v>42612</v>
       </c>
       <c r="F81" s="295" t="s">
+        <v>446</v>
+      </c>
+      <c r="G81" s="270" t="s">
         <v>447</v>
-      </c>
-      <c r="G81" s="270" t="s">
-        <v>448</v>
       </c>
       <c r="H81" s="271"/>
       <c r="I81" s="267" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J81" s="272"/>
       <c r="K81" s="268">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="M81" s="271"/>
       <c r="N81" s="271" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O81" s="268">
         <v>42639</v>
@@ -11082,16 +11082,16 @@
         <v>42612</v>
       </c>
       <c r="F82" s="363" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G82" s="355" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H82" s="356" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I82" s="356" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J82" s="370"/>
       <c r="K82" s="369">
@@ -11102,11 +11102,11 @@
       </c>
       <c r="M82" s="356"/>
       <c r="N82" s="356" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O82" s="369"/>
       <c r="P82" s="371" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="H85" s="87"/>
       <c r="I85" s="210" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J85" s="71"/>
       <c r="K85" s="67"/>
@@ -11236,16 +11236,16 @@
         <v>42616</v>
       </c>
       <c r="F86" s="190" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G86" s="215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H86" s="204" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I86" s="200" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J86" s="205"/>
       <c r="K86" s="201">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="M86" s="204"/>
       <c r="N86" s="204" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O86" s="201"/>
       <c r="P86" s="206"/>
@@ -11278,16 +11278,16 @@
         <v>42616</v>
       </c>
       <c r="F87" s="190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G87" s="203" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H87" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I87" s="200" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J87" s="205"/>
       <c r="K87" s="201">
@@ -11320,13 +11320,13 @@
         <v>42616</v>
       </c>
       <c r="F88" s="347" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G88" s="348" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I88" s="372" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K88" s="345">
         <v>42656</v>
@@ -11335,7 +11335,7 @@
         <v>59</v>
       </c>
       <c r="N88" s="372" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O88" s="345">
         <v>42653</v>
@@ -11360,13 +11360,13 @@
       </c>
       <c r="F89" s="202"/>
       <c r="G89" s="203" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H89" s="204" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I89" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J89" s="205"/>
       <c r="K89" s="201">
@@ -11396,13 +11396,13 @@
       </c>
       <c r="F90" s="190"/>
       <c r="G90" s="203" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H90" s="204" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I90" s="200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J90" s="205"/>
       <c r="K90" s="201">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="M90" s="204"/>
       <c r="N90" s="204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O90" s="201"/>
       <c r="P90" s="206"/>
@@ -11436,11 +11436,11 @@
       </c>
       <c r="F91" s="190"/>
       <c r="G91" s="203" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H91" s="204"/>
       <c r="I91" s="200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J91" s="205"/>
       <c r="K91" s="201">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="M91" s="204"/>
       <c r="N91" s="204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O91" s="201"/>
       <c r="P91" s="206"/>
@@ -11474,11 +11474,11 @@
       </c>
       <c r="F92" s="190"/>
       <c r="G92" s="203" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H92" s="204"/>
       <c r="I92" s="200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J92" s="205"/>
       <c r="K92" s="201">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="M92" s="204"/>
       <c r="N92" s="204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O92" s="201"/>
       <c r="P92" s="206"/>
@@ -11512,11 +11512,11 @@
       </c>
       <c r="F93" s="190"/>
       <c r="G93" s="203" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H93" s="204"/>
       <c r="I93" s="200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J93" s="205"/>
       <c r="K93" s="201">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="M93" s="204"/>
       <c r="N93" s="204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O93" s="201"/>
       <c r="P93" s="206"/>
@@ -11550,11 +11550,11 @@
       </c>
       <c r="F94" s="190"/>
       <c r="G94" s="203" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H94" s="204"/>
       <c r="I94" s="200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J94" s="205"/>
       <c r="K94" s="201">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="M94" s="204"/>
       <c r="N94" s="204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O94" s="201"/>
       <c r="P94" s="206"/>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="H95" s="204"/>
       <c r="I95" s="200" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J95" s="205"/>
       <c r="K95" s="201">
@@ -11625,16 +11625,16 @@
         <v>42616</v>
       </c>
       <c r="F96" s="363" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G96" s="355" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H96" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I96" s="372" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K96" s="345">
         <v>42656</v>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="M96" s="356"/>
       <c r="N96" s="356" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O96" s="369">
         <v>42653</v>
@@ -11668,14 +11668,14 @@
         <v>42616</v>
       </c>
       <c r="F97" s="294" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G97" s="280" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H97" s="281"/>
       <c r="I97" s="277" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J97" s="282"/>
       <c r="K97" s="240">
@@ -11708,10 +11708,10 @@
         <v>42616</v>
       </c>
       <c r="F98" s="294" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G98" s="280" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H98" s="281"/>
       <c r="I98" s="277" t="s">
@@ -11748,10 +11748,10 @@
         <v>42616</v>
       </c>
       <c r="F99" s="294" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G99" s="280" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H99" s="281"/>
       <c r="I99" s="277" t="s">
@@ -11788,7 +11788,7 @@
         <v>42616</v>
       </c>
       <c r="F100" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G100" s="280" t="s">
         <v>161</v>
@@ -11829,11 +11829,11 @@
       </c>
       <c r="F101" s="202"/>
       <c r="G101" s="215" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H101" s="204"/>
       <c r="I101" s="200" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J101" s="205"/>
       <c r="K101" s="201">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="F105" s="190"/>
       <c r="G105" s="203" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H105" s="204" t="s">
         <v>47</v>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="F107" s="190"/>
       <c r="G107" s="203" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H107" s="204" t="s">
         <v>47</v>
@@ -12098,27 +12098,31 @@
         <v>42616</v>
       </c>
       <c r="F108" s="187" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G108" s="196" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H108" s="197" t="s">
         <v>47</v>
       </c>
       <c r="I108" s="175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
-      <c r="L108" s="197"/>
+      <c r="L108" s="352" t="s">
+        <v>58</v>
+      </c>
       <c r="M108" s="197"/>
-      <c r="N108" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="O108" s="34"/>
+      <c r="N108" s="352" t="s">
+        <v>659</v>
+      </c>
+      <c r="O108" s="34">
+        <v>42660</v>
+      </c>
       <c r="P108" s="237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
@@ -12139,13 +12143,13 @@
       </c>
       <c r="F109" s="202"/>
       <c r="G109" s="203" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H109" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I109" s="200" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J109" s="205"/>
       <c r="K109" s="201">
@@ -12176,10 +12180,10 @@
         <v>42616</v>
       </c>
       <c r="F110" s="295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G110" s="311" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H110" s="298" t="s">
         <v>47</v>
@@ -12196,7 +12200,7 @@
       </c>
       <c r="M110" s="302"/>
       <c r="N110" s="302" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O110" s="312">
         <v>42643</v>
@@ -12221,13 +12225,13 @@
       </c>
       <c r="F111" s="218"/>
       <c r="G111" s="219" t="s">
+        <v>299</v>
+      </c>
+      <c r="H111" s="220" t="s">
         <v>300</v>
       </c>
-      <c r="H111" s="220" t="s">
-        <v>301</v>
-      </c>
       <c r="I111" s="221" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J111" s="222"/>
       <c r="K111" s="223">
@@ -12238,7 +12242,7 @@
       </c>
       <c r="M111" s="224"/>
       <c r="N111" s="224" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O111" s="223"/>
       <c r="P111" s="225"/>
@@ -12260,10 +12264,10 @@
         <v>42616</v>
       </c>
       <c r="F112" s="353" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G112" s="351" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H112" s="262" t="s">
         <v>47</v>
@@ -12276,7 +12280,7 @@
       <c r="N112" s="262"/>
       <c r="O112" s="34"/>
       <c r="P112" s="237" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
@@ -12296,10 +12300,10 @@
         <v>42616</v>
       </c>
       <c r="F113" s="353" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G113" s="351" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H113" s="197" t="s">
         <v>47</v>
@@ -12308,11 +12312,11 @@
       <c r="J113" s="372"/>
       <c r="K113" s="345"/>
       <c r="L113" s="262" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M113" s="262"/>
       <c r="N113" s="262" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O113" s="34">
         <v>42654</v>
@@ -12337,11 +12341,11 @@
       </c>
       <c r="F114" s="190"/>
       <c r="G114" s="203" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H114" s="204"/>
       <c r="I114" s="221" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J114" s="222"/>
       <c r="K114" s="223">
@@ -12375,11 +12379,11 @@
       </c>
       <c r="F115" s="190"/>
       <c r="G115" s="215" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H115" s="204"/>
       <c r="I115" s="221" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J115" s="222"/>
       <c r="K115" s="223">
@@ -12412,21 +12416,21 @@
         <v>42625</v>
       </c>
       <c r="F116" s="363" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G116" s="355" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H116" s="356"/>
       <c r="I116" s="298" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J116" s="370"/>
       <c r="K116" s="369">
         <v>42656</v>
       </c>
       <c r="L116" s="356" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M116" s="356"/>
       <c r="N116" s="356"/>
@@ -12453,11 +12457,11 @@
       </c>
       <c r="F117" s="202"/>
       <c r="G117" s="203" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H117" s="204"/>
       <c r="I117" s="226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J117" s="205"/>
       <c r="K117" s="201">
@@ -12502,7 +12506,7 @@
       </c>
       <c r="M118" s="204"/>
       <c r="N118" s="204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O118" s="201">
         <v>42630</v>
@@ -12542,7 +12546,7 @@
       </c>
       <c r="M119" s="204"/>
       <c r="N119" s="204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O119" s="201">
         <v>42630</v>
@@ -12605,11 +12609,11 @@
       </c>
       <c r="F121" s="190"/>
       <c r="G121" s="203" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H121" s="204"/>
       <c r="I121" s="226" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J121" s="205"/>
       <c r="K121" s="201">
@@ -12654,11 +12658,11 @@
         <v>42632</v>
       </c>
       <c r="L122" s="200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M122" s="204"/>
       <c r="N122" s="204" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O122" s="201">
         <v>42634</v>
@@ -12682,14 +12686,14 @@
         <v>42626</v>
       </c>
       <c r="F123" s="190" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G123" s="203" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H123" s="204"/>
       <c r="I123" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J123" s="205"/>
       <c r="K123" s="201"/>
@@ -12698,7 +12702,7 @@
       </c>
       <c r="M123" s="204"/>
       <c r="N123" s="204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O123" s="201"/>
       <c r="P123" s="206"/>
@@ -12721,11 +12725,11 @@
       </c>
       <c r="F124" s="190"/>
       <c r="G124" s="203" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H124" s="204"/>
       <c r="I124" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J124" s="205"/>
       <c r="K124" s="201">
@@ -12759,11 +12763,11 @@
       </c>
       <c r="F125" s="190"/>
       <c r="G125" s="203" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H125" s="204"/>
       <c r="I125" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J125" s="205"/>
       <c r="K125" s="201">
@@ -12797,13 +12801,13 @@
       </c>
       <c r="F126" s="190"/>
       <c r="G126" s="203" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H126" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I126" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J126" s="205"/>
       <c r="K126" s="201">
@@ -12814,7 +12818,7 @@
       </c>
       <c r="M126" s="204"/>
       <c r="N126" s="204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O126" s="201"/>
       <c r="P126" s="206"/>
@@ -12837,13 +12841,13 @@
       </c>
       <c r="F127" s="190"/>
       <c r="G127" s="203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H127" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I127" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J127" s="205"/>
       <c r="K127" s="201">
@@ -12883,7 +12887,7 @@
         <v>47</v>
       </c>
       <c r="I128" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J128" s="205"/>
       <c r="K128" s="201">
@@ -12894,7 +12898,7 @@
       </c>
       <c r="M128" s="204"/>
       <c r="N128" s="204" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O128" s="201">
         <v>42625</v>
@@ -12925,7 +12929,7 @@
         <v>47</v>
       </c>
       <c r="I129" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J129" s="205"/>
       <c r="K129" s="201">
@@ -12936,7 +12940,7 @@
       </c>
       <c r="M129" s="204"/>
       <c r="N129" s="204" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O129" s="201">
         <v>42625</v>
@@ -12961,13 +12965,13 @@
       </c>
       <c r="F130" s="190"/>
       <c r="G130" s="203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H130" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J130" s="205"/>
       <c r="K130" s="201">
@@ -12978,7 +12982,7 @@
       </c>
       <c r="M130" s="204"/>
       <c r="N130" s="204" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O130" s="201">
         <v>42625</v>
@@ -13002,16 +13006,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="295" t="s">
+        <v>449</v>
+      </c>
+      <c r="G131" s="270" t="s">
         <v>450</v>
       </c>
-      <c r="G131" s="270" t="s">
-        <v>451</v>
-      </c>
       <c r="H131" s="271" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I131" s="267" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J131" s="272"/>
       <c r="K131" s="268">
@@ -13022,7 +13026,7 @@
       </c>
       <c r="M131" s="271"/>
       <c r="N131" s="271" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O131" s="305">
         <v>42643</v>
@@ -13046,7 +13050,7 @@
         <v>42627</v>
       </c>
       <c r="F132" s="363" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G132" s="355" t="s">
         <v>156</v>
@@ -13055,7 +13059,7 @@
         <v>155</v>
       </c>
       <c r="I132" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J132" s="370"/>
       <c r="K132" s="369">
@@ -13093,7 +13097,7 @@
       </c>
       <c r="H133" s="204"/>
       <c r="I133" s="200" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J133" s="205"/>
       <c r="K133" s="201">
@@ -13104,7 +13108,7 @@
       </c>
       <c r="M133" s="204"/>
       <c r="N133" s="204" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O133" s="201">
         <v>42625</v>
@@ -13129,7 +13133,7 @@
       </c>
       <c r="F134" s="295"/>
       <c r="G134" s="270" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H134" s="271"/>
       <c r="I134" s="267" t="s">
@@ -13167,7 +13171,7 @@
       </c>
       <c r="F135" s="295"/>
       <c r="G135" s="270" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H135" s="271"/>
       <c r="I135" s="267" t="s">
@@ -13204,10 +13208,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="293" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G136" s="359" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H136" s="262" t="s">
         <v>138</v>
@@ -13220,7 +13224,7 @@
       <c r="N136" s="262"/>
       <c r="O136" s="34"/>
       <c r="P136" s="237" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
@@ -13241,11 +13245,11 @@
       </c>
       <c r="F137" s="190"/>
       <c r="G137" s="203" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H137" s="204"/>
       <c r="I137" s="200" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J137" s="205"/>
       <c r="K137" s="201">
@@ -13279,7 +13283,7 @@
       </c>
       <c r="F138" s="269"/>
       <c r="G138" s="270" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H138" s="271" t="s">
         <v>47</v>
@@ -13296,7 +13300,7 @@
       </c>
       <c r="M138" s="271"/>
       <c r="N138" s="271" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O138" s="268">
         <v>42642</v>
@@ -13320,14 +13324,14 @@
         <v>42630</v>
       </c>
       <c r="F139" s="190" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G139" s="203" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H139" s="204"/>
       <c r="I139" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J139" s="205"/>
       <c r="K139" s="201">
@@ -13338,7 +13342,7 @@
       </c>
       <c r="M139" s="204"/>
       <c r="N139" s="204" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O139" s="201">
         <v>42630</v>
@@ -13363,7 +13367,7 @@
       </c>
       <c r="F140" s="269"/>
       <c r="G140" s="296" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H140" s="271"/>
       <c r="I140" s="267" t="s">
@@ -13378,7 +13382,7 @@
       </c>
       <c r="M140" s="271"/>
       <c r="N140" s="271" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O140" s="268">
         <v>42641</v>
@@ -13402,13 +13406,13 @@
         <v>42630</v>
       </c>
       <c r="F141" s="279" t="s">
+        <v>425</v>
+      </c>
+      <c r="G141" s="287" t="s">
         <v>426</v>
       </c>
-      <c r="G141" s="287" t="s">
-        <v>427</v>
-      </c>
       <c r="H141" s="281" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I141" s="267" t="s">
         <v>40</v>
@@ -13422,7 +13426,7 @@
       </c>
       <c r="M141" s="281"/>
       <c r="N141" s="281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O141" s="278">
         <v>42641</v>
@@ -13447,7 +13451,7 @@
       </c>
       <c r="F142" s="315"/>
       <c r="G142" s="316" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H142" s="318"/>
       <c r="I142" s="277" t="s">
@@ -13470,7 +13474,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C143" s="200" t="s">
         <v>16</v>
@@ -13483,10 +13487,10 @@
       </c>
       <c r="F143" s="228"/>
       <c r="G143" s="229" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I143" s="207" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K143" s="230">
         <v>42634</v>
@@ -13511,10 +13515,10 @@
       </c>
       <c r="F144" s="228"/>
       <c r="G144" s="231" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I144" s="207" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K144" s="230">
         <v>42634</v>
@@ -13539,10 +13543,10 @@
       </c>
       <c r="F145" s="228"/>
       <c r="G145" s="231" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I145" s="207" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K145" s="230">
         <v>42634</v>
@@ -13566,13 +13570,13 @@
         <v>42633</v>
       </c>
       <c r="F146" s="374" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G146" s="231" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I146" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J146" s="370"/>
       <c r="K146" s="369">
@@ -13582,7 +13586,7 @@
         <v>59</v>
       </c>
       <c r="N146" s="372" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O146" s="345">
         <v>42652</v>
@@ -13606,13 +13610,13 @@
         <v>42633</v>
       </c>
       <c r="F147" s="374" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G147" s="231" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I147" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J147" s="370"/>
       <c r="K147" s="369">
@@ -13643,13 +13647,13 @@
         <v>42633</v>
       </c>
       <c r="F148" s="319" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G148" s="320" t="s">
+        <v>429</v>
+      </c>
+      <c r="I148" s="283" t="s">
         <v>430</v>
-      </c>
-      <c r="I148" s="283" t="s">
-        <v>431</v>
       </c>
       <c r="K148" s="321">
         <v>42643</v>
@@ -13658,7 +13662,7 @@
         <v>59</v>
       </c>
       <c r="N148" s="244" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O148" s="321">
         <v>42642</v>
@@ -13682,22 +13686,22 @@
         <v>42633</v>
       </c>
       <c r="F149" s="319" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G149" s="320" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I149" s="283" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K149" s="317">
         <v>42643</v>
       </c>
       <c r="L149" s="283" t="s">
+        <v>464</v>
+      </c>
+      <c r="N149" s="283" t="s">
         <v>465</v>
-      </c>
-      <c r="N149" s="283" t="s">
-        <v>466</v>
       </c>
       <c r="O149" s="317">
         <v>42641</v>
@@ -13721,20 +13725,20 @@
         <v>42633</v>
       </c>
       <c r="F150" s="242" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G150" s="291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H150" s="235"/>
       <c r="I150" s="255" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L150" s="184" t="s">
+        <v>368</v>
+      </c>
+      <c r="N150" s="184" t="s">
         <v>369</v>
-      </c>
-      <c r="N150" s="184" t="s">
-        <v>370</v>
       </c>
       <c r="O150" s="243">
         <v>42642</v>
@@ -13758,16 +13762,16 @@
         <v>42636</v>
       </c>
       <c r="F151" s="294" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G151" s="280" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H151" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I151" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J151" s="282"/>
       <c r="K151" s="278">
@@ -13800,16 +13804,16 @@
         <v>42636</v>
       </c>
       <c r="F152" s="294" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G152" s="280" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H152" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I152" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J152" s="282"/>
       <c r="K152" s="278">
@@ -13820,7 +13824,7 @@
       </c>
       <c r="M152" s="281"/>
       <c r="N152" s="281" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O152" s="240">
         <v>42643</v>
@@ -13844,29 +13848,29 @@
         <v>42636</v>
       </c>
       <c r="F153" s="211" t="s">
+        <v>221</v>
+      </c>
+      <c r="G153" s="196" t="s">
+        <v>225</v>
+      </c>
+      <c r="H153" s="197" t="s">
         <v>222</v>
-      </c>
-      <c r="G153" s="196" t="s">
-        <v>226</v>
-      </c>
-      <c r="H153" s="197" t="s">
-        <v>223</v>
       </c>
       <c r="I153" s="197"/>
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
       <c r="L153" s="352" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M153" s="197"/>
       <c r="N153" s="352" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O153" s="34">
         <v>42657</v>
       </c>
       <c r="P153" s="237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
@@ -13886,16 +13890,16 @@
         <v>42636</v>
       </c>
       <c r="F154" s="294" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G154" s="287" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H154" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I154" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J154" s="282"/>
       <c r="K154" s="278">
@@ -13906,7 +13910,7 @@
       </c>
       <c r="M154" s="281"/>
       <c r="N154" s="281" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O154" s="240">
         <v>42643</v>
@@ -13930,14 +13934,14 @@
         <v>42636</v>
       </c>
       <c r="F155" s="294" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G155" s="322" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H155" s="281"/>
       <c r="I155" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J155" s="282"/>
       <c r="K155" s="278">
@@ -13948,7 +13952,7 @@
       </c>
       <c r="M155" s="281"/>
       <c r="N155" s="281" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O155" s="240">
         <v>42643</v>
@@ -13972,16 +13976,16 @@
         <v>42636</v>
       </c>
       <c r="F156" s="294" t="s">
+        <v>232</v>
+      </c>
+      <c r="G156" s="287" t="s">
         <v>233</v>
-      </c>
-      <c r="G156" s="287" t="s">
-        <v>234</v>
       </c>
       <c r="H156" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I156" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J156" s="282"/>
       <c r="K156" s="278">
@@ -14014,14 +14018,14 @@
         <v>42636</v>
       </c>
       <c r="F157" s="294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G157" s="280" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H157" s="281"/>
       <c r="I157" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J157" s="282"/>
       <c r="K157" s="278">
@@ -14032,7 +14036,7 @@
       </c>
       <c r="M157" s="281"/>
       <c r="N157" s="281" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O157" s="240">
         <v>42643</v>
@@ -14056,16 +14060,16 @@
         <v>42636</v>
       </c>
       <c r="F158" s="211" t="s">
+        <v>235</v>
+      </c>
+      <c r="G158" s="196" t="s">
         <v>236</v>
       </c>
-      <c r="G158" s="196" t="s">
-        <v>237</v>
-      </c>
       <c r="H158" s="197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I158" s="262" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -14074,7 +14078,7 @@
       </c>
       <c r="M158" s="197"/>
       <c r="N158" s="197" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
@@ -14098,27 +14102,27 @@
         <v>42636</v>
       </c>
       <c r="F159" s="294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G159" s="280" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H159" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I159" s="277" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J159" s="282"/>
       <c r="K159" s="278">
         <v>42643</v>
       </c>
       <c r="L159" s="281" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M159" s="281"/>
       <c r="N159" s="281" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O159" s="240">
         <v>42643</v>
@@ -14142,16 +14146,16 @@
         <v>42636</v>
       </c>
       <c r="F160" s="294" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G160" s="287" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H160" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I160" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J160" s="282"/>
       <c r="K160" s="278">
@@ -14184,14 +14188,14 @@
         <v>42636</v>
       </c>
       <c r="F161" s="294" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G161" s="280" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H161" s="281"/>
       <c r="I161" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J161" s="282"/>
       <c r="K161" s="278">
@@ -14224,16 +14228,16 @@
         <v>42636</v>
       </c>
       <c r="F162" s="294" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G162" s="323" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H162" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I162" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J162" s="282"/>
       <c r="K162" s="278">
@@ -14266,27 +14270,27 @@
         <v>42636</v>
       </c>
       <c r="F163" s="294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G163" s="322" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H163" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I163" s="277" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J163" s="282"/>
       <c r="K163" s="278">
         <v>42643</v>
       </c>
       <c r="L163" s="281" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M163" s="281"/>
       <c r="N163" s="281" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O163" s="240">
         <v>42643</v>
@@ -14310,16 +14314,16 @@
         <v>42636</v>
       </c>
       <c r="F164" s="363" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G164" s="348" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H164" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I164" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J164" s="370"/>
       <c r="K164" s="369">
@@ -14330,7 +14334,7 @@
       </c>
       <c r="M164" s="356"/>
       <c r="N164" s="356" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O164" s="369">
         <v>42653</v>
@@ -14354,14 +14358,14 @@
         <v>42636</v>
       </c>
       <c r="F165" s="295" t="s">
+        <v>493</v>
+      </c>
+      <c r="G165" s="324" t="s">
         <v>494</v>
-      </c>
-      <c r="G165" s="324" t="s">
-        <v>495</v>
       </c>
       <c r="H165" s="271"/>
       <c r="I165" s="267" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J165" s="272"/>
       <c r="K165" s="268">
@@ -14372,7 +14376,7 @@
       </c>
       <c r="M165" s="271"/>
       <c r="N165" s="271" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O165" s="268">
         <v>42651</v>
@@ -14396,16 +14400,16 @@
         <v>42636</v>
       </c>
       <c r="F166" s="295" t="s">
+        <v>290</v>
+      </c>
+      <c r="G166" s="324" t="s">
         <v>291</v>
-      </c>
-      <c r="G166" s="324" t="s">
-        <v>292</v>
       </c>
       <c r="H166" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I166" s="267" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J166" s="272"/>
       <c r="K166" s="268">
@@ -14416,7 +14420,7 @@
       </c>
       <c r="M166" s="271"/>
       <c r="N166" s="271" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O166" s="305">
         <v>42643</v>
@@ -14440,16 +14444,16 @@
         <v>42636</v>
       </c>
       <c r="F167" s="295" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G167" s="324" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H167" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I167" s="267" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J167" s="272"/>
       <c r="K167" s="268">
@@ -14482,14 +14486,14 @@
         <v>42636</v>
       </c>
       <c r="F168" s="211" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G168" s="297" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H168" s="197"/>
       <c r="I168" s="255" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J168" s="198"/>
       <c r="K168" s="198"/>
@@ -14498,7 +14502,7 @@
       </c>
       <c r="M168" s="197"/>
       <c r="N168" s="197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O168" s="195">
         <v>42640</v>
@@ -14522,14 +14526,14 @@
         <v>42636</v>
       </c>
       <c r="F169" s="211" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G169" s="297" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H169" s="197"/>
       <c r="I169" s="255" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J169" s="198"/>
       <c r="K169" s="198"/>
@@ -14538,7 +14542,7 @@
       </c>
       <c r="M169" s="197"/>
       <c r="N169" s="197" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O169" s="195">
         <v>42640</v>
@@ -14562,16 +14566,16 @@
         <v>42636</v>
       </c>
       <c r="F170" s="294" t="s">
+        <v>309</v>
+      </c>
+      <c r="G170" s="323" t="s">
         <v>310</v>
-      </c>
-      <c r="G170" s="323" t="s">
-        <v>311</v>
       </c>
       <c r="H170" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I170" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J170" s="282"/>
       <c r="K170" s="278">
@@ -14604,23 +14608,23 @@
         <v>42636</v>
       </c>
       <c r="F171" s="228" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G171" s="341" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H171" s="271"/>
       <c r="I171" s="274" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K171" s="230">
         <v>42651</v>
       </c>
       <c r="L171" s="274" t="s">
+        <v>507</v>
+      </c>
+      <c r="N171" s="274" t="s">
         <v>508</v>
-      </c>
-      <c r="N171" s="274" t="s">
-        <v>509</v>
       </c>
       <c r="O171" s="230">
         <v>42640</v>
@@ -14643,16 +14647,16 @@
         <v>42636</v>
       </c>
       <c r="F172" s="319" t="s">
+        <v>356</v>
+      </c>
+      <c r="G172" s="325" t="s">
         <v>357</v>
       </c>
-      <c r="G172" s="325" t="s">
+      <c r="H172" s="281" t="s">
         <v>358</v>
       </c>
-      <c r="H172" s="281" t="s">
-        <v>359</v>
-      </c>
       <c r="I172" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J172" s="282"/>
       <c r="K172" s="278">
@@ -14682,16 +14686,16 @@
         <v>42636</v>
       </c>
       <c r="F173" s="319" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G173" s="326" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H173" s="281" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I173" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J173" s="282"/>
       <c r="K173" s="278">
@@ -14701,7 +14705,7 @@
         <v>59</v>
       </c>
       <c r="N173" s="244" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O173" s="321">
         <v>42643</v>
@@ -14724,14 +14728,14 @@
         <v>42636</v>
       </c>
       <c r="F174" s="294" t="s">
+        <v>360</v>
+      </c>
+      <c r="G174" s="325" t="s">
         <v>361</v>
-      </c>
-      <c r="G174" s="325" t="s">
-        <v>362</v>
       </c>
       <c r="H174" s="281"/>
       <c r="I174" s="277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J174" s="282"/>
       <c r="K174" s="278">
@@ -14761,14 +14765,14 @@
         <v>42641</v>
       </c>
       <c r="F175" s="251" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G175" s="289" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H175" s="248"/>
       <c r="I175" s="254" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J175" s="246"/>
       <c r="K175" s="304"/>
@@ -14795,14 +14799,14 @@
         <v>42645</v>
       </c>
       <c r="F176" s="295" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G176" s="341" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H176" s="271"/>
       <c r="I176" s="274" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J176" s="274"/>
       <c r="K176" s="230">
@@ -14813,7 +14817,7 @@
       </c>
       <c r="M176" s="274"/>
       <c r="N176" s="274" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O176" s="230">
         <v>42651</v>
@@ -14837,14 +14841,14 @@
         <v>42645</v>
       </c>
       <c r="F177" s="363" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G177" s="342" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H177" s="356"/>
       <c r="I177" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J177" s="370"/>
       <c r="K177" s="369">
@@ -14857,7 +14861,7 @@
         <v>42655</v>
       </c>
       <c r="P177" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:16" s="372" customFormat="1" ht="108" hidden="1">
@@ -14877,14 +14881,14 @@
         <v>42645</v>
       </c>
       <c r="F178" s="363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G178" s="341" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H178" s="356"/>
       <c r="I178" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J178" s="370"/>
       <c r="K178" s="369">
@@ -14917,14 +14921,14 @@
         <v>42645</v>
       </c>
       <c r="F179" s="363" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G179" s="341" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H179" s="356"/>
       <c r="I179" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J179" s="370"/>
       <c r="K179" s="369">
@@ -14957,14 +14961,14 @@
         <v>42645</v>
       </c>
       <c r="F180" s="363" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G180" s="341" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H180" s="356"/>
       <c r="I180" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J180" s="370"/>
       <c r="K180" s="369">
@@ -14997,19 +15001,19 @@
         <v>42645</v>
       </c>
       <c r="F181" s="293" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G181" s="362" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H181" s="262"/>
       <c r="I181" s="254" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J181" s="254"/>
       <c r="K181" s="254"/>
       <c r="L181" s="258" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M181" s="254"/>
       <c r="N181" s="254"/>
@@ -15035,19 +15039,19 @@
         <v>42645</v>
       </c>
       <c r="F182" s="293" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G182" s="362" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H182" s="262"/>
       <c r="I182" s="254" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J182" s="254"/>
       <c r="K182" s="254"/>
       <c r="L182" s="258" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M182" s="254"/>
       <c r="N182" s="254"/>
@@ -15073,25 +15077,25 @@
         <v>42645</v>
       </c>
       <c r="F183" s="363" t="s">
+        <v>623</v>
+      </c>
+      <c r="G183" s="341" t="s">
         <v>624</v>
-      </c>
-      <c r="G183" s="341" t="s">
-        <v>625</v>
       </c>
       <c r="H183" s="356"/>
       <c r="I183" s="298" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J183" s="370"/>
       <c r="K183" s="369">
         <v>42656</v>
       </c>
       <c r="L183" s="267" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M183" s="274"/>
       <c r="N183" s="274" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O183" s="230">
         <v>42651</v>
@@ -15115,23 +15119,23 @@
         <v>42645</v>
       </c>
       <c r="F184" s="293" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G184" s="362" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H184" s="262"/>
       <c r="I184" s="254" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J184" s="254"/>
       <c r="K184" s="254"/>
       <c r="L184" s="258" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M184" s="254"/>
       <c r="N184" s="254" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O184" s="304">
         <v>42651</v>
@@ -15155,30 +15159,30 @@
         <v>42645</v>
       </c>
       <c r="F185" s="363" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G185" s="342" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H185" s="356"/>
       <c r="I185" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J185" s="370"/>
       <c r="K185" s="369">
         <v>42656</v>
       </c>
       <c r="L185" s="356" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N185" s="372" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O185" s="345">
         <v>42654</v>
       </c>
       <c r="P185" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15198,16 +15202,16 @@
         <v>42645</v>
       </c>
       <c r="F186" s="363" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G186" s="341" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H186" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I186" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J186" s="370"/>
       <c r="K186" s="369">
@@ -15217,13 +15221,13 @@
         <v>59</v>
       </c>
       <c r="N186" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O186" s="345">
         <v>42654</v>
       </c>
       <c r="P186" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -15243,29 +15247,29 @@
         <v>42645</v>
       </c>
       <c r="F187" s="363" t="s">
+        <v>628</v>
+      </c>
+      <c r="G187" s="341" t="s">
+        <v>631</v>
+      </c>
+      <c r="H187" s="356" t="s">
         <v>629</v>
       </c>
-      <c r="G187" s="341" t="s">
-        <v>632</v>
-      </c>
-      <c r="H187" s="356" t="s">
-        <v>630</v>
-      </c>
       <c r="I187" s="298" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J187" s="370"/>
       <c r="K187" s="369">
         <v>42656</v>
       </c>
       <c r="L187" s="356" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O187" s="345">
         <v>42654</v>
       </c>
       <c r="P187" s="372" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="381" customFormat="1" ht="81" hidden="1">
@@ -15285,32 +15289,32 @@
         <v>42645</v>
       </c>
       <c r="F188" s="376" t="s">
+        <v>632</v>
+      </c>
+      <c r="G188" s="384" t="s">
         <v>633</v>
       </c>
-      <c r="G188" s="384" t="s">
-        <v>634</v>
-      </c>
       <c r="H188" s="377" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I188" s="378" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J188" s="379"/>
       <c r="K188" s="380">
         <v>42656</v>
       </c>
       <c r="L188" s="377" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N188" s="381" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O188" s="383">
         <v>42654</v>
       </c>
       <c r="P188" s="381" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
@@ -15330,16 +15334,16 @@
         <v>42645</v>
       </c>
       <c r="F189" s="363" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G189" s="342" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H189" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I189" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J189" s="370"/>
       <c r="K189" s="369">
@@ -15349,13 +15353,13 @@
         <v>59</v>
       </c>
       <c r="N189" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O189" s="345">
         <v>42654</v>
       </c>
       <c r="P189" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15375,16 +15379,16 @@
         <v>42645</v>
       </c>
       <c r="F190" s="363" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G190" s="341" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H190" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I190" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J190" s="370"/>
       <c r="K190" s="369">
@@ -15394,13 +15398,13 @@
         <v>59</v>
       </c>
       <c r="N190" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O190" s="345">
         <v>42654</v>
       </c>
       <c r="P190" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -15420,16 +15424,16 @@
         <v>42645</v>
       </c>
       <c r="F191" s="363" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G191" s="341" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H191" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I191" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J191" s="370"/>
       <c r="K191" s="369">
@@ -15439,13 +15443,13 @@
         <v>59</v>
       </c>
       <c r="N191" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O191" s="345">
         <v>42654</v>
       </c>
       <c r="P191" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="27" hidden="1">
@@ -15465,10 +15469,10 @@
         <v>42645</v>
       </c>
       <c r="F192" s="293" t="s">
+        <v>410</v>
+      </c>
+      <c r="G192" s="303" t="s">
         <v>411</v>
-      </c>
-      <c r="G192" s="303" t="s">
-        <v>412</v>
       </c>
       <c r="H192" s="262" t="s">
         <v>47</v>
@@ -15477,17 +15481,17 @@
       <c r="J192" s="254"/>
       <c r="K192" s="254"/>
       <c r="L192" s="258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M192" s="254"/>
       <c r="N192" s="254" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O192" s="304">
         <v>42657</v>
       </c>
       <c r="P192" s="254" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15507,16 +15511,16 @@
         <v>42645</v>
       </c>
       <c r="F193" s="363" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G193" s="385" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H193" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I193" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J193" s="370"/>
       <c r="K193" s="369">
@@ -15527,13 +15531,13 @@
       </c>
       <c r="M193" s="274"/>
       <c r="N193" s="274" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O193" s="230">
         <v>42654</v>
       </c>
       <c r="P193" s="274" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15553,16 +15557,16 @@
         <v>42645</v>
       </c>
       <c r="F194" s="363" t="s">
+        <v>403</v>
+      </c>
+      <c r="G194" s="341" t="s">
         <v>404</v>
-      </c>
-      <c r="G194" s="341" t="s">
-        <v>405</v>
       </c>
       <c r="H194" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I194" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J194" s="370"/>
       <c r="K194" s="369">
@@ -15572,13 +15576,13 @@
         <v>59</v>
       </c>
       <c r="N194" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O194" s="345">
         <v>42654</v>
       </c>
       <c r="P194" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15598,16 +15602,16 @@
         <v>42645</v>
       </c>
       <c r="F195" s="363" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G195" s="341" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H195" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I195" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J195" s="370"/>
       <c r="K195" s="369">
@@ -15617,13 +15621,13 @@
         <v>59</v>
       </c>
       <c r="N195" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O195" s="345">
         <v>42654</v>
       </c>
       <c r="P195" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="372" customFormat="1" hidden="1">
@@ -15643,16 +15647,16 @@
         <v>42645</v>
       </c>
       <c r="F196" s="363" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G196" s="341" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H196" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I196" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J196" s="370"/>
       <c r="K196" s="369">
@@ -15665,7 +15669,7 @@
         <v>42654</v>
       </c>
       <c r="P196" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15685,16 +15689,16 @@
         <v>42645</v>
       </c>
       <c r="F197" s="363" t="s">
+        <v>406</v>
+      </c>
+      <c r="G197" s="341" t="s">
         <v>407</v>
-      </c>
-      <c r="G197" s="341" t="s">
-        <v>408</v>
       </c>
       <c r="H197" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I197" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J197" s="370"/>
       <c r="K197" s="369">
@@ -15704,13 +15708,13 @@
         <v>59</v>
       </c>
       <c r="N197" s="372" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O197" s="345">
         <v>42654</v>
       </c>
       <c r="P197" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
@@ -15730,27 +15734,27 @@
         <v>42645</v>
       </c>
       <c r="F198" s="295" t="s">
+        <v>509</v>
+      </c>
+      <c r="G198" s="342" t="s">
         <v>510</v>
       </c>
-      <c r="G198" s="342" t="s">
+      <c r="H198" s="271" t="s">
         <v>511</v>
       </c>
-      <c r="H198" s="271" t="s">
-        <v>512</v>
-      </c>
       <c r="I198" s="274" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J198" s="274"/>
       <c r="K198" s="230">
         <v>42651</v>
       </c>
       <c r="L198" s="267" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M198" s="274"/>
       <c r="N198" s="274" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O198" s="230">
         <v>42651</v>
@@ -15774,16 +15778,16 @@
         <v>42645</v>
       </c>
       <c r="F199" s="363" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G199" s="341" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H199" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I199" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J199" s="370"/>
       <c r="K199" s="369">
@@ -15793,13 +15797,13 @@
         <v>59</v>
       </c>
       <c r="N199" s="372" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O199" s="345">
         <v>42655</v>
       </c>
       <c r="P199" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="40.5" hidden="1">
@@ -15819,10 +15823,10 @@
         <v>42645</v>
       </c>
       <c r="F200" s="293" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G200" s="289" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H200" s="262" t="s">
         <v>47</v>
@@ -15831,17 +15835,17 @@
       <c r="J200" s="254"/>
       <c r="K200" s="254"/>
       <c r="L200" s="258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M200" s="254"/>
       <c r="N200" s="254" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O200" s="304">
         <v>42657</v>
       </c>
       <c r="P200" s="254" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="372" customFormat="1" hidden="1">
@@ -15861,16 +15865,16 @@
         <v>42645</v>
       </c>
       <c r="F201" s="363" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G201" s="341" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H201" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I201" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J201" s="370"/>
       <c r="K201" s="369">
@@ -15881,7 +15885,7 @@
       </c>
       <c r="M201" s="274"/>
       <c r="N201" s="274" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O201" s="230">
         <v>42651</v>
@@ -15905,25 +15909,25 @@
         <v>42645</v>
       </c>
       <c r="F202" s="295" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G202" s="341" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H202" s="271"/>
       <c r="I202" s="274" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J202" s="274"/>
       <c r="K202" s="230">
         <v>42651</v>
       </c>
       <c r="L202" s="267" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M202" s="274"/>
       <c r="N202" s="274" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O202" s="230">
         <v>42651</v>
@@ -15947,16 +15951,16 @@
         <v>42645</v>
       </c>
       <c r="F203" s="295" t="s">
+        <v>431</v>
+      </c>
+      <c r="G203" s="342" t="s">
         <v>432</v>
-      </c>
-      <c r="G203" s="342" t="s">
-        <v>433</v>
       </c>
       <c r="H203" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I203" s="274" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J203" s="274"/>
       <c r="K203" s="230">
@@ -15989,16 +15993,16 @@
         <v>42645</v>
       </c>
       <c r="F204" s="363" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G204" s="341" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H204" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I204" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J204" s="370"/>
       <c r="K204" s="369">
@@ -16009,7 +16013,7 @@
       </c>
       <c r="M204" s="274"/>
       <c r="N204" s="274" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O204" s="230">
         <v>42653</v>
@@ -16036,13 +16040,13 @@
         <v>100</v>
       </c>
       <c r="G205" s="341" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H205" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I205" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J205" s="370"/>
       <c r="K205" s="369">
@@ -16066,7 +16070,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="340" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D206" s="275">
         <v>42643</v>
@@ -16075,25 +16079,25 @@
         <v>42645</v>
       </c>
       <c r="F206" s="293" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G206" s="362" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H206" s="262" t="s">
         <v>47</v>
       </c>
       <c r="I206" s="254" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J206" s="254"/>
       <c r="K206" s="254"/>
       <c r="L206" s="258" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M206" s="254"/>
       <c r="N206" s="254" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O206" s="304">
         <v>42651</v>
@@ -16117,23 +16121,23 @@
         <v>42649</v>
       </c>
       <c r="F207" s="293" t="s">
+        <v>460</v>
+      </c>
+      <c r="G207" s="289" t="s">
         <v>461</v>
-      </c>
-      <c r="G207" s="289" t="s">
-        <v>462</v>
       </c>
       <c r="H207" s="262"/>
       <c r="L207" s="262" t="s">
+        <v>538</v>
+      </c>
+      <c r="N207" s="255" t="s">
         <v>539</v>
-      </c>
-      <c r="N207" s="255" t="s">
-        <v>540</v>
       </c>
       <c r="O207" s="243">
         <v>42655</v>
       </c>
       <c r="P207" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="148.5">
@@ -16153,10 +16157,10 @@
         <v>42649</v>
       </c>
       <c r="F208" s="293" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G208" s="368" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H208" s="262" t="s">
         <v>47</v>
@@ -16164,7 +16168,7 @@
       <c r="L208" s="262"/>
       <c r="O208" s="243"/>
       <c r="P208" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27">
@@ -16184,16 +16188,16 @@
         <v>42645</v>
       </c>
       <c r="F209" s="293" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G209" s="289" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H209" s="262"/>
       <c r="L209" s="262"/>
       <c r="O209" s="243"/>
       <c r="P209" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="27">
@@ -16213,16 +16217,16 @@
         <v>42645</v>
       </c>
       <c r="F210" s="293" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G210" s="289" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H210" s="262"/>
       <c r="L210" s="262"/>
       <c r="O210" s="243"/>
       <c r="P210" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="27">
@@ -16242,16 +16246,16 @@
         <v>42645</v>
       </c>
       <c r="F211" s="293" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G211" s="289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H211" s="262"/>
       <c r="L211" s="262"/>
       <c r="O211" s="243"/>
       <c r="P211" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="27">
@@ -16271,16 +16275,16 @@
         <v>42645</v>
       </c>
       <c r="F212" s="293" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G212" s="289" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H212" s="262"/>
       <c r="L212" s="262"/>
       <c r="O212" s="243"/>
       <c r="P212" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="27" hidden="1">
@@ -16300,28 +16304,28 @@
         <v>42653</v>
       </c>
       <c r="F213" s="293" t="s">
+        <v>501</v>
+      </c>
+      <c r="G213" s="289" t="s">
         <v>502</v>
-      </c>
-      <c r="G213" s="289" t="s">
-        <v>503</v>
       </c>
       <c r="H213" s="262" t="s">
         <v>47</v>
       </c>
       <c r="I213" s="350" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L213" s="262" t="s">
+        <v>540</v>
+      </c>
+      <c r="N213" s="255" t="s">
         <v>541</v>
-      </c>
-      <c r="N213" s="255" t="s">
-        <v>542</v>
       </c>
       <c r="O213" s="243">
         <v>42655</v>
       </c>
       <c r="P213" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16341,14 +16345,14 @@
         <v>42653</v>
       </c>
       <c r="F214" s="363" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G214" s="341" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H214" s="356"/>
       <c r="I214" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J214" s="370"/>
       <c r="K214" s="369">
@@ -16361,7 +16365,7 @@
         <v>42656</v>
       </c>
       <c r="P214" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="27" hidden="1">
@@ -16381,26 +16385,26 @@
         <v>42653</v>
       </c>
       <c r="F215" s="293" t="s">
+        <v>519</v>
+      </c>
+      <c r="G215" s="368" t="s">
         <v>520</v>
-      </c>
-      <c r="G215" s="368" t="s">
-        <v>521</v>
       </c>
       <c r="H215" s="262"/>
       <c r="I215" s="350" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L215" s="262" t="s">
+        <v>542</v>
+      </c>
+      <c r="N215" s="255" t="s">
         <v>543</v>
-      </c>
-      <c r="N215" s="255" t="s">
-        <v>544</v>
       </c>
       <c r="O215" s="243">
         <v>42655</v>
       </c>
       <c r="P215" s="255" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -16420,14 +16424,14 @@
         <v>42653</v>
       </c>
       <c r="F216" s="363" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G216" s="385" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H216" s="356"/>
       <c r="I216" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J216" s="370"/>
       <c r="K216" s="369">
@@ -16440,7 +16444,7 @@
         <v>42656</v>
       </c>
       <c r="P216" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16460,14 +16464,14 @@
         <v>42653</v>
       </c>
       <c r="F217" s="363" t="s">
+        <v>522</v>
+      </c>
+      <c r="G217" s="385" t="s">
         <v>523</v>
-      </c>
-      <c r="G217" s="385" t="s">
-        <v>524</v>
       </c>
       <c r="H217" s="356"/>
       <c r="I217" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J217" s="370"/>
       <c r="K217" s="369">
@@ -16480,7 +16484,7 @@
         <v>42656</v>
       </c>
       <c r="P217" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16500,14 +16504,14 @@
         <v>42654</v>
       </c>
       <c r="F218" s="363" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G218" s="385" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H218" s="356"/>
       <c r="I218" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J218" s="370"/>
       <c r="K218" s="369">
@@ -16517,10 +16521,10 @@
         <v>59</v>
       </c>
       <c r="N218" s="372" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P218" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="27" hidden="1">
@@ -16540,26 +16544,26 @@
         <v>42654</v>
       </c>
       <c r="F219" s="293" t="s">
+        <v>546</v>
+      </c>
+      <c r="G219" s="309" t="s">
         <v>547</v>
-      </c>
-      <c r="G219" s="309" t="s">
-        <v>548</v>
       </c>
       <c r="H219" s="262"/>
       <c r="I219" s="350" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L219" s="255" t="s">
+        <v>553</v>
+      </c>
+      <c r="N219" s="255" t="s">
         <v>554</v>
-      </c>
-      <c r="N219" s="255" t="s">
-        <v>555</v>
       </c>
       <c r="O219" s="243">
         <v>42656</v>
       </c>
       <c r="P219" s="255" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16579,14 +16583,14 @@
         <v>42654</v>
       </c>
       <c r="F220" s="363" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G220" s="385" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H220" s="356"/>
       <c r="I220" s="298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J220" s="370"/>
       <c r="K220" s="369">
@@ -16599,7 +16603,7 @@
         <v>42655</v>
       </c>
       <c r="P220" s="372" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="27" hidden="1">
@@ -16619,22 +16623,22 @@
         <v>42654</v>
       </c>
       <c r="F221" s="293" t="s">
+        <v>549</v>
+      </c>
+      <c r="G221" s="309" t="s">
+        <v>647</v>
+      </c>
+      <c r="H221" s="262" t="s">
         <v>550</v>
       </c>
-      <c r="G221" s="309" t="s">
-        <v>648</v>
-      </c>
-      <c r="H221" s="262" t="s">
-        <v>551</v>
-      </c>
       <c r="L221" s="255" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N221" s="255" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P221" s="255" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="350" customFormat="1">
@@ -16654,10 +16658,10 @@
         <v>42656</v>
       </c>
       <c r="F222" s="361" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G222" s="362" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H222" s="352" t="s">
         <v>47</v>
@@ -16665,7 +16669,7 @@
       <c r="L222" s="352"/>
       <c r="O222" s="367"/>
       <c r="P222" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -16685,16 +16689,16 @@
         <v>42656</v>
       </c>
       <c r="F223" s="361" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G223" s="362" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H223" s="352"/>
       <c r="L223" s="352"/>
       <c r="O223" s="367"/>
       <c r="P223" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5" hidden="1">
@@ -16714,25 +16718,25 @@
         <v>42656</v>
       </c>
       <c r="F224" s="361" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G224" s="362" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H224" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L224" s="352" t="s">
+        <v>653</v>
+      </c>
+      <c r="N224" s="350" t="s">
         <v>654</v>
-      </c>
-      <c r="N224" s="350" t="s">
-        <v>655</v>
       </c>
       <c r="O224" s="367">
         <v>42657</v>
       </c>
       <c r="P224" s="350" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16752,10 +16756,10 @@
         <v>42656</v>
       </c>
       <c r="F225" s="361" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G225" s="362" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H225" s="352" t="s">
         <v>47</v>
@@ -16763,7 +16767,7 @@
       <c r="L225" s="352"/>
       <c r="O225" s="367"/>
       <c r="P225" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="350" customFormat="1">
@@ -16783,10 +16787,10 @@
         <v>42656</v>
       </c>
       <c r="F226" s="361" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G226" s="346" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H226" s="352" t="s">
         <v>47</v>
@@ -16794,7 +16798,7 @@
       <c r="L226" s="352"/>
       <c r="O226" s="367"/>
       <c r="P226" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227" spans="1:16" s="350" customFormat="1" ht="27">
@@ -16814,10 +16818,10 @@
         <v>42656</v>
       </c>
       <c r="F227" s="361" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G227" s="362" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H227" s="352" t="s">
         <v>47</v>
@@ -16825,7 +16829,7 @@
       <c r="L227" s="352"/>
       <c r="O227" s="367"/>
       <c r="P227" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -16845,10 +16849,10 @@
         <v>42657</v>
       </c>
       <c r="F228" s="361" t="s">
+        <v>604</v>
+      </c>
+      <c r="G228" s="362" t="s">
         <v>605</v>
-      </c>
-      <c r="G228" s="362" t="s">
-        <v>606</v>
       </c>
       <c r="H228" s="352" t="s">
         <v>47</v>
@@ -16856,7 +16860,7 @@
       <c r="L228" s="352"/>
       <c r="O228" s="367"/>
       <c r="P228" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16876,10 +16880,10 @@
         <v>42657</v>
       </c>
       <c r="F229" s="361" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G229" s="362" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H229" s="352" t="s">
         <v>47</v>
@@ -16887,7 +16891,7 @@
       <c r="L229" s="352"/>
       <c r="O229" s="367"/>
       <c r="P229" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="350" customFormat="1" ht="40.5">
@@ -16907,10 +16911,10 @@
         <v>42657</v>
       </c>
       <c r="F230" s="361" t="s">
+        <v>607</v>
+      </c>
+      <c r="G230" s="362" t="s">
         <v>608</v>
-      </c>
-      <c r="G230" s="362" t="s">
-        <v>609</v>
       </c>
       <c r="H230" s="352" t="s">
         <v>47</v>
@@ -16918,7 +16922,7 @@
       <c r="L230" s="352"/>
       <c r="O230" s="367"/>
       <c r="P230" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231" spans="1:16" s="350" customFormat="1">
@@ -16938,10 +16942,10 @@
         <v>42657</v>
       </c>
       <c r="F231" s="361" t="s">
+        <v>611</v>
+      </c>
+      <c r="G231" s="346" t="s">
         <v>612</v>
-      </c>
-      <c r="G231" s="346" t="s">
-        <v>613</v>
       </c>
       <c r="H231" s="352" t="s">
         <v>47</v>
@@ -16949,7 +16953,7 @@
       <c r="L231" s="352"/>
       <c r="O231" s="367"/>
       <c r="P231" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16969,10 +16973,10 @@
         <v>42657</v>
       </c>
       <c r="F232" s="361" t="s">
+        <v>616</v>
+      </c>
+      <c r="G232" s="362" t="s">
         <v>617</v>
-      </c>
-      <c r="G232" s="362" t="s">
-        <v>618</v>
       </c>
       <c r="H232" s="352" t="s">
         <v>47</v>
@@ -16980,7 +16984,7 @@
       <c r="L232" s="352"/>
       <c r="O232" s="367"/>
       <c r="P232" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="350" customFormat="1" ht="27">
@@ -17000,10 +17004,10 @@
         <v>42657</v>
       </c>
       <c r="F233" s="361" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G233" s="362" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H233" s="352" t="s">
         <v>47</v>
@@ -17011,7 +17015,7 @@
       <c r="L233" s="352"/>
       <c r="O233" s="367"/>
       <c r="P233" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -17031,10 +17035,10 @@
         <v>42657</v>
       </c>
       <c r="F234" s="361" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G234" s="362" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H234" s="352" t="s">
         <v>47</v>
@@ -17042,7 +17046,7 @@
       <c r="L234" s="352"/>
       <c r="O234" s="367"/>
       <c r="P234" s="350" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -17124,7 +17128,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="256" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -18514,7 +18518,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="256" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -18598,10 +18602,10 @@
         <v>42641</v>
       </c>
       <c r="F4" s="288" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="289" t="s">
         <v>384</v>
-      </c>
-      <c r="G4" s="289" t="s">
-        <v>385</v>
       </c>
       <c r="H4" s="262"/>
       <c r="I4" s="258"/>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="659">
   <si>
     <t>编号</t>
   </si>
@@ -3649,14 +3649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有复现，放到二级和三级目录可以显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>j</t>
   </si>
   <si>
@@ -3909,10 +3901,6 @@
     <t>【精读到尾】【自动读下一本】逐段/句/字等操作时，当提示“已经到结尾”时，再按相应键直接打开下一本读了。
 =》同上条记录类似。应该提示“已经到结尾”后暂停，再按相应键，则重复提示。不是自动读下本书。应该仅当全文自动朗读到尾时，自动读下本书。
 【9月19日版】存在。【9月12日版】存在。【8月28日版】不能自动读下一本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5114,6 +5102,14 @@
   </si>
   <si>
     <t>添加了关机广播，新机器验证没有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7808,7 +7804,7 @@
         <v>42651</v>
       </c>
       <c r="F13" s="364" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G13" s="349"/>
     </row>
@@ -7826,7 +7822,7 @@
         <v>42656</v>
       </c>
       <c r="F14" s="364" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7845,7 +7841,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="349" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -7856,18 +7852,18 @@
         <v>42657</v>
       </c>
       <c r="D22" s="163" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E22" s="349" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F22" s="349" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="27">
       <c r="F23" s="343" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -7883,7 +7879,7 @@
   <dimension ref="A1:P234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8271,13 +8267,13 @@
       </c>
       <c r="M10" s="197"/>
       <c r="N10" s="352" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O10" s="34">
         <v>42660</v>
       </c>
       <c r="P10" s="237" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
@@ -8560,11 +8556,11 @@
       </c>
       <c r="F18" s="363"/>
       <c r="G18" s="355" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H18" s="356"/>
       <c r="I18" s="267" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J18" s="272"/>
       <c r="K18" s="268">
@@ -8575,7 +8571,7 @@
       </c>
       <c r="M18" s="356"/>
       <c r="N18" s="356" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="O18" s="268">
         <v>42632</v>
@@ -8599,14 +8595,14 @@
         <v>42555</v>
       </c>
       <c r="F19" s="363" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G19" s="355" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H19" s="356"/>
       <c r="I19" s="356" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J19" s="370"/>
       <c r="K19" s="369">
@@ -8642,11 +8638,11 @@
         <v>326</v>
       </c>
       <c r="G20" s="355" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H20" s="356"/>
       <c r="I20" s="356" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J20" s="370"/>
       <c r="K20" s="369">
@@ -8662,7 +8658,7 @@
       </c>
       <c r="P20" s="371"/>
     </row>
-    <row r="21" spans="1:16" s="184" customFormat="1" ht="216" hidden="1">
+    <row r="21" spans="1:16" s="184" customFormat="1" ht="216">
       <c r="A21" s="292">
         <v>19</v>
       </c>
@@ -8682,23 +8678,23 @@
         <v>327</v>
       </c>
       <c r="G21" s="351" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H21" s="197"/>
-      <c r="I21" s="352" t="s">
-        <v>565</v>
-      </c>
+      <c r="I21" s="352"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="262" t="s">
+      <c r="L21" s="352" t="s">
         <v>58</v>
       </c>
       <c r="M21" s="262"/>
       <c r="N21" s="262"/>
       <c r="O21" s="34">
-        <v>42652</v>
-      </c>
-      <c r="P21" s="237"/>
+        <v>42663</v>
+      </c>
+      <c r="P21" s="237" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="22" spans="1:16" s="274" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="354">
@@ -8947,16 +8943,16 @@
         <v>42555</v>
       </c>
       <c r="F28" s="363" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G28" s="355" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H28" s="356" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I28" s="356" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J28" s="370"/>
       <c r="K28" s="369">
@@ -8967,7 +8963,7 @@
       </c>
       <c r="M28" s="356"/>
       <c r="N28" s="356" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O28" s="369">
         <v>42652</v>
@@ -8992,11 +8988,11 @@
       </c>
       <c r="F29" s="363"/>
       <c r="G29" s="355" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H29" s="356"/>
       <c r="I29" s="356" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J29" s="370"/>
       <c r="K29" s="369">
@@ -9758,16 +9754,16 @@
         <v>42558</v>
       </c>
       <c r="F49" s="363" t="s">
+        <v>572</v>
+      </c>
+      <c r="G49" s="365" t="s">
         <v>575</v>
       </c>
-      <c r="G49" s="365" t="s">
-        <v>578</v>
-      </c>
       <c r="H49" s="356" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I49" s="356" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J49" s="370"/>
       <c r="K49" s="369">
@@ -9778,7 +9774,7 @@
       </c>
       <c r="M49" s="356"/>
       <c r="N49" s="356" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O49" s="369">
         <v>42654</v>
@@ -9805,13 +9801,13 @@
         <v>265</v>
       </c>
       <c r="G50" s="355" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H50" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I50" s="356" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J50" s="370"/>
       <c r="K50" s="369">
@@ -11020,7 +11016,7 @@
       <c r="N80" s="197"/>
       <c r="O80" s="34"/>
       <c r="P80" s="237" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="274" customFormat="1" ht="40.5" hidden="1">
@@ -11082,16 +11078,16 @@
         <v>42612</v>
       </c>
       <c r="F82" s="363" t="s">
+        <v>578</v>
+      </c>
+      <c r="G82" s="355" t="s">
         <v>581</v>
       </c>
-      <c r="G82" s="355" t="s">
-        <v>584</v>
-      </c>
       <c r="H82" s="356" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I82" s="356" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J82" s="370"/>
       <c r="K82" s="369">
@@ -11102,11 +11098,11 @@
       </c>
       <c r="M82" s="356"/>
       <c r="N82" s="356" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="O82" s="369"/>
       <c r="P82" s="371" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
@@ -11187,7 +11183,7 @@
       </c>
       <c r="P84" s="176"/>
     </row>
-    <row r="85" spans="1:16" s="82" customFormat="1" ht="27">
+    <row r="85" spans="1:16" s="82" customFormat="1" ht="27" hidden="1">
       <c r="A85" s="292">
         <v>83</v>
       </c>
@@ -11323,10 +11319,10 @@
         <v>336</v>
       </c>
       <c r="G88" s="348" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I88" s="372" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K88" s="345">
         <v>42656</v>
@@ -11628,13 +11624,13 @@
         <v>340</v>
       </c>
       <c r="G96" s="355" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H96" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I96" s="372" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K96" s="345">
         <v>42656</v>
@@ -12116,13 +12112,13 @@
       </c>
       <c r="M108" s="197"/>
       <c r="N108" s="352" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="O108" s="34">
         <v>42660</v>
       </c>
       <c r="P108" s="237" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
@@ -12264,10 +12260,10 @@
         <v>42616</v>
       </c>
       <c r="F112" s="353" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G112" s="351" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H112" s="262" t="s">
         <v>47</v>
@@ -12280,10 +12276,10 @@
       <c r="N112" s="262"/>
       <c r="O112" s="34"/>
       <c r="P112" s="237" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5">
       <c r="A113" s="292">
         <v>111</v>
       </c>
@@ -12300,10 +12296,10 @@
         <v>42616</v>
       </c>
       <c r="F113" s="353" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G113" s="351" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H113" s="197" t="s">
         <v>47</v>
@@ -12311,17 +12307,19 @@
       <c r="I113" s="372"/>
       <c r="J113" s="372"/>
       <c r="K113" s="345"/>
-      <c r="L113" s="262" t="s">
-        <v>371</v>
+      <c r="L113" s="352" t="s">
+        <v>58</v>
       </c>
       <c r="M113" s="262"/>
       <c r="N113" s="262" t="s">
         <v>527</v>
       </c>
       <c r="O113" s="34">
-        <v>42654</v>
-      </c>
-      <c r="P113" s="237"/>
+        <v>42663</v>
+      </c>
+      <c r="P113" s="237" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="114" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="292">
@@ -12416,21 +12414,21 @@
         <v>42625</v>
       </c>
       <c r="F116" s="363" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G116" s="355" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H116" s="356"/>
       <c r="I116" s="298" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J116" s="370"/>
       <c r="K116" s="369">
         <v>42656</v>
       </c>
       <c r="L116" s="356" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M116" s="356"/>
       <c r="N116" s="356"/>
@@ -12669,7 +12667,7 @@
       </c>
       <c r="P122" s="206"/>
     </row>
-    <row r="123" spans="1:16" s="207" customFormat="1" ht="108">
+    <row r="123" spans="1:16" s="207" customFormat="1" ht="108" hidden="1">
       <c r="A123" s="292">
         <v>121</v>
       </c>
@@ -13050,7 +13048,7 @@
         <v>42627</v>
       </c>
       <c r="F132" s="363" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G132" s="355" t="s">
         <v>156</v>
@@ -13059,7 +13057,7 @@
         <v>155</v>
       </c>
       <c r="I132" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J132" s="370"/>
       <c r="K132" s="369">
@@ -13211,7 +13209,7 @@
         <v>422</v>
       </c>
       <c r="G136" s="359" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H136" s="262" t="s">
         <v>138</v>
@@ -13224,7 +13222,7 @@
       <c r="N136" s="262"/>
       <c r="O136" s="34"/>
       <c r="P136" s="237" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
@@ -13573,10 +13571,10 @@
         <v>352</v>
       </c>
       <c r="G146" s="231" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I146" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J146" s="370"/>
       <c r="K146" s="369">
@@ -13586,7 +13584,7 @@
         <v>59</v>
       </c>
       <c r="N146" s="372" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="O146" s="345">
         <v>42652</v>
@@ -13613,10 +13611,10 @@
         <v>353</v>
       </c>
       <c r="G147" s="231" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I147" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J147" s="370"/>
       <c r="K147" s="369">
@@ -13831,7 +13829,7 @@
       </c>
       <c r="P152" s="245"/>
     </row>
-    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
+    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5">
       <c r="A153" s="292">
         <v>151</v>
       </c>
@@ -13864,13 +13862,13 @@
       </c>
       <c r="M153" s="197"/>
       <c r="N153" s="352" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O153" s="34">
         <v>42657</v>
       </c>
       <c r="P153" s="237" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
@@ -14317,13 +14315,13 @@
         <v>288</v>
       </c>
       <c r="G164" s="348" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H164" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I164" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J164" s="370"/>
       <c r="K164" s="369">
@@ -14748,7 +14746,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="184" customFormat="1" ht="27">
+    <row r="175" spans="1:16" s="184" customFormat="1" ht="27" hidden="1">
       <c r="A175" s="292">
         <v>173</v>
       </c>
@@ -14844,11 +14842,11 @@
         <v>307</v>
       </c>
       <c r="G177" s="342" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H177" s="356"/>
       <c r="I177" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J177" s="370"/>
       <c r="K177" s="369">
@@ -14861,7 +14859,7 @@
         <v>42655</v>
       </c>
       <c r="P177" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="1:16" s="372" customFormat="1" ht="108" hidden="1">
@@ -14884,11 +14882,11 @@
         <v>469</v>
       </c>
       <c r="G178" s="341" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H178" s="356"/>
       <c r="I178" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J178" s="370"/>
       <c r="K178" s="369">
@@ -14928,7 +14926,7 @@
       </c>
       <c r="H179" s="356"/>
       <c r="I179" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J179" s="370"/>
       <c r="K179" s="369">
@@ -14968,7 +14966,7 @@
       </c>
       <c r="H180" s="356"/>
       <c r="I180" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J180" s="370"/>
       <c r="K180" s="369">
@@ -14984,7 +14982,7 @@
       </c>
       <c r="P180" s="274"/>
     </row>
-    <row r="181" spans="1:16" ht="54" hidden="1">
+    <row r="181" spans="1:16" ht="54">
       <c r="A181" s="292">
         <v>179</v>
       </c>
@@ -15004,11 +15002,11 @@
         <v>472</v>
       </c>
       <c r="G181" s="362" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H181" s="262"/>
       <c r="I181" s="254" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J181" s="254"/>
       <c r="K181" s="254"/>
@@ -15022,7 +15020,7 @@
       </c>
       <c r="P181" s="254"/>
     </row>
-    <row r="182" spans="1:16" ht="27" hidden="1">
+    <row r="182" spans="1:16" ht="27">
       <c r="A182" s="292">
         <v>180</v>
       </c>
@@ -15042,11 +15040,11 @@
         <v>473</v>
       </c>
       <c r="G182" s="362" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H182" s="262"/>
       <c r="I182" s="254" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J182" s="254"/>
       <c r="K182" s="254"/>
@@ -15077,32 +15075,32 @@
         <v>42645</v>
       </c>
       <c r="F183" s="363" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G183" s="341" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H183" s="356"/>
       <c r="I183" s="298" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J183" s="370"/>
       <c r="K183" s="369">
         <v>42656</v>
       </c>
       <c r="L183" s="267" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M183" s="274"/>
       <c r="N183" s="274" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="O183" s="230">
         <v>42651</v>
       </c>
       <c r="P183" s="274"/>
     </row>
-    <row r="184" spans="1:16" ht="54" hidden="1">
+    <row r="184" spans="1:16" ht="54">
       <c r="A184" s="292">
         <v>182</v>
       </c>
@@ -15122,11 +15120,11 @@
         <v>391</v>
       </c>
       <c r="G184" s="362" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H184" s="262"/>
       <c r="I184" s="254" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J184" s="254"/>
       <c r="K184" s="254"/>
@@ -15166,7 +15164,7 @@
       </c>
       <c r="H185" s="356"/>
       <c r="I185" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J185" s="370"/>
       <c r="K185" s="369">
@@ -15176,13 +15174,13 @@
         <v>193</v>
       </c>
       <c r="N185" s="372" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O185" s="345">
         <v>42654</v>
       </c>
       <c r="P185" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15205,13 +15203,13 @@
         <v>395</v>
       </c>
       <c r="G186" s="341" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H186" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I186" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J186" s="370"/>
       <c r="K186" s="369">
@@ -15221,13 +15219,13 @@
         <v>59</v>
       </c>
       <c r="N186" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O186" s="345">
         <v>42654</v>
       </c>
       <c r="P186" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -15247,29 +15245,29 @@
         <v>42645</v>
       </c>
       <c r="F187" s="363" t="s">
+        <v>625</v>
+      </c>
+      <c r="G187" s="341" t="s">
         <v>628</v>
       </c>
-      <c r="G187" s="341" t="s">
-        <v>631</v>
-      </c>
       <c r="H187" s="356" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I187" s="298" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J187" s="370"/>
       <c r="K187" s="369">
         <v>42656</v>
       </c>
       <c r="L187" s="356" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="O187" s="345">
         <v>42654</v>
       </c>
       <c r="P187" s="372" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="381" customFormat="1" ht="81" hidden="1">
@@ -15289,32 +15287,32 @@
         <v>42645</v>
       </c>
       <c r="F188" s="376" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G188" s="384" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H188" s="377" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I188" s="378" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J188" s="379"/>
       <c r="K188" s="380">
         <v>42656</v>
       </c>
       <c r="L188" s="377" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N188" s="381" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="O188" s="383">
         <v>42654</v>
       </c>
       <c r="P188" s="381" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
@@ -15337,13 +15335,13 @@
         <v>351</v>
       </c>
       <c r="G189" s="342" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H189" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I189" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J189" s="370"/>
       <c r="K189" s="369">
@@ -15353,13 +15351,13 @@
         <v>59</v>
       </c>
       <c r="N189" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O189" s="345">
         <v>42654</v>
       </c>
       <c r="P189" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15382,13 +15380,13 @@
         <v>399</v>
       </c>
       <c r="G190" s="341" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H190" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I190" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J190" s="370"/>
       <c r="K190" s="369">
@@ -15398,13 +15396,13 @@
         <v>59</v>
       </c>
       <c r="N190" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O190" s="345">
         <v>42654</v>
       </c>
       <c r="P190" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -15433,7 +15431,7 @@
         <v>47</v>
       </c>
       <c r="I191" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J191" s="370"/>
       <c r="K191" s="369">
@@ -15443,16 +15441,16 @@
         <v>59</v>
       </c>
       <c r="N191" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O191" s="345">
         <v>42654</v>
       </c>
       <c r="P191" s="372" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" ht="27" hidden="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="27">
       <c r="A192" s="292">
         <v>190</v>
       </c>
@@ -15481,17 +15479,17 @@
       <c r="J192" s="254"/>
       <c r="K192" s="254"/>
       <c r="L192" s="258" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M192" s="254"/>
       <c r="N192" s="254" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O192" s="304">
         <v>42657</v>
       </c>
       <c r="P192" s="254" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15520,7 +15518,7 @@
         <v>47</v>
       </c>
       <c r="I193" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J193" s="370"/>
       <c r="K193" s="369">
@@ -15537,7 +15535,7 @@
         <v>42654</v>
       </c>
       <c r="P193" s="274" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15566,7 +15564,7 @@
         <v>47</v>
       </c>
       <c r="I194" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J194" s="370"/>
       <c r="K194" s="369">
@@ -15576,13 +15574,13 @@
         <v>59</v>
       </c>
       <c r="N194" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O194" s="345">
         <v>42654</v>
       </c>
       <c r="P194" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15611,7 +15609,7 @@
         <v>47</v>
       </c>
       <c r="I195" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J195" s="370"/>
       <c r="K195" s="369">
@@ -15621,13 +15619,13 @@
         <v>59</v>
       </c>
       <c r="N195" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O195" s="345">
         <v>42654</v>
       </c>
       <c r="P195" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="372" customFormat="1" hidden="1">
@@ -15650,13 +15648,13 @@
         <v>405</v>
       </c>
       <c r="G196" s="341" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H196" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I196" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J196" s="370"/>
       <c r="K196" s="369">
@@ -15669,7 +15667,7 @@
         <v>42654</v>
       </c>
       <c r="P196" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15698,7 +15696,7 @@
         <v>47</v>
       </c>
       <c r="I197" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J197" s="370"/>
       <c r="K197" s="369">
@@ -15708,13 +15706,13 @@
         <v>59</v>
       </c>
       <c r="N197" s="372" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O197" s="345">
         <v>42654</v>
       </c>
       <c r="P197" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
@@ -15787,7 +15785,7 @@
         <v>47</v>
       </c>
       <c r="I199" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J199" s="370"/>
       <c r="K199" s="369">
@@ -15797,16 +15795,16 @@
         <v>59</v>
       </c>
       <c r="N199" s="372" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O199" s="345">
         <v>42655</v>
       </c>
       <c r="P199" s="372" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" ht="40.5" hidden="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="40.5">
       <c r="A200" s="292">
         <v>198</v>
       </c>
@@ -15835,17 +15833,17 @@
       <c r="J200" s="254"/>
       <c r="K200" s="254"/>
       <c r="L200" s="258" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M200" s="254"/>
       <c r="N200" s="254" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O200" s="304">
         <v>42657</v>
       </c>
       <c r="P200" s="254" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="372" customFormat="1" hidden="1">
@@ -15874,7 +15872,7 @@
         <v>47</v>
       </c>
       <c r="I201" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J201" s="370"/>
       <c r="K201" s="369">
@@ -15996,13 +15994,13 @@
         <v>436</v>
       </c>
       <c r="G204" s="341" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H204" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I204" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J204" s="370"/>
       <c r="K204" s="369">
@@ -16046,7 +16044,7 @@
         <v>47</v>
       </c>
       <c r="I205" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J205" s="370"/>
       <c r="K205" s="369">
@@ -16062,7 +16060,7 @@
       </c>
       <c r="P205" s="274"/>
     </row>
-    <row r="206" spans="1:16" ht="54" hidden="1">
+    <row r="206" spans="1:16" ht="54">
       <c r="A206" s="292">
         <v>204</v>
       </c>
@@ -16082,29 +16080,27 @@
         <v>454</v>
       </c>
       <c r="G206" s="362" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H206" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="I206" s="254" t="s">
-        <v>619</v>
-      </c>
+      <c r="I206" s="254"/>
       <c r="J206" s="254"/>
       <c r="K206" s="254"/>
       <c r="L206" s="258" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="M206" s="254"/>
-      <c r="N206" s="254" t="s">
-        <v>532</v>
-      </c>
+      <c r="N206" s="254"/>
       <c r="O206" s="304">
-        <v>42651</v>
-      </c>
-      <c r="P206" s="254"/>
-    </row>
-    <row r="207" spans="1:16" ht="40.5" hidden="1">
+        <v>42663</v>
+      </c>
+      <c r="P206" s="254" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" ht="40.5">
       <c r="A207" s="344">
         <v>205</v>
       </c>
@@ -16128,16 +16124,16 @@
       </c>
       <c r="H207" s="262"/>
       <c r="L207" s="262" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N207" s="255" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O207" s="243">
         <v>42655</v>
       </c>
       <c r="P207" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="148.5">
@@ -16160,7 +16156,7 @@
         <v>468</v>
       </c>
       <c r="G208" s="368" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H208" s="262" t="s">
         <v>47</v>
@@ -16168,7 +16164,7 @@
       <c r="L208" s="262"/>
       <c r="O208" s="243"/>
       <c r="P208" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27">
@@ -16197,7 +16193,7 @@
       <c r="L209" s="262"/>
       <c r="O209" s="243"/>
       <c r="P209" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="27">
@@ -16226,7 +16222,7 @@
       <c r="L210" s="262"/>
       <c r="O210" s="243"/>
       <c r="P210" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="27">
@@ -16255,7 +16251,7 @@
       <c r="L211" s="262"/>
       <c r="O211" s="243"/>
       <c r="P211" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="27">
@@ -16284,7 +16280,7 @@
       <c r="L212" s="262"/>
       <c r="O212" s="243"/>
       <c r="P212" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="27" hidden="1">
@@ -16313,19 +16309,19 @@
         <v>47</v>
       </c>
       <c r="I213" s="350" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L213" s="262" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N213" s="255" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O213" s="243">
         <v>42655</v>
       </c>
       <c r="P213" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16352,7 +16348,7 @@
       </c>
       <c r="H214" s="356"/>
       <c r="I214" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J214" s="370"/>
       <c r="K214" s="369">
@@ -16365,7 +16361,7 @@
         <v>42656</v>
       </c>
       <c r="P214" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="27" hidden="1">
@@ -16392,19 +16388,19 @@
       </c>
       <c r="H215" s="262"/>
       <c r="I215" s="350" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L215" s="262" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N215" s="255" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O215" s="243">
         <v>42655</v>
       </c>
       <c r="P215" s="255" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -16427,11 +16423,11 @@
         <v>307</v>
       </c>
       <c r="G216" s="385" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H216" s="356"/>
       <c r="I216" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J216" s="370"/>
       <c r="K216" s="369">
@@ -16444,7 +16440,7 @@
         <v>42656</v>
       </c>
       <c r="P216" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16471,7 +16467,7 @@
       </c>
       <c r="H217" s="356"/>
       <c r="I217" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J217" s="370"/>
       <c r="K217" s="369">
@@ -16484,7 +16480,7 @@
         <v>42656</v>
       </c>
       <c r="P217" s="372" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16507,11 +16503,11 @@
         <v>221</v>
       </c>
       <c r="G218" s="385" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H218" s="356"/>
       <c r="I218" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J218" s="370"/>
       <c r="K218" s="369">
@@ -16521,10 +16517,10 @@
         <v>59</v>
       </c>
       <c r="N218" s="372" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P218" s="372" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="27" hidden="1">
@@ -16544,26 +16540,26 @@
         <v>42654</v>
       </c>
       <c r="F219" s="293" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G219" s="309" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H219" s="262"/>
       <c r="I219" s="350" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L219" s="255" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N219" s="255" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O219" s="243">
         <v>42656</v>
       </c>
       <c r="P219" s="255" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="220" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16586,11 +16582,11 @@
         <v>405</v>
       </c>
       <c r="G220" s="385" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H220" s="356"/>
       <c r="I220" s="298" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J220" s="370"/>
       <c r="K220" s="369">
@@ -16603,10 +16599,10 @@
         <v>42655</v>
       </c>
       <c r="P220" s="372" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" ht="27" hidden="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="27">
       <c r="A221" s="168">
         <v>219</v>
       </c>
@@ -16623,22 +16619,22 @@
         <v>42654</v>
       </c>
       <c r="F221" s="293" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G221" s="309" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H221" s="262" t="s">
+        <v>548</v>
+      </c>
+      <c r="L221" s="255" t="s">
+        <v>553</v>
+      </c>
+      <c r="N221" s="255" t="s">
+        <v>555</v>
+      </c>
+      <c r="P221" s="255" t="s">
         <v>550</v>
-      </c>
-      <c r="L221" s="255" t="s">
-        <v>555</v>
-      </c>
-      <c r="N221" s="255" t="s">
-        <v>557</v>
-      </c>
-      <c r="P221" s="255" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="350" customFormat="1">
@@ -16658,18 +16654,22 @@
         <v>42656</v>
       </c>
       <c r="F222" s="361" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G222" s="362" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H222" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L222" s="352"/>
-      <c r="O222" s="367"/>
+      <c r="L222" s="352" t="s">
+        <v>657</v>
+      </c>
+      <c r="O222" s="367">
+        <v>42663</v>
+      </c>
       <c r="P222" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -16689,19 +16689,19 @@
         <v>42656</v>
       </c>
       <c r="F223" s="361" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G223" s="362" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H223" s="352"/>
       <c r="L223" s="352"/>
       <c r="O223" s="367"/>
       <c r="P223" s="350" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5" hidden="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5">
       <c r="A224" s="344">
         <v>222</v>
       </c>
@@ -16721,22 +16721,22 @@
         <v>290</v>
       </c>
       <c r="G224" s="362" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H224" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L224" s="352" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N224" s="350" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="O224" s="367">
         <v>42657</v>
       </c>
       <c r="P224" s="350" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16759,7 +16759,7 @@
         <v>290</v>
       </c>
       <c r="G225" s="362" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H225" s="352" t="s">
         <v>47</v>
@@ -16767,7 +16767,7 @@
       <c r="L225" s="352"/>
       <c r="O225" s="367"/>
       <c r="P225" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="350" customFormat="1">
@@ -16790,7 +16790,7 @@
         <v>331</v>
       </c>
       <c r="G226" s="346" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H226" s="352" t="s">
         <v>47</v>
@@ -16798,7 +16798,7 @@
       <c r="L226" s="352"/>
       <c r="O226" s="367"/>
       <c r="P226" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="227" spans="1:16" s="350" customFormat="1" ht="27">
@@ -16821,7 +16821,7 @@
         <v>336</v>
       </c>
       <c r="G227" s="362" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H227" s="352" t="s">
         <v>47</v>
@@ -16829,7 +16829,7 @@
       <c r="L227" s="352"/>
       <c r="O227" s="367"/>
       <c r="P227" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -16849,10 +16849,10 @@
         <v>42657</v>
       </c>
       <c r="F228" s="361" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G228" s="362" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H228" s="352" t="s">
         <v>47</v>
@@ -16860,7 +16860,7 @@
       <c r="L228" s="352"/>
       <c r="O228" s="367"/>
       <c r="P228" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16880,10 +16880,10 @@
         <v>42657</v>
       </c>
       <c r="F229" s="361" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G229" s="362" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H229" s="352" t="s">
         <v>47</v>
@@ -16891,7 +16891,7 @@
       <c r="L229" s="352"/>
       <c r="O229" s="367"/>
       <c r="P229" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="350" customFormat="1" ht="40.5">
@@ -16911,10 +16911,10 @@
         <v>42657</v>
       </c>
       <c r="F230" s="361" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G230" s="362" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H230" s="352" t="s">
         <v>47</v>
@@ -16922,7 +16922,7 @@
       <c r="L230" s="352"/>
       <c r="O230" s="367"/>
       <c r="P230" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="1:16" s="350" customFormat="1">
@@ -16942,10 +16942,10 @@
         <v>42657</v>
       </c>
       <c r="F231" s="361" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G231" s="346" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H231" s="352" t="s">
         <v>47</v>
@@ -16953,7 +16953,7 @@
       <c r="L231" s="352"/>
       <c r="O231" s="367"/>
       <c r="P231" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16973,10 +16973,10 @@
         <v>42657</v>
       </c>
       <c r="F232" s="361" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G232" s="362" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H232" s="352" t="s">
         <v>47</v>
@@ -16984,7 +16984,7 @@
       <c r="L232" s="352"/>
       <c r="O232" s="367"/>
       <c r="P232" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="350" customFormat="1" ht="27">
@@ -17004,10 +17004,10 @@
         <v>42657</v>
       </c>
       <c r="F233" s="361" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G233" s="362" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H233" s="352" t="s">
         <v>47</v>
@@ -17015,7 +17015,7 @@
       <c r="L233" s="352"/>
       <c r="O233" s="367"/>
       <c r="P233" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -17038,7 +17038,7 @@
         <v>307</v>
       </c>
       <c r="G234" s="362" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H234" s="352" t="s">
         <v>47</v>
@@ -17046,21 +17046,19 @@
       <c r="L234" s="352"/>
       <c r="O234" s="367"/>
       <c r="P234" s="350" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P234">
     <filterColumn colId="5"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="8">
       <filters blank="1">
-        <dateGroupItem year="2016" dateTimeGrouping="year"/>
+        <filter val="返回"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="10"/>
+    <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="663">
   <si>
     <t>编号</t>
   </si>
@@ -5110,6 +5110,22 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非bug。按陈刚和后鼎给的页码规则显示的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j/z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7878,8 +7894,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N108" sqref="N108"/>
+    <sheetView tabSelected="1" topLeftCell="D210" workbookViewId="0">
+      <selection activeCell="K230" sqref="K230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8234,7 +8250,7 @@
       <c r="O9" s="172"/>
       <c r="P9" s="176"/>
     </row>
-    <row r="10" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="10" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="292">
         <v>8</v>
       </c>
@@ -8658,7 +8674,7 @@
       </c>
       <c r="P20" s="371"/>
     </row>
-    <row r="21" spans="1:16" s="184" customFormat="1" ht="216">
+    <row r="21" spans="1:16" s="184" customFormat="1" ht="216" hidden="1">
       <c r="A21" s="292">
         <v>19</v>
       </c>
@@ -10983,7 +10999,7 @@
       </c>
       <c r="P79" s="176"/>
     </row>
-    <row r="80" spans="1:16" s="184" customFormat="1" ht="27">
+    <row r="80" spans="1:16" s="184" customFormat="1" ht="27" hidden="1">
       <c r="A80" s="292">
         <v>78</v>
       </c>
@@ -12077,7 +12093,7 @@
       </c>
       <c r="P107" s="206"/>
     </row>
-    <row r="108" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="108" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A108" s="292">
         <v>106</v>
       </c>
@@ -12279,7 +12295,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A113" s="292">
         <v>111</v>
       </c>
@@ -13829,7 +13845,7 @@
       </c>
       <c r="P152" s="245"/>
     </row>
-    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5">
+    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
       <c r="A153" s="292">
         <v>151</v>
       </c>
@@ -15450,7 +15466,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="27">
+    <row r="192" spans="1:16" ht="27" hidden="1">
       <c r="A192" s="292">
         <v>190</v>
       </c>
@@ -15804,7 +15820,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="40.5">
+    <row r="200" spans="1:16" ht="40.5" hidden="1">
       <c r="A200" s="292">
         <v>198</v>
       </c>
@@ -16060,7 +16076,7 @@
       </c>
       <c r="P205" s="274"/>
     </row>
-    <row r="206" spans="1:16" ht="54">
+    <row r="206" spans="1:16" ht="54" hidden="1">
       <c r="A206" s="292">
         <v>204</v>
       </c>
@@ -16602,7 +16618,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="27">
+    <row r="221" spans="1:16" ht="27" hidden="1">
       <c r="A221" s="168">
         <v>219</v>
       </c>
@@ -16637,7 +16653,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="350" customFormat="1">
+    <row r="222" spans="1:16" s="350" customFormat="1" hidden="1">
       <c r="A222" s="344">
         <v>220</v>
       </c>
@@ -16701,7 +16717,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5">
+    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5" hidden="1">
       <c r="A224" s="344">
         <v>222</v>
       </c>
@@ -16770,7 +16786,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="226" spans="1:16" s="350" customFormat="1">
+    <row r="226" spans="1:16" s="350" customFormat="1" hidden="1">
       <c r="A226" s="344">
         <v>224</v>
       </c>
@@ -16798,7 +16814,7 @@
       <c r="L226" s="352"/>
       <c r="O226" s="367"/>
       <c r="P226" s="350" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="227" spans="1:16" s="350" customFormat="1" ht="27">
@@ -16953,10 +16969,10 @@
       <c r="L231" s="352"/>
       <c r="O231" s="367"/>
       <c r="P231" s="350" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" s="350" customFormat="1" ht="54">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" s="350" customFormat="1" ht="54" hidden="1">
       <c r="A232" s="344">
         <v>230</v>
       </c>
@@ -16981,13 +16997,20 @@
       <c r="H232" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L232" s="352"/>
-      <c r="O232" s="367"/>
+      <c r="L232" s="352" t="s">
+        <v>660</v>
+      </c>
+      <c r="N232" s="350" t="s">
+        <v>661</v>
+      </c>
+      <c r="O232" s="367">
+        <v>42663</v>
+      </c>
       <c r="P232" s="350" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="233" spans="1:16" s="350" customFormat="1" ht="27">
+    <row r="233" spans="1:16" s="350" customFormat="1" ht="27" hidden="1">
       <c r="A233" s="344">
         <v>231</v>
       </c>
@@ -17012,13 +17035,17 @@
       <c r="H233" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L233" s="352"/>
-      <c r="O233" s="367"/>
+      <c r="L233" s="352" t="s">
+        <v>659</v>
+      </c>
+      <c r="O233" s="367">
+        <v>42663</v>
+      </c>
       <c r="P233" s="350" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="234" spans="1:16" s="350" customFormat="1" ht="67.5">
+    <row r="234" spans="1:16" s="350" customFormat="1" ht="67.5" hidden="1">
       <c r="A234" s="344">
         <v>232</v>
       </c>
@@ -17043,8 +17070,12 @@
       <c r="H234" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L234" s="352"/>
-      <c r="O234" s="367"/>
+      <c r="L234" s="352" t="s">
+        <v>659</v>
+      </c>
+      <c r="O234" s="367">
+        <v>42663</v>
+      </c>
       <c r="P234" s="350" t="s">
         <v>533</v>
       </c>
@@ -17053,7 +17084,7 @@
   <autoFilter ref="A2:P234">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -17061,8 +17092,18 @@
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
-    <filterColumn colId="15"/>
+    <filterColumn colId="14">
+      <filters blank="1">
+        <dateGroupItem year="2016" month="10" day="8" dateTimeGrouping="day"/>
+        <dateGroupItem year="2016" month="10" day="9" dateTimeGrouping="day"/>
+        <dateGroupItem year="2016" month="10" day="12" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters blank="1">
+        <filter val="z"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="664">
   <si>
     <t>编号</t>
   </si>
@@ -5126,6 +5126,10 @@
   </si>
   <si>
     <t>j/z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7894,8 +7898,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D210" workbookViewId="0">
-      <selection activeCell="K230" sqref="K230"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16817,7 +16821,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="227" spans="1:16" s="350" customFormat="1" ht="27">
+    <row r="227" spans="1:16" s="350" customFormat="1" ht="27" hidden="1">
       <c r="A227" s="344">
         <v>225</v>
       </c>
@@ -16842,8 +16846,12 @@
       <c r="H227" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L227" s="352"/>
-      <c r="O227" s="367"/>
+      <c r="L227" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="O227" s="367">
+        <v>42663</v>
+      </c>
       <c r="P227" s="350" t="s">
         <v>533</v>
       </c>
@@ -16941,7 +16949,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="231" spans="1:16" s="350" customFormat="1">
+    <row r="231" spans="1:16" s="350" customFormat="1" hidden="1">
       <c r="A231" s="344">
         <v>229</v>
       </c>
@@ -17084,7 +17092,7 @@
   <autoFilter ref="A2:P234">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="669">
   <si>
     <t>编号</t>
   </si>
@@ -2270,10 +2270,6 @@
       </rPr>
       <t>【9月21日版】正常关机/异常掉电，正在读的书仍不记录在最近使用文件列表。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5130,6 +5126,29 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月13日的版本已经从反显句开始读的啊，只不过因为这个反显句跨屏了，所以按【5】【OK】的时候会先翻到反显开始的屏。</t>
+  </si>
+  <si>
+    <t>10月13日的版本已经从反显句开始读的啊，只不过因为这个反显句跨屏了，所以按【5】【OK】的时候会先翻到反显开始的屏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7719,7 +7738,7 @@
         <v>42634</v>
       </c>
       <c r="F7" s="330" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="253" customFormat="1">
@@ -7731,13 +7750,13 @@
         <v>42638</v>
       </c>
       <c r="D8" s="332" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E8" s="328">
         <v>42634</v>
       </c>
       <c r="F8" s="330" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G8" s="327"/>
     </row>
@@ -7752,7 +7771,7 @@
         <v>42640</v>
       </c>
       <c r="F9" s="336" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G9" s="327"/>
     </row>
@@ -7771,7 +7790,7 @@
         <v>42643</v>
       </c>
       <c r="F10" s="330" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G10" s="327"/>
     </row>
@@ -7789,7 +7808,7 @@
         <v>42643</v>
       </c>
       <c r="F11" s="330" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="327" customFormat="1">
@@ -7806,7 +7825,7 @@
         <v>42651</v>
       </c>
       <c r="F12" s="364" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="327" customFormat="1">
@@ -7824,7 +7843,7 @@
         <v>42651</v>
       </c>
       <c r="F13" s="364" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G13" s="349"/>
     </row>
@@ -7842,7 +7861,7 @@
         <v>42656</v>
       </c>
       <c r="F14" s="364" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7861,7 +7880,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="349" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -7872,18 +7891,18 @@
         <v>42657</v>
       </c>
       <c r="D22" s="163" t="s">
+        <v>634</v>
+      </c>
+      <c r="E22" s="349" t="s">
+        <v>648</v>
+      </c>
+      <c r="F22" s="349" t="s">
         <v>635</v>
-      </c>
-      <c r="E22" s="349" t="s">
-        <v>649</v>
-      </c>
-      <c r="F22" s="349" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="27">
       <c r="F23" s="343" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -7899,7 +7918,7 @@
   <dimension ref="A1:P234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L230" sqref="L230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7994,13 +8013,13 @@
         <v>213</v>
       </c>
       <c r="G3" s="270" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H3" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="267" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J3" s="272"/>
       <c r="K3" s="268">
@@ -8011,7 +8030,7 @@
       </c>
       <c r="M3" s="271"/>
       <c r="N3" s="271" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O3" s="268">
         <v>42641</v>
@@ -8155,14 +8174,14 @@
         <v>42555</v>
       </c>
       <c r="F7" s="294" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="280" t="s">
         <v>385</v>
-      </c>
-      <c r="G7" s="280" t="s">
-        <v>386</v>
       </c>
       <c r="H7" s="281"/>
       <c r="I7" s="277" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J7" s="282"/>
       <c r="K7" s="278">
@@ -8254,7 +8273,7 @@
       <c r="O9" s="172"/>
       <c r="P9" s="176"/>
     </row>
-    <row r="10" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
+    <row r="10" spans="1:16" s="184" customFormat="1" ht="40.5">
       <c r="A10" s="292">
         <v>8</v>
       </c>
@@ -8271,10 +8290,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="187" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G10" s="284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" s="197" t="s">
         <v>47</v>
@@ -8287,13 +8306,13 @@
       </c>
       <c r="M10" s="197"/>
       <c r="N10" s="352" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O10" s="34">
         <v>42660</v>
       </c>
       <c r="P10" s="237" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
@@ -8576,11 +8595,11 @@
       </c>
       <c r="F18" s="363"/>
       <c r="G18" s="355" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H18" s="356"/>
       <c r="I18" s="267" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J18" s="272"/>
       <c r="K18" s="268">
@@ -8591,7 +8610,7 @@
       </c>
       <c r="M18" s="356"/>
       <c r="N18" s="356" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O18" s="268">
         <v>42632</v>
@@ -8615,14 +8634,14 @@
         <v>42555</v>
       </c>
       <c r="F19" s="363" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="355" t="s">
         <v>559</v>
-      </c>
-      <c r="G19" s="355" t="s">
-        <v>560</v>
       </c>
       <c r="H19" s="356"/>
       <c r="I19" s="356" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J19" s="370"/>
       <c r="K19" s="369">
@@ -8655,14 +8674,14 @@
         <v>42555</v>
       </c>
       <c r="F20" s="363" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G20" s="355" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H20" s="356"/>
       <c r="I20" s="356" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J20" s="370"/>
       <c r="K20" s="369">
@@ -8678,7 +8697,7 @@
       </c>
       <c r="P20" s="371"/>
     </row>
-    <row r="21" spans="1:16" s="184" customFormat="1" ht="216" hidden="1">
+    <row r="21" spans="1:16" s="184" customFormat="1" ht="216">
       <c r="A21" s="292">
         <v>19</v>
       </c>
@@ -8695,10 +8714,10 @@
         <v>42555</v>
       </c>
       <c r="F21" s="187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G21" s="351" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H21" s="197"/>
       <c r="I21" s="352"/>
@@ -8713,7 +8732,7 @@
         <v>42663</v>
       </c>
       <c r="P21" s="237" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="274" customFormat="1" ht="81" hidden="1">
@@ -8921,10 +8940,10 @@
         <v>42555</v>
       </c>
       <c r="F27" s="294" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G27" s="287" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H27" s="281" t="s">
         <v>47</v>
@@ -8963,16 +8982,16 @@
         <v>42555</v>
       </c>
       <c r="F28" s="363" t="s">
+        <v>563</v>
+      </c>
+      <c r="G28" s="355" t="s">
+        <v>565</v>
+      </c>
+      <c r="H28" s="356" t="s">
         <v>564</v>
       </c>
-      <c r="G28" s="355" t="s">
-        <v>566</v>
-      </c>
-      <c r="H28" s="356" t="s">
-        <v>565</v>
-      </c>
       <c r="I28" s="356" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J28" s="370"/>
       <c r="K28" s="369">
@@ -8983,7 +9002,7 @@
       </c>
       <c r="M28" s="356"/>
       <c r="N28" s="356" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O28" s="369">
         <v>42652</v>
@@ -9008,11 +9027,11 @@
       </c>
       <c r="F29" s="363"/>
       <c r="G29" s="355" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H29" s="356"/>
       <c r="I29" s="356" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J29" s="370"/>
       <c r="K29" s="369">
@@ -9046,11 +9065,11 @@
       </c>
       <c r="F30" s="202"/>
       <c r="G30" s="203" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H30" s="204"/>
       <c r="I30" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J30" s="205"/>
       <c r="K30" s="201">
@@ -9079,14 +9098,14 @@
         <v>42507</v>
       </c>
       <c r="F31" s="202" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="203" t="s">
         <v>329</v>
-      </c>
-      <c r="G31" s="203" t="s">
-        <v>330</v>
       </c>
       <c r="H31" s="204"/>
       <c r="I31" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J31" s="205"/>
       <c r="K31" s="201">
@@ -9705,7 +9724,7 @@
         <v>213</v>
       </c>
       <c r="G47" s="280" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H47" s="281"/>
       <c r="I47" s="281" t="s">
@@ -9774,16 +9793,16 @@
         <v>42558</v>
       </c>
       <c r="F49" s="363" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" s="365" t="s">
+        <v>574</v>
+      </c>
+      <c r="H49" s="356" t="s">
+        <v>564</v>
+      </c>
+      <c r="I49" s="356" t="s">
         <v>572</v>
-      </c>
-      <c r="G49" s="365" t="s">
-        <v>575</v>
-      </c>
-      <c r="H49" s="356" t="s">
-        <v>565</v>
-      </c>
-      <c r="I49" s="356" t="s">
-        <v>573</v>
       </c>
       <c r="J49" s="370"/>
       <c r="K49" s="369">
@@ -9794,7 +9813,7 @@
       </c>
       <c r="M49" s="356"/>
       <c r="N49" s="356" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O49" s="369">
         <v>42654</v>
@@ -9821,13 +9840,13 @@
         <v>265</v>
       </c>
       <c r="G50" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H50" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I50" s="356" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J50" s="370"/>
       <c r="K50" s="369">
@@ -9896,24 +9915,24 @@
         <v>42612</v>
       </c>
       <c r="F52" s="295" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G52" s="270" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H52" s="271"/>
       <c r="I52" s="271" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J52" s="272"/>
       <c r="K52" s="268">
         <v>42651</v>
       </c>
       <c r="L52" s="267" t="s">
+        <v>487</v>
+      </c>
+      <c r="N52" s="274" t="s">
         <v>488</v>
-      </c>
-      <c r="N52" s="274" t="s">
-        <v>489</v>
       </c>
       <c r="O52" s="230">
         <v>42651</v>
@@ -9937,14 +9956,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="173" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G53" s="174" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H53" s="175"/>
       <c r="I53" s="210" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J53" s="131"/>
       <c r="K53" s="172">
@@ -9973,16 +9992,16 @@
         <v>42612</v>
       </c>
       <c r="F54" s="294" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G54" s="280" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H54" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I54" s="277" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J54" s="282"/>
       <c r="K54" s="278">
@@ -9993,7 +10012,7 @@
       </c>
       <c r="M54" s="281"/>
       <c r="N54" s="281" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O54" s="278">
         <v>42634</v>
@@ -10095,16 +10114,16 @@
         <v>42612</v>
       </c>
       <c r="F57" s="294" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="287" t="s">
         <v>396</v>
       </c>
-      <c r="G57" s="287" t="s">
+      <c r="H57" s="281" t="s">
         <v>397</v>
       </c>
-      <c r="H57" s="281" t="s">
-        <v>398</v>
-      </c>
       <c r="I57" s="277" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J57" s="239"/>
       <c r="K57" s="240">
@@ -10865,7 +10884,7 @@
         <v>262</v>
       </c>
       <c r="G76" s="296" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H76" s="271"/>
       <c r="I76" s="267" t="s">
@@ -10880,7 +10899,7 @@
       </c>
       <c r="M76" s="271"/>
       <c r="N76" s="271" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O76" s="268">
         <v>42651</v>
@@ -11003,7 +11022,7 @@
       </c>
       <c r="P79" s="176"/>
     </row>
-    <row r="80" spans="1:16" s="184" customFormat="1" ht="27" hidden="1">
+    <row r="80" spans="1:16" s="184" customFormat="1" ht="27">
       <c r="A80" s="292">
         <v>78</v>
       </c>
@@ -11020,7 +11039,7 @@
         <v>42612</v>
       </c>
       <c r="F80" s="187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G80" s="359" t="s">
         <v>158</v>
@@ -11036,7 +11055,7 @@
       <c r="N80" s="197"/>
       <c r="O80" s="34"/>
       <c r="P80" s="237" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="274" customFormat="1" ht="40.5" hidden="1">
@@ -11056,14 +11075,14 @@
         <v>42612</v>
       </c>
       <c r="F81" s="295" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" s="270" t="s">
         <v>446</v>
-      </c>
-      <c r="G81" s="270" t="s">
-        <v>447</v>
       </c>
       <c r="H81" s="271"/>
       <c r="I81" s="267" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J81" s="272"/>
       <c r="K81" s="268">
@@ -11074,7 +11093,7 @@
       </c>
       <c r="M81" s="271"/>
       <c r="N81" s="271" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O81" s="268">
         <v>42639</v>
@@ -11098,16 +11117,16 @@
         <v>42612</v>
       </c>
       <c r="F82" s="363" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G82" s="355" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H82" s="356" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I82" s="356" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J82" s="370"/>
       <c r="K82" s="369">
@@ -11118,11 +11137,11 @@
       </c>
       <c r="M82" s="356"/>
       <c r="N82" s="356" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O82" s="369"/>
       <c r="P82" s="371" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
@@ -11225,7 +11244,7 @@
       </c>
       <c r="H85" s="87"/>
       <c r="I85" s="210" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J85" s="71"/>
       <c r="K85" s="67"/>
@@ -11336,13 +11355,13 @@
         <v>42616</v>
       </c>
       <c r="F88" s="347" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G88" s="348" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I88" s="372" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K88" s="345">
         <v>42656</v>
@@ -11351,7 +11370,7 @@
         <v>59</v>
       </c>
       <c r="N88" s="372" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O88" s="345">
         <v>42653</v>
@@ -11376,13 +11395,13 @@
       </c>
       <c r="F89" s="202"/>
       <c r="G89" s="203" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H89" s="204" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I89" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J89" s="205"/>
       <c r="K89" s="201">
@@ -11641,16 +11660,16 @@
         <v>42616</v>
       </c>
       <c r="F96" s="363" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G96" s="355" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H96" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I96" s="372" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K96" s="345">
         <v>42656</v>
@@ -11660,7 +11679,7 @@
       </c>
       <c r="M96" s="356"/>
       <c r="N96" s="356" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O96" s="369">
         <v>42653</v>
@@ -11684,14 +11703,14 @@
         <v>42616</v>
       </c>
       <c r="F97" s="294" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G97" s="280" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H97" s="281"/>
       <c r="I97" s="277" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J97" s="282"/>
       <c r="K97" s="240">
@@ -11724,10 +11743,10 @@
         <v>42616</v>
       </c>
       <c r="F98" s="294" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G98" s="280" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H98" s="281"/>
       <c r="I98" s="277" t="s">
@@ -11764,10 +11783,10 @@
         <v>42616</v>
       </c>
       <c r="F99" s="294" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G99" s="280" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H99" s="281"/>
       <c r="I99" s="277" t="s">
@@ -11804,7 +11823,7 @@
         <v>42616</v>
       </c>
       <c r="F100" s="294" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G100" s="280" t="s">
         <v>161</v>
@@ -11845,11 +11864,11 @@
       </c>
       <c r="F101" s="202"/>
       <c r="G101" s="215" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H101" s="204"/>
       <c r="I101" s="200" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J101" s="205"/>
       <c r="K101" s="201">
@@ -12097,7 +12116,7 @@
       </c>
       <c r="P107" s="206"/>
     </row>
-    <row r="108" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
+    <row r="108" spans="1:16" s="184" customFormat="1" ht="40.5">
       <c r="A108" s="292">
         <v>106</v>
       </c>
@@ -12114,7 +12133,7 @@
         <v>42616</v>
       </c>
       <c r="F108" s="187" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G108" s="196" t="s">
         <v>295</v>
@@ -12122,9 +12141,7 @@
       <c r="H108" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="I108" s="175" t="s">
-        <v>296</v>
-      </c>
+      <c r="I108" s="175"/>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
       <c r="L108" s="352" t="s">
@@ -12132,13 +12149,13 @@
       </c>
       <c r="M108" s="197"/>
       <c r="N108" s="352" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O108" s="34">
         <v>42660</v>
       </c>
       <c r="P108" s="237" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
@@ -12159,13 +12176,13 @@
       </c>
       <c r="F109" s="202"/>
       <c r="G109" s="203" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H109" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I109" s="200" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J109" s="205"/>
       <c r="K109" s="201">
@@ -12199,7 +12216,7 @@
         <v>292</v>
       </c>
       <c r="G110" s="311" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H110" s="298" t="s">
         <v>47</v>
@@ -12216,7 +12233,7 @@
       </c>
       <c r="M110" s="302"/>
       <c r="N110" s="302" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O110" s="312">
         <v>42643</v>
@@ -12241,13 +12258,13 @@
       </c>
       <c r="F111" s="218"/>
       <c r="G111" s="219" t="s">
+        <v>298</v>
+      </c>
+      <c r="H111" s="220" t="s">
         <v>299</v>
       </c>
-      <c r="H111" s="220" t="s">
-        <v>300</v>
-      </c>
       <c r="I111" s="221" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J111" s="222"/>
       <c r="K111" s="223">
@@ -12258,7 +12275,7 @@
       </c>
       <c r="M111" s="224"/>
       <c r="N111" s="224" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O111" s="223"/>
       <c r="P111" s="225"/>
@@ -12280,10 +12297,10 @@
         <v>42616</v>
       </c>
       <c r="F112" s="353" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G112" s="351" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H112" s="262" t="s">
         <v>47</v>
@@ -12296,10 +12313,10 @@
       <c r="N112" s="262"/>
       <c r="O112" s="34"/>
       <c r="P112" s="237" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="184" customFormat="1" ht="40.5">
       <c r="A113" s="292">
         <v>111</v>
       </c>
@@ -12316,10 +12333,10 @@
         <v>42616</v>
       </c>
       <c r="F113" s="353" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G113" s="351" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H113" s="197" t="s">
         <v>47</v>
@@ -12332,13 +12349,13 @@
       </c>
       <c r="M113" s="262"/>
       <c r="N113" s="262" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O113" s="34">
         <v>42663</v>
       </c>
       <c r="P113" s="237" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
@@ -12359,11 +12376,11 @@
       </c>
       <c r="F114" s="190"/>
       <c r="G114" s="203" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H114" s="204"/>
       <c r="I114" s="221" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J114" s="222"/>
       <c r="K114" s="223">
@@ -12397,11 +12414,11 @@
       </c>
       <c r="F115" s="190"/>
       <c r="G115" s="215" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H115" s="204"/>
       <c r="I115" s="221" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J115" s="222"/>
       <c r="K115" s="223">
@@ -12434,21 +12451,21 @@
         <v>42625</v>
       </c>
       <c r="F116" s="363" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G116" s="355" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H116" s="356"/>
       <c r="I116" s="298" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J116" s="370"/>
       <c r="K116" s="369">
         <v>42656</v>
       </c>
       <c r="L116" s="356" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M116" s="356"/>
       <c r="N116" s="356"/>
@@ -12475,11 +12492,11 @@
       </c>
       <c r="F117" s="202"/>
       <c r="G117" s="203" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H117" s="204"/>
       <c r="I117" s="226" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J117" s="205"/>
       <c r="K117" s="201">
@@ -12627,11 +12644,11 @@
       </c>
       <c r="F121" s="190"/>
       <c r="G121" s="203" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H121" s="204"/>
       <c r="I121" s="226" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J121" s="205"/>
       <c r="K121" s="201">
@@ -12704,14 +12721,14 @@
         <v>42626</v>
       </c>
       <c r="F123" s="190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G123" s="203" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H123" s="204"/>
       <c r="I123" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J123" s="205"/>
       <c r="K123" s="201"/>
@@ -12743,11 +12760,11 @@
       </c>
       <c r="F124" s="190"/>
       <c r="G124" s="203" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H124" s="204"/>
       <c r="I124" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J124" s="205"/>
       <c r="K124" s="201">
@@ -12781,11 +12798,11 @@
       </c>
       <c r="F125" s="190"/>
       <c r="G125" s="203" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H125" s="204"/>
       <c r="I125" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J125" s="205"/>
       <c r="K125" s="201">
@@ -12819,13 +12836,13 @@
       </c>
       <c r="F126" s="190"/>
       <c r="G126" s="203" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H126" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I126" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J126" s="205"/>
       <c r="K126" s="201">
@@ -12859,13 +12876,13 @@
       </c>
       <c r="F127" s="190"/>
       <c r="G127" s="203" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H127" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I127" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J127" s="205"/>
       <c r="K127" s="201">
@@ -12905,7 +12922,7 @@
         <v>47</v>
       </c>
       <c r="I128" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J128" s="205"/>
       <c r="K128" s="201">
@@ -12947,7 +12964,7 @@
         <v>47</v>
       </c>
       <c r="I129" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J129" s="205"/>
       <c r="K129" s="201">
@@ -12983,13 +13000,13 @@
       </c>
       <c r="F130" s="190"/>
       <c r="G130" s="203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H130" s="204" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J130" s="205"/>
       <c r="K130" s="201">
@@ -13024,16 +13041,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="295" t="s">
+        <v>448</v>
+      </c>
+      <c r="G131" s="270" t="s">
         <v>449</v>
       </c>
-      <c r="G131" s="270" t="s">
-        <v>450</v>
-      </c>
       <c r="H131" s="271" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I131" s="267" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J131" s="272"/>
       <c r="K131" s="268">
@@ -13044,7 +13061,7 @@
       </c>
       <c r="M131" s="271"/>
       <c r="N131" s="271" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O131" s="305">
         <v>42643</v>
@@ -13068,7 +13085,7 @@
         <v>42627</v>
       </c>
       <c r="F132" s="363" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G132" s="355" t="s">
         <v>156</v>
@@ -13077,7 +13094,7 @@
         <v>155</v>
       </c>
       <c r="I132" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J132" s="370"/>
       <c r="K132" s="369">
@@ -13115,7 +13132,7 @@
       </c>
       <c r="H133" s="204"/>
       <c r="I133" s="200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J133" s="205"/>
       <c r="K133" s="201">
@@ -13151,7 +13168,7 @@
       </c>
       <c r="F134" s="295"/>
       <c r="G134" s="270" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H134" s="271"/>
       <c r="I134" s="267" t="s">
@@ -13189,7 +13206,7 @@
       </c>
       <c r="F135" s="295"/>
       <c r="G135" s="270" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H135" s="271"/>
       <c r="I135" s="267" t="s">
@@ -13226,10 +13243,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="293" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G136" s="359" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H136" s="262" t="s">
         <v>138</v>
@@ -13242,7 +13259,7 @@
       <c r="N136" s="262"/>
       <c r="O136" s="34"/>
       <c r="P136" s="237" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
@@ -13263,11 +13280,11 @@
       </c>
       <c r="F137" s="190"/>
       <c r="G137" s="203" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H137" s="204"/>
       <c r="I137" s="200" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J137" s="205"/>
       <c r="K137" s="201">
@@ -13301,7 +13318,7 @@
       </c>
       <c r="F138" s="269"/>
       <c r="G138" s="270" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H138" s="271" t="s">
         <v>47</v>
@@ -13318,7 +13335,7 @@
       </c>
       <c r="M138" s="271"/>
       <c r="N138" s="271" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O138" s="268">
         <v>42642</v>
@@ -13342,14 +13359,14 @@
         <v>42630</v>
       </c>
       <c r="F139" s="190" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G139" s="203" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H139" s="204"/>
       <c r="I139" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J139" s="205"/>
       <c r="K139" s="201">
@@ -13360,7 +13377,7 @@
       </c>
       <c r="M139" s="204"/>
       <c r="N139" s="204" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O139" s="201">
         <v>42630</v>
@@ -13385,7 +13402,7 @@
       </c>
       <c r="F140" s="269"/>
       <c r="G140" s="296" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H140" s="271"/>
       <c r="I140" s="267" t="s">
@@ -13400,7 +13417,7 @@
       </c>
       <c r="M140" s="271"/>
       <c r="N140" s="271" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O140" s="268">
         <v>42641</v>
@@ -13424,13 +13441,13 @@
         <v>42630</v>
       </c>
       <c r="F141" s="279" t="s">
+        <v>424</v>
+      </c>
+      <c r="G141" s="287" t="s">
         <v>425</v>
       </c>
-      <c r="G141" s="287" t="s">
-        <v>426</v>
-      </c>
       <c r="H141" s="281" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I141" s="267" t="s">
         <v>40</v>
@@ -13444,7 +13461,7 @@
       </c>
       <c r="M141" s="281"/>
       <c r="N141" s="281" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O141" s="278">
         <v>42641</v>
@@ -13469,7 +13486,7 @@
       </c>
       <c r="F142" s="315"/>
       <c r="G142" s="316" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H142" s="318"/>
       <c r="I142" s="277" t="s">
@@ -13492,7 +13509,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="200" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C143" s="200" t="s">
         <v>16</v>
@@ -13505,10 +13522,10 @@
       </c>
       <c r="F143" s="228"/>
       <c r="G143" s="229" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I143" s="207" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K143" s="230">
         <v>42634</v>
@@ -13533,10 +13550,10 @@
       </c>
       <c r="F144" s="228"/>
       <c r="G144" s="231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I144" s="207" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K144" s="230">
         <v>42634</v>
@@ -13561,10 +13578,10 @@
       </c>
       <c r="F145" s="228"/>
       <c r="G145" s="231" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I145" s="207" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K145" s="230">
         <v>42634</v>
@@ -13588,13 +13605,13 @@
         <v>42633</v>
       </c>
       <c r="F146" s="374" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G146" s="231" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I146" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J146" s="370"/>
       <c r="K146" s="369">
@@ -13604,7 +13621,7 @@
         <v>59</v>
       </c>
       <c r="N146" s="372" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O146" s="345">
         <v>42652</v>
@@ -13628,13 +13645,13 @@
         <v>42633</v>
       </c>
       <c r="F147" s="374" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G147" s="231" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I147" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J147" s="370"/>
       <c r="K147" s="369">
@@ -13665,13 +13682,13 @@
         <v>42633</v>
       </c>
       <c r="F148" s="319" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G148" s="320" t="s">
+        <v>428</v>
+      </c>
+      <c r="I148" s="283" t="s">
         <v>429</v>
-      </c>
-      <c r="I148" s="283" t="s">
-        <v>430</v>
       </c>
       <c r="K148" s="321">
         <v>42643</v>
@@ -13680,7 +13697,7 @@
         <v>59</v>
       </c>
       <c r="N148" s="244" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O148" s="321">
         <v>42642</v>
@@ -13704,22 +13721,22 @@
         <v>42633</v>
       </c>
       <c r="F149" s="319" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G149" s="320" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I149" s="283" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K149" s="317">
         <v>42643</v>
       </c>
       <c r="L149" s="283" t="s">
+        <v>463</v>
+      </c>
+      <c r="N149" s="283" t="s">
         <v>464</v>
-      </c>
-      <c r="N149" s="283" t="s">
-        <v>465</v>
       </c>
       <c r="O149" s="317">
         <v>42641</v>
@@ -13743,20 +13760,20 @@
         <v>42633</v>
       </c>
       <c r="F150" s="242" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G150" s="291" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H150" s="235"/>
       <c r="I150" s="255" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L150" s="184" t="s">
+        <v>367</v>
+      </c>
+      <c r="N150" s="184" t="s">
         <v>368</v>
-      </c>
-      <c r="N150" s="184" t="s">
-        <v>369</v>
       </c>
       <c r="O150" s="243">
         <v>42642</v>
@@ -13789,7 +13806,7 @@
         <v>47</v>
       </c>
       <c r="I151" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J151" s="282"/>
       <c r="K151" s="278">
@@ -13831,7 +13848,7 @@
         <v>47</v>
       </c>
       <c r="I152" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J152" s="282"/>
       <c r="K152" s="278">
@@ -13842,14 +13859,14 @@
       </c>
       <c r="M152" s="281"/>
       <c r="N152" s="281" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O152" s="240">
         <v>42643</v>
       </c>
       <c r="P152" s="245"/>
     </row>
-    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5" hidden="1">
+    <row r="153" spans="1:16" s="184" customFormat="1" ht="40.5">
       <c r="A153" s="292">
         <v>151</v>
       </c>
@@ -13878,17 +13895,17 @@
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
       <c r="L153" s="352" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M153" s="197"/>
       <c r="N153" s="352" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O153" s="34">
         <v>42657</v>
       </c>
       <c r="P153" s="237" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="244" customFormat="1" ht="27" hidden="1">
@@ -13917,7 +13934,7 @@
         <v>47</v>
       </c>
       <c r="I154" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J154" s="282"/>
       <c r="K154" s="278">
@@ -13928,7 +13945,7 @@
       </c>
       <c r="M154" s="281"/>
       <c r="N154" s="281" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O154" s="240">
         <v>42643</v>
@@ -13955,11 +13972,11 @@
         <v>279</v>
       </c>
       <c r="G155" s="322" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H155" s="281"/>
       <c r="I155" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J155" s="282"/>
       <c r="K155" s="278">
@@ -13970,7 +13987,7 @@
       </c>
       <c r="M155" s="281"/>
       <c r="N155" s="281" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O155" s="240">
         <v>42643</v>
@@ -14003,7 +14020,7 @@
         <v>47</v>
       </c>
       <c r="I156" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J156" s="282"/>
       <c r="K156" s="278">
@@ -14039,11 +14056,11 @@
         <v>235</v>
       </c>
       <c r="G157" s="280" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H157" s="281"/>
       <c r="I157" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J157" s="282"/>
       <c r="K157" s="278">
@@ -14054,7 +14071,7 @@
       </c>
       <c r="M157" s="281"/>
       <c r="N157" s="281" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O157" s="240">
         <v>42643</v>
@@ -14087,7 +14104,7 @@
         <v>222</v>
       </c>
       <c r="I158" s="262" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -14096,7 +14113,7 @@
       </c>
       <c r="M158" s="197"/>
       <c r="N158" s="197" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
@@ -14129,18 +14146,18 @@
         <v>47</v>
       </c>
       <c r="I159" s="277" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J159" s="282"/>
       <c r="K159" s="278">
         <v>42643</v>
       </c>
       <c r="L159" s="281" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M159" s="281"/>
       <c r="N159" s="281" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O159" s="240">
         <v>42643</v>
@@ -14167,13 +14184,13 @@
         <v>241</v>
       </c>
       <c r="G160" s="287" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H160" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I160" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J160" s="282"/>
       <c r="K160" s="278">
@@ -14213,7 +14230,7 @@
       </c>
       <c r="H161" s="281"/>
       <c r="I161" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J161" s="282"/>
       <c r="K161" s="278">
@@ -14246,16 +14263,16 @@
         <v>42636</v>
       </c>
       <c r="F162" s="294" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G162" s="323" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H162" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I162" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J162" s="282"/>
       <c r="K162" s="278">
@@ -14291,24 +14308,24 @@
         <v>288</v>
       </c>
       <c r="G163" s="322" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H163" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I163" s="277" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J163" s="282"/>
       <c r="K163" s="278">
         <v>42643</v>
       </c>
       <c r="L163" s="281" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M163" s="281"/>
       <c r="N163" s="281" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O163" s="240">
         <v>42643</v>
@@ -14335,13 +14352,13 @@
         <v>288</v>
       </c>
       <c r="G164" s="348" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H164" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I164" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J164" s="370"/>
       <c r="K164" s="369">
@@ -14352,7 +14369,7 @@
       </c>
       <c r="M164" s="356"/>
       <c r="N164" s="356" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O164" s="369">
         <v>42653</v>
@@ -14376,14 +14393,14 @@
         <v>42636</v>
       </c>
       <c r="F165" s="295" t="s">
+        <v>492</v>
+      </c>
+      <c r="G165" s="324" t="s">
         <v>493</v>
-      </c>
-      <c r="G165" s="324" t="s">
-        <v>494</v>
       </c>
       <c r="H165" s="271"/>
       <c r="I165" s="267" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J165" s="272"/>
       <c r="K165" s="268">
@@ -14394,7 +14411,7 @@
       </c>
       <c r="M165" s="271"/>
       <c r="N165" s="271" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O165" s="268">
         <v>42651</v>
@@ -14427,7 +14444,7 @@
         <v>47</v>
       </c>
       <c r="I166" s="267" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J166" s="272"/>
       <c r="K166" s="268">
@@ -14438,7 +14455,7 @@
       </c>
       <c r="M166" s="271"/>
       <c r="N166" s="271" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O166" s="305">
         <v>42643</v>
@@ -14471,7 +14488,7 @@
         <v>47</v>
       </c>
       <c r="I167" s="267" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J167" s="272"/>
       <c r="K167" s="268">
@@ -14504,14 +14521,14 @@
         <v>42636</v>
       </c>
       <c r="F168" s="211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G168" s="297" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H168" s="197"/>
       <c r="I168" s="255" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J168" s="198"/>
       <c r="K168" s="198"/>
@@ -14520,7 +14537,7 @@
       </c>
       <c r="M168" s="197"/>
       <c r="N168" s="197" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O168" s="195">
         <v>42640</v>
@@ -14544,14 +14561,14 @@
         <v>42636</v>
       </c>
       <c r="F169" s="211" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G169" s="297" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H169" s="197"/>
       <c r="I169" s="255" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J169" s="198"/>
       <c r="K169" s="198"/>
@@ -14560,7 +14577,7 @@
       </c>
       <c r="M169" s="197"/>
       <c r="N169" s="197" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O169" s="195">
         <v>42640</v>
@@ -14584,16 +14601,16 @@
         <v>42636</v>
       </c>
       <c r="F170" s="294" t="s">
+        <v>308</v>
+      </c>
+      <c r="G170" s="323" t="s">
         <v>309</v>
-      </c>
-      <c r="G170" s="323" t="s">
-        <v>310</v>
       </c>
       <c r="H170" s="281" t="s">
         <v>47</v>
       </c>
       <c r="I170" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J170" s="282"/>
       <c r="K170" s="278">
@@ -14626,23 +14643,23 @@
         <v>42636</v>
       </c>
       <c r="F171" s="228" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G171" s="341" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H171" s="271"/>
       <c r="I171" s="274" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K171" s="230">
         <v>42651</v>
       </c>
       <c r="L171" s="274" t="s">
+        <v>506</v>
+      </c>
+      <c r="N171" s="274" t="s">
         <v>507</v>
-      </c>
-      <c r="N171" s="274" t="s">
-        <v>508</v>
       </c>
       <c r="O171" s="230">
         <v>42640</v>
@@ -14665,16 +14682,16 @@
         <v>42636</v>
       </c>
       <c r="F172" s="319" t="s">
+        <v>355</v>
+      </c>
+      <c r="G172" s="325" t="s">
         <v>356</v>
       </c>
-      <c r="G172" s="325" t="s">
+      <c r="H172" s="281" t="s">
         <v>357</v>
       </c>
-      <c r="H172" s="281" t="s">
-        <v>358</v>
-      </c>
       <c r="I172" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J172" s="282"/>
       <c r="K172" s="278">
@@ -14704,16 +14721,16 @@
         <v>42636</v>
       </c>
       <c r="F173" s="319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G173" s="326" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H173" s="281" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I173" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J173" s="282"/>
       <c r="K173" s="278">
@@ -14723,7 +14740,7 @@
         <v>59</v>
       </c>
       <c r="N173" s="244" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O173" s="321">
         <v>42643</v>
@@ -14746,14 +14763,14 @@
         <v>42636</v>
       </c>
       <c r="F174" s="294" t="s">
+        <v>359</v>
+      </c>
+      <c r="G174" s="325" t="s">
         <v>360</v>
-      </c>
-      <c r="G174" s="325" t="s">
-        <v>361</v>
       </c>
       <c r="H174" s="281"/>
       <c r="I174" s="277" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J174" s="282"/>
       <c r="K174" s="278">
@@ -14783,14 +14800,14 @@
         <v>42641</v>
       </c>
       <c r="F175" s="251" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G175" s="289" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H175" s="248"/>
       <c r="I175" s="254" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J175" s="246"/>
       <c r="K175" s="304"/>
@@ -14817,14 +14834,14 @@
         <v>42645</v>
       </c>
       <c r="F176" s="295" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G176" s="341" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H176" s="271"/>
       <c r="I176" s="274" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J176" s="274"/>
       <c r="K176" s="230">
@@ -14835,7 +14852,7 @@
       </c>
       <c r="M176" s="274"/>
       <c r="N176" s="274" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O176" s="230">
         <v>42651</v>
@@ -14859,14 +14876,14 @@
         <v>42645</v>
       </c>
       <c r="F177" s="363" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G177" s="342" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H177" s="356"/>
       <c r="I177" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J177" s="370"/>
       <c r="K177" s="369">
@@ -14879,7 +14896,7 @@
         <v>42655</v>
       </c>
       <c r="P177" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:16" s="372" customFormat="1" ht="108" hidden="1">
@@ -14899,14 +14916,14 @@
         <v>42645</v>
       </c>
       <c r="F178" s="363" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G178" s="341" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H178" s="356"/>
       <c r="I178" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J178" s="370"/>
       <c r="K178" s="369">
@@ -14939,14 +14956,14 @@
         <v>42645</v>
       </c>
       <c r="F179" s="363" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G179" s="341" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H179" s="356"/>
       <c r="I179" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J179" s="370"/>
       <c r="K179" s="369">
@@ -14979,14 +14996,14 @@
         <v>42645</v>
       </c>
       <c r="F180" s="363" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G180" s="341" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H180" s="356"/>
       <c r="I180" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J180" s="370"/>
       <c r="K180" s="369">
@@ -15019,28 +15036,30 @@
         <v>42645</v>
       </c>
       <c r="F181" s="293" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G181" s="362" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H181" s="262"/>
-      <c r="I181" s="254" t="s">
-        <v>616</v>
-      </c>
+      <c r="I181" s="254"/>
       <c r="J181" s="254"/>
       <c r="K181" s="254"/>
       <c r="L181" s="258" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M181" s="254"/>
-      <c r="N181" s="254"/>
-      <c r="O181" s="304">
-        <v>42652</v>
-      </c>
-      <c r="P181" s="254"/>
-    </row>
-    <row r="182" spans="1:16" ht="27">
+      <c r="N181" s="350" t="s">
+        <v>668</v>
+      </c>
+      <c r="O181" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P181" s="350" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="40.5">
       <c r="A182" s="292">
         <v>180</v>
       </c>
@@ -15057,26 +15076,28 @@
         <v>42645</v>
       </c>
       <c r="F182" s="293" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G182" s="362" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H182" s="262"/>
-      <c r="I182" s="254" t="s">
-        <v>616</v>
-      </c>
+      <c r="I182" s="254"/>
       <c r="J182" s="254"/>
       <c r="K182" s="254"/>
       <c r="L182" s="258" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M182" s="254"/>
-      <c r="N182" s="254"/>
-      <c r="O182" s="304">
-        <v>42652</v>
-      </c>
-      <c r="P182" s="254"/>
+      <c r="N182" s="350" t="s">
+        <v>667</v>
+      </c>
+      <c r="O182" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P182" s="350" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="183" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A183" s="354">
@@ -15095,25 +15116,25 @@
         <v>42645</v>
       </c>
       <c r="F183" s="363" t="s">
+        <v>619</v>
+      </c>
+      <c r="G183" s="341" t="s">
         <v>620</v>
-      </c>
-      <c r="G183" s="341" t="s">
-        <v>621</v>
       </c>
       <c r="H183" s="356"/>
       <c r="I183" s="298" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J183" s="370"/>
       <c r="K183" s="369">
         <v>42656</v>
       </c>
       <c r="L183" s="267" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M183" s="274"/>
       <c r="N183" s="274" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O183" s="230">
         <v>42651</v>
@@ -15137,28 +15158,30 @@
         <v>42645</v>
       </c>
       <c r="F184" s="293" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G184" s="362" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H184" s="262"/>
       <c r="I184" s="254" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J184" s="254"/>
       <c r="K184" s="254"/>
       <c r="L184" s="258" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M184" s="254"/>
-      <c r="N184" s="254" t="s">
-        <v>529</v>
-      </c>
-      <c r="O184" s="304">
+      <c r="N184" s="350" t="s">
+        <v>528</v>
+      </c>
+      <c r="O184" s="367">
         <v>42651</v>
       </c>
-      <c r="P184" s="254"/>
+      <c r="P184" s="350" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="185" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
       <c r="A185" s="375">
@@ -15180,11 +15203,11 @@
         <v>213</v>
       </c>
       <c r="G185" s="342" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H185" s="356"/>
       <c r="I185" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J185" s="370"/>
       <c r="K185" s="369">
@@ -15194,13 +15217,13 @@
         <v>193</v>
       </c>
       <c r="N185" s="372" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O185" s="345">
         <v>42654</v>
       </c>
       <c r="P185" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15220,16 +15243,16 @@
         <v>42645</v>
       </c>
       <c r="F186" s="363" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G186" s="341" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H186" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I186" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J186" s="370"/>
       <c r="K186" s="369">
@@ -15239,13 +15262,13 @@
         <v>59</v>
       </c>
       <c r="N186" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O186" s="345">
         <v>42654</v>
       </c>
       <c r="P186" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -15265,29 +15288,29 @@
         <v>42645</v>
       </c>
       <c r="F187" s="363" t="s">
+        <v>624</v>
+      </c>
+      <c r="G187" s="341" t="s">
+        <v>627</v>
+      </c>
+      <c r="H187" s="356" t="s">
         <v>625</v>
       </c>
-      <c r="G187" s="341" t="s">
-        <v>628</v>
-      </c>
-      <c r="H187" s="356" t="s">
-        <v>626</v>
-      </c>
       <c r="I187" s="298" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J187" s="370"/>
       <c r="K187" s="369">
         <v>42656</v>
       </c>
       <c r="L187" s="356" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O187" s="345">
         <v>42654</v>
       </c>
       <c r="P187" s="372" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="381" customFormat="1" ht="81" hidden="1">
@@ -15307,32 +15330,32 @@
         <v>42645</v>
       </c>
       <c r="F188" s="376" t="s">
+        <v>628</v>
+      </c>
+      <c r="G188" s="384" t="s">
         <v>629</v>
       </c>
-      <c r="G188" s="384" t="s">
-        <v>630</v>
-      </c>
       <c r="H188" s="377" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I188" s="378" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J188" s="379"/>
       <c r="K188" s="380">
         <v>42656</v>
       </c>
       <c r="L188" s="377" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N188" s="381" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O188" s="383">
         <v>42654</v>
       </c>
       <c r="P188" s="381" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
@@ -15352,16 +15375,16 @@
         <v>42645</v>
       </c>
       <c r="F189" s="363" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G189" s="342" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H189" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I189" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J189" s="370"/>
       <c r="K189" s="369">
@@ -15371,13 +15394,13 @@
         <v>59</v>
       </c>
       <c r="N189" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O189" s="345">
         <v>42654</v>
       </c>
       <c r="P189" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15397,16 +15420,16 @@
         <v>42645</v>
       </c>
       <c r="F190" s="363" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G190" s="341" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H190" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I190" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J190" s="370"/>
       <c r="K190" s="369">
@@ -15416,13 +15439,13 @@
         <v>59</v>
       </c>
       <c r="N190" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O190" s="345">
         <v>42654</v>
       </c>
       <c r="P190" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -15442,16 +15465,16 @@
         <v>42645</v>
       </c>
       <c r="F191" s="363" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G191" s="341" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H191" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I191" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J191" s="370"/>
       <c r="K191" s="369">
@@ -15461,16 +15484,16 @@
         <v>59</v>
       </c>
       <c r="N191" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O191" s="345">
         <v>42654</v>
       </c>
       <c r="P191" s="372" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" ht="27" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="27">
       <c r="A192" s="292">
         <v>190</v>
       </c>
@@ -15487,10 +15510,10 @@
         <v>42645</v>
       </c>
       <c r="F192" s="293" t="s">
+        <v>409</v>
+      </c>
+      <c r="G192" s="303" t="s">
         <v>410</v>
-      </c>
-      <c r="G192" s="303" t="s">
-        <v>411</v>
       </c>
       <c r="H192" s="262" t="s">
         <v>47</v>
@@ -15499,17 +15522,17 @@
       <c r="J192" s="254"/>
       <c r="K192" s="254"/>
       <c r="L192" s="258" t="s">
+        <v>651</v>
+      </c>
+      <c r="M192" s="254"/>
+      <c r="N192" s="350" t="s">
         <v>652</v>
       </c>
-      <c r="M192" s="254"/>
-      <c r="N192" s="254" t="s">
-        <v>653</v>
-      </c>
-      <c r="O192" s="304">
+      <c r="O192" s="367">
         <v>42657</v>
       </c>
-      <c r="P192" s="254" t="s">
-        <v>532</v>
+      <c r="P192" s="350" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15529,16 +15552,16 @@
         <v>42645</v>
       </c>
       <c r="F193" s="363" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G193" s="385" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H193" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I193" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J193" s="370"/>
       <c r="K193" s="369">
@@ -15555,7 +15578,7 @@
         <v>42654</v>
       </c>
       <c r="P193" s="274" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15575,16 +15598,16 @@
         <v>42645</v>
       </c>
       <c r="F194" s="363" t="s">
+        <v>402</v>
+      </c>
+      <c r="G194" s="341" t="s">
         <v>403</v>
-      </c>
-      <c r="G194" s="341" t="s">
-        <v>404</v>
       </c>
       <c r="H194" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I194" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J194" s="370"/>
       <c r="K194" s="369">
@@ -15594,13 +15617,13 @@
         <v>59</v>
       </c>
       <c r="N194" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O194" s="345">
         <v>42654</v>
       </c>
       <c r="P194" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15620,16 +15643,16 @@
         <v>42645</v>
       </c>
       <c r="F195" s="363" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G195" s="341" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H195" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I195" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J195" s="370"/>
       <c r="K195" s="369">
@@ -15639,13 +15662,13 @@
         <v>59</v>
       </c>
       <c r="N195" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O195" s="345">
         <v>42654</v>
       </c>
       <c r="P195" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="372" customFormat="1" hidden="1">
@@ -15665,16 +15688,16 @@
         <v>42645</v>
       </c>
       <c r="F196" s="363" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G196" s="341" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H196" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I196" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J196" s="370"/>
       <c r="K196" s="369">
@@ -15687,7 +15710,7 @@
         <v>42654</v>
       </c>
       <c r="P196" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15707,16 +15730,16 @@
         <v>42645</v>
       </c>
       <c r="F197" s="363" t="s">
+        <v>405</v>
+      </c>
+      <c r="G197" s="341" t="s">
         <v>406</v>
-      </c>
-      <c r="G197" s="341" t="s">
-        <v>407</v>
       </c>
       <c r="H197" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I197" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J197" s="370"/>
       <c r="K197" s="369">
@@ -15726,13 +15749,13 @@
         <v>59</v>
       </c>
       <c r="N197" s="372" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O197" s="345">
         <v>42654</v>
       </c>
       <c r="P197" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="308" customFormat="1" ht="54" hidden="1">
@@ -15752,27 +15775,27 @@
         <v>42645</v>
       </c>
       <c r="F198" s="295" t="s">
+        <v>508</v>
+      </c>
+      <c r="G198" s="342" t="s">
         <v>509</v>
       </c>
-      <c r="G198" s="342" t="s">
+      <c r="H198" s="271" t="s">
         <v>510</v>
       </c>
-      <c r="H198" s="271" t="s">
-        <v>511</v>
-      </c>
       <c r="I198" s="274" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J198" s="274"/>
       <c r="K198" s="230">
         <v>42651</v>
       </c>
       <c r="L198" s="267" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M198" s="274"/>
       <c r="N198" s="274" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O198" s="230">
         <v>42651</v>
@@ -15796,16 +15819,16 @@
         <v>42645</v>
       </c>
       <c r="F199" s="363" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G199" s="341" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H199" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I199" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J199" s="370"/>
       <c r="K199" s="369">
@@ -15815,16 +15838,16 @@
         <v>59</v>
       </c>
       <c r="N199" s="372" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O199" s="345">
         <v>42655</v>
       </c>
       <c r="P199" s="372" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" ht="40.5" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="40.5">
       <c r="A200" s="292">
         <v>198</v>
       </c>
@@ -15841,10 +15864,10 @@
         <v>42645</v>
       </c>
       <c r="F200" s="293" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G200" s="289" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H200" s="262" t="s">
         <v>47</v>
@@ -15853,17 +15876,17 @@
       <c r="J200" s="254"/>
       <c r="K200" s="254"/>
       <c r="L200" s="258" t="s">
+        <v>651</v>
+      </c>
+      <c r="M200" s="254"/>
+      <c r="N200" s="350" t="s">
         <v>652</v>
       </c>
-      <c r="M200" s="254"/>
-      <c r="N200" s="254" t="s">
-        <v>653</v>
-      </c>
-      <c r="O200" s="304">
+      <c r="O200" s="367">
         <v>42657</v>
       </c>
-      <c r="P200" s="254" t="s">
-        <v>532</v>
+      <c r="P200" s="350" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="372" customFormat="1" hidden="1">
@@ -15883,16 +15906,16 @@
         <v>42645</v>
       </c>
       <c r="F201" s="363" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G201" s="341" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H201" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I201" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J201" s="370"/>
       <c r="K201" s="369">
@@ -15927,25 +15950,25 @@
         <v>42645</v>
       </c>
       <c r="F202" s="295" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G202" s="341" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H202" s="271"/>
       <c r="I202" s="274" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J202" s="274"/>
       <c r="K202" s="230">
         <v>42651</v>
       </c>
       <c r="L202" s="267" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M202" s="274"/>
       <c r="N202" s="274" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O202" s="230">
         <v>42651</v>
@@ -15969,16 +15992,16 @@
         <v>42645</v>
       </c>
       <c r="F203" s="295" t="s">
+        <v>430</v>
+      </c>
+      <c r="G203" s="342" t="s">
         <v>431</v>
-      </c>
-      <c r="G203" s="342" t="s">
-        <v>432</v>
       </c>
       <c r="H203" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I203" s="274" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J203" s="274"/>
       <c r="K203" s="230">
@@ -16011,16 +16034,16 @@
         <v>42645</v>
       </c>
       <c r="F204" s="363" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G204" s="341" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H204" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I204" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J204" s="370"/>
       <c r="K204" s="369">
@@ -16031,7 +16054,7 @@
       </c>
       <c r="M204" s="274"/>
       <c r="N204" s="274" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O204" s="230">
         <v>42653</v>
@@ -16058,13 +16081,13 @@
         <v>100</v>
       </c>
       <c r="G205" s="341" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H205" s="356" t="s">
         <v>47</v>
       </c>
       <c r="I205" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J205" s="370"/>
       <c r="K205" s="369">
@@ -16080,7 +16103,7 @@
       </c>
       <c r="P205" s="274"/>
     </row>
-    <row r="206" spans="1:16" ht="54" hidden="1">
+    <row r="206" spans="1:16" ht="54">
       <c r="A206" s="292">
         <v>204</v>
       </c>
@@ -16088,7 +16111,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="340" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D206" s="275">
         <v>42643</v>
@@ -16097,10 +16120,10 @@
         <v>42645</v>
       </c>
       <c r="F206" s="293" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G206" s="362" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H206" s="262" t="s">
         <v>47</v>
@@ -16109,15 +16132,15 @@
       <c r="J206" s="254"/>
       <c r="K206" s="254"/>
       <c r="L206" s="258" t="s">
+        <v>656</v>
+      </c>
+      <c r="M206" s="254"/>
+      <c r="N206" s="350"/>
+      <c r="O206" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P206" s="350" t="s">
         <v>657</v>
-      </c>
-      <c r="M206" s="254"/>
-      <c r="N206" s="254"/>
-      <c r="O206" s="304">
-        <v>42663</v>
-      </c>
-      <c r="P206" s="254" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="40.5">
@@ -16137,23 +16160,23 @@
         <v>42649</v>
       </c>
       <c r="F207" s="293" t="s">
+        <v>459</v>
+      </c>
+      <c r="G207" s="289" t="s">
         <v>460</v>
-      </c>
-      <c r="G207" s="289" t="s">
-        <v>461</v>
       </c>
       <c r="H207" s="262"/>
       <c r="L207" s="262" t="s">
+        <v>535</v>
+      </c>
+      <c r="N207" s="350" t="s">
         <v>536</v>
       </c>
-      <c r="N207" s="255" t="s">
-        <v>537</v>
-      </c>
-      <c r="O207" s="243">
+      <c r="O207" s="367">
         <v>42655</v>
       </c>
-      <c r="P207" s="255" t="s">
-        <v>533</v>
+      <c r="P207" s="350" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="148.5">
@@ -16173,18 +16196,24 @@
         <v>42649</v>
       </c>
       <c r="F208" s="293" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G208" s="368" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H208" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="L208" s="262"/>
-      <c r="O208" s="243"/>
-      <c r="P208" s="255" t="s">
-        <v>533</v>
+      <c r="L208" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="M208" s="350"/>
+      <c r="N208" s="350"/>
+      <c r="O208" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P208" s="350" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27">
@@ -16204,16 +16233,22 @@
         <v>42645</v>
       </c>
       <c r="F209" s="293" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G209" s="289" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H209" s="262"/>
-      <c r="L209" s="262"/>
-      <c r="O209" s="243"/>
-      <c r="P209" s="255" t="s">
-        <v>533</v>
+      <c r="L209" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="M209" s="350"/>
+      <c r="N209" s="350"/>
+      <c r="O209" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P209" s="350" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="27">
@@ -16233,16 +16268,22 @@
         <v>42645</v>
       </c>
       <c r="F210" s="293" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G210" s="289" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H210" s="262"/>
-      <c r="L210" s="262"/>
-      <c r="O210" s="243"/>
-      <c r="P210" s="255" t="s">
-        <v>533</v>
+      <c r="L210" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="M210" s="350"/>
+      <c r="N210" s="350"/>
+      <c r="O210" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P210" s="350" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="27">
@@ -16262,16 +16303,22 @@
         <v>42645</v>
       </c>
       <c r="F211" s="293" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G211" s="289" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H211" s="262"/>
-      <c r="L211" s="262"/>
-      <c r="O211" s="243"/>
-      <c r="P211" s="255" t="s">
-        <v>533</v>
+      <c r="L211" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="M211" s="350"/>
+      <c r="N211" s="350"/>
+      <c r="O211" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P211" s="350" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="27">
@@ -16291,16 +16338,22 @@
         <v>42645</v>
       </c>
       <c r="F212" s="293" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G212" s="289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H212" s="262"/>
-      <c r="L212" s="262"/>
-      <c r="O212" s="243"/>
-      <c r="P212" s="255" t="s">
-        <v>533</v>
+      <c r="L212" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="M212" s="350"/>
+      <c r="N212" s="350"/>
+      <c r="O212" s="367">
+        <v>42663</v>
+      </c>
+      <c r="P212" s="350" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="27" hidden="1">
@@ -16320,28 +16373,28 @@
         <v>42653</v>
       </c>
       <c r="F213" s="293" t="s">
+        <v>500</v>
+      </c>
+      <c r="G213" s="289" t="s">
         <v>501</v>
-      </c>
-      <c r="G213" s="289" t="s">
-        <v>502</v>
       </c>
       <c r="H213" s="262" t="s">
         <v>47</v>
       </c>
       <c r="I213" s="350" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L213" s="262" t="s">
+        <v>537</v>
+      </c>
+      <c r="N213" s="255" t="s">
         <v>538</v>
-      </c>
-      <c r="N213" s="255" t="s">
-        <v>539</v>
       </c>
       <c r="O213" s="243">
         <v>42655</v>
       </c>
       <c r="P213" s="255" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="214" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16361,14 +16414,14 @@
         <v>42653</v>
       </c>
       <c r="F214" s="363" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G214" s="341" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H214" s="356"/>
       <c r="I214" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J214" s="370"/>
       <c r="K214" s="369">
@@ -16381,7 +16434,7 @@
         <v>42656</v>
       </c>
       <c r="P214" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="27" hidden="1">
@@ -16401,26 +16454,26 @@
         <v>42653</v>
       </c>
       <c r="F215" s="293" t="s">
+        <v>518</v>
+      </c>
+      <c r="G215" s="368" t="s">
         <v>519</v>
-      </c>
-      <c r="G215" s="368" t="s">
-        <v>520</v>
       </c>
       <c r="H215" s="262"/>
       <c r="I215" s="350" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L215" s="262" t="s">
+        <v>539</v>
+      </c>
+      <c r="N215" s="255" t="s">
         <v>540</v>
-      </c>
-      <c r="N215" s="255" t="s">
-        <v>541</v>
       </c>
       <c r="O215" s="243">
         <v>42655</v>
       </c>
       <c r="P215" s="255" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="372" customFormat="1" ht="40.5" hidden="1">
@@ -16440,14 +16493,14 @@
         <v>42653</v>
       </c>
       <c r="F216" s="363" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G216" s="385" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H216" s="356"/>
       <c r="I216" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J216" s="370"/>
       <c r="K216" s="369">
@@ -16460,7 +16513,7 @@
         <v>42656</v>
       </c>
       <c r="P216" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16480,14 +16533,14 @@
         <v>42653</v>
       </c>
       <c r="F217" s="363" t="s">
+        <v>521</v>
+      </c>
+      <c r="G217" s="385" t="s">
         <v>522</v>
-      </c>
-      <c r="G217" s="385" t="s">
-        <v>523</v>
       </c>
       <c r="H217" s="356"/>
       <c r="I217" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J217" s="370"/>
       <c r="K217" s="369">
@@ -16500,7 +16553,7 @@
         <v>42656</v>
       </c>
       <c r="P217" s="372" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16523,11 +16576,11 @@
         <v>221</v>
       </c>
       <c r="G218" s="385" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H218" s="356"/>
       <c r="I218" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J218" s="370"/>
       <c r="K218" s="369">
@@ -16537,10 +16590,10 @@
         <v>59</v>
       </c>
       <c r="N218" s="372" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P218" s="372" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="27" hidden="1">
@@ -16560,26 +16613,26 @@
         <v>42654</v>
       </c>
       <c r="F219" s="293" t="s">
+        <v>543</v>
+      </c>
+      <c r="G219" s="309" t="s">
         <v>544</v>
-      </c>
-      <c r="G219" s="309" t="s">
-        <v>545</v>
       </c>
       <c r="H219" s="262"/>
       <c r="I219" s="350" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L219" s="255" t="s">
+        <v>550</v>
+      </c>
+      <c r="N219" s="255" t="s">
         <v>551</v>
-      </c>
-      <c r="N219" s="255" t="s">
-        <v>552</v>
       </c>
       <c r="O219" s="243">
         <v>42656</v>
       </c>
       <c r="P219" s="255" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -16599,14 +16652,14 @@
         <v>42654</v>
       </c>
       <c r="F220" s="363" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G220" s="385" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H220" s="356"/>
       <c r="I220" s="298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J220" s="370"/>
       <c r="K220" s="369">
@@ -16619,10 +16672,10 @@
         <v>42655</v>
       </c>
       <c r="P220" s="372" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" ht="27" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="27">
       <c r="A221" s="168">
         <v>219</v>
       </c>
@@ -16639,25 +16692,26 @@
         <v>42654</v>
       </c>
       <c r="F221" s="293" t="s">
+        <v>546</v>
+      </c>
+      <c r="G221" s="309" t="s">
+        <v>643</v>
+      </c>
+      <c r="H221" s="262" t="s">
         <v>547</v>
       </c>
-      <c r="G221" s="309" t="s">
-        <v>644</v>
-      </c>
-      <c r="H221" s="262" t="s">
-        <v>548</v>
-      </c>
       <c r="L221" s="255" t="s">
-        <v>553</v>
-      </c>
-      <c r="N221" s="255" t="s">
-        <v>555</v>
-      </c>
-      <c r="P221" s="255" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" s="350" customFormat="1" hidden="1">
+        <v>552</v>
+      </c>
+      <c r="N221" s="350" t="s">
+        <v>554</v>
+      </c>
+      <c r="O221" s="350"/>
+      <c r="P221" s="350" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" s="350" customFormat="1">
       <c r="A222" s="344">
         <v>220</v>
       </c>
@@ -16674,22 +16728,22 @@
         <v>42656</v>
       </c>
       <c r="F222" s="361" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G222" s="362" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H222" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L222" s="352" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O222" s="367">
         <v>42663</v>
       </c>
       <c r="P222" s="350" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -16709,19 +16763,23 @@
         <v>42656</v>
       </c>
       <c r="F223" s="361" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G223" s="362" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H223" s="352"/>
-      <c r="L223" s="352"/>
-      <c r="O223" s="367"/>
+      <c r="L223" s="352" t="s">
+        <v>663</v>
+      </c>
+      <c r="O223" s="367">
+        <v>42663</v>
+      </c>
       <c r="P223" s="350" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" s="350" customFormat="1" ht="40.5">
       <c r="A224" s="344">
         <v>222</v>
       </c>
@@ -16741,22 +16799,22 @@
         <v>290</v>
       </c>
       <c r="G224" s="362" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H224" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L224" s="352" t="s">
+        <v>649</v>
+      </c>
+      <c r="N224" s="350" t="s">
         <v>650</v>
-      </c>
-      <c r="N224" s="350" t="s">
-        <v>651</v>
       </c>
       <c r="O224" s="367">
         <v>42657</v>
       </c>
       <c r="P224" s="350" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16779,7 +16837,7 @@
         <v>290</v>
       </c>
       <c r="G225" s="362" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H225" s="352" t="s">
         <v>47</v>
@@ -16787,10 +16845,10 @@
       <c r="L225" s="352"/>
       <c r="O225" s="367"/>
       <c r="P225" s="350" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" s="350" customFormat="1" hidden="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" s="350" customFormat="1">
       <c r="A226" s="344">
         <v>224</v>
       </c>
@@ -16807,10 +16865,10 @@
         <v>42656</v>
       </c>
       <c r="F226" s="361" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G226" s="346" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H226" s="352" t="s">
         <v>47</v>
@@ -16818,10 +16876,10 @@
       <c r="L226" s="352"/>
       <c r="O226" s="367"/>
       <c r="P226" s="350" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" s="350" customFormat="1" ht="27" hidden="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" s="350" customFormat="1" ht="27">
       <c r="A227" s="344">
         <v>225</v>
       </c>
@@ -16838,22 +16896,22 @@
         <v>42656</v>
       </c>
       <c r="F227" s="361" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G227" s="362" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H227" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L227" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O227" s="367">
         <v>42663</v>
       </c>
       <c r="P227" s="350" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="350" customFormat="1" ht="67.5">
@@ -16873,10 +16931,10 @@
         <v>42657</v>
       </c>
       <c r="F228" s="361" t="s">
+        <v>600</v>
+      </c>
+      <c r="G228" s="362" t="s">
         <v>601</v>
-      </c>
-      <c r="G228" s="362" t="s">
-        <v>602</v>
       </c>
       <c r="H228" s="352" t="s">
         <v>47</v>
@@ -16884,7 +16942,7 @@
       <c r="L228" s="352"/>
       <c r="O228" s="367"/>
       <c r="P228" s="350" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="350" customFormat="1" ht="54">
@@ -16904,10 +16962,10 @@
         <v>42657</v>
       </c>
       <c r="F229" s="361" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G229" s="362" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H229" s="352" t="s">
         <v>47</v>
@@ -16915,7 +16973,7 @@
       <c r="L229" s="352"/>
       <c r="O229" s="367"/>
       <c r="P229" s="350" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="350" customFormat="1" ht="40.5">
@@ -16935,10 +16993,10 @@
         <v>42657</v>
       </c>
       <c r="F230" s="361" t="s">
+        <v>603</v>
+      </c>
+      <c r="G230" s="362" t="s">
         <v>604</v>
-      </c>
-      <c r="G230" s="362" t="s">
-        <v>605</v>
       </c>
       <c r="H230" s="352" t="s">
         <v>47</v>
@@ -16946,10 +17004,10 @@
       <c r="L230" s="352"/>
       <c r="O230" s="367"/>
       <c r="P230" s="350" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" s="350" customFormat="1" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" s="350" customFormat="1">
       <c r="A231" s="344">
         <v>229</v>
       </c>
@@ -16966,10 +17024,10 @@
         <v>42657</v>
       </c>
       <c r="F231" s="361" t="s">
+        <v>607</v>
+      </c>
+      <c r="G231" s="346" t="s">
         <v>608</v>
-      </c>
-      <c r="G231" s="346" t="s">
-        <v>609</v>
       </c>
       <c r="H231" s="352" t="s">
         <v>47</v>
@@ -16977,10 +17035,10 @@
       <c r="L231" s="352"/>
       <c r="O231" s="367"/>
       <c r="P231" s="350" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" s="350" customFormat="1" ht="54" hidden="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" s="350" customFormat="1" ht="54">
       <c r="A232" s="344">
         <v>230</v>
       </c>
@@ -16997,28 +17055,28 @@
         <v>42657</v>
       </c>
       <c r="F232" s="361" t="s">
+        <v>612</v>
+      </c>
+      <c r="G232" s="362" t="s">
         <v>613</v>
-      </c>
-      <c r="G232" s="362" t="s">
-        <v>614</v>
       </c>
       <c r="H232" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L232" s="352" t="s">
+        <v>659</v>
+      </c>
+      <c r="N232" s="350" t="s">
         <v>660</v>
-      </c>
-      <c r="N232" s="350" t="s">
-        <v>661</v>
       </c>
       <c r="O232" s="367">
         <v>42663</v>
       </c>
       <c r="P232" s="350" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" s="350" customFormat="1" ht="27" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" s="350" customFormat="1" ht="27">
       <c r="A233" s="344">
         <v>231</v>
       </c>
@@ -17035,25 +17093,25 @@
         <v>42657</v>
       </c>
       <c r="F233" s="361" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G233" s="362" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H233" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L233" s="352" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O233" s="367">
         <v>42663</v>
       </c>
       <c r="P233" s="350" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" s="350" customFormat="1" ht="67.5" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" s="350" customFormat="1" ht="67.5">
       <c r="A234" s="344">
         <v>232</v>
       </c>
@@ -17070,22 +17128,22 @@
         <v>42657</v>
       </c>
       <c r="F234" s="361" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G234" s="362" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H234" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L234" s="352" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O234" s="367">
         <v>42663</v>
       </c>
       <c r="P234" s="350" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -17100,18 +17158,8 @@
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
-    <filterColumn colId="14">
-      <filters blank="1">
-        <dateGroupItem year="2016" month="10" day="8" dateTimeGrouping="day"/>
-        <dateGroupItem year="2016" month="10" day="9" dateTimeGrouping="day"/>
-        <dateGroupItem year="2016" month="10" day="12" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters blank="1">
-        <filter val="z"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="14"/>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
@@ -17175,7 +17223,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="256" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -18565,7 +18613,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="256" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -18649,10 +18697,10 @@
         <v>42641</v>
       </c>
       <c r="F4" s="288" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="289" t="s">
         <v>383</v>
-      </c>
-      <c r="G4" s="289" t="s">
-        <v>384</v>
       </c>
       <c r="H4" s="262"/>
       <c r="I4" s="258"/>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="670">
   <si>
     <t>编号</t>
   </si>
@@ -5149,6 +5149,10 @@
   </si>
   <si>
     <t>10月13日的版本已经从反显句开始读的啊，只不过因为这个反显句跨屏了，所以按【5】【OK】的时候会先翻到反显开始的屏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照目前的程序架构和设计，无法针对这种情况定位到当前发音的字上，然后针对仅一字/一句/一段的极限情况特殊处理。另外你建议的数据预处理下，前后加上空格或者空行，这种方法也不妥。因为别的问题，所以结尾的空格/空行我们讨论已经去掉了，如果在开头加上，这样会导致需要再开一个内存，并且预处理的数据还不能太大，否则会很慢。目前因为要替换掉中间连续的无效空行，一次处理的数据已经由4MB改为1MB了，如果再预处理，打开文章的速度会非常慢。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7918,7 +7922,7 @@
   <dimension ref="A1:P234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L230" sqref="L230"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13226,7 +13230,7 @@
       </c>
       <c r="P135" s="307"/>
     </row>
-    <row r="136" spans="1:16" ht="81">
+    <row r="136" spans="1:16" ht="108">
       <c r="A136" s="344">
         <v>134</v>
       </c>
@@ -13254,10 +13258,16 @@
       <c r="I136" s="262"/>
       <c r="J136" s="28"/>
       <c r="K136" s="28"/>
-      <c r="L136" s="262"/>
+      <c r="L136" s="352" t="s">
+        <v>370</v>
+      </c>
       <c r="M136" s="262"/>
-      <c r="N136" s="262"/>
-      <c r="O136" s="34"/>
+      <c r="N136" s="352" t="s">
+        <v>669</v>
+      </c>
+      <c r="O136" s="34">
+        <v>42663</v>
+      </c>
       <c r="P136" s="237" t="s">
         <v>532</v>
       </c>
@@ -17150,7 +17160,7 @@
   <autoFilter ref="A2:P234">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="669">
   <si>
     <t>编号</t>
   </si>
@@ -4804,10 +4804,6 @@
   </si>
   <si>
     <t>通过蓝牙外放声音，连续按【右】键翻页，翻到提示已经到结尾后，仍在读正文内容，读完后退到文件列表。【样例】中国梦.txt。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7865,7 +7861,7 @@
         <v>42656</v>
       </c>
       <c r="F14" s="364" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7884,7 +7880,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="349" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -7895,18 +7891,18 @@
         <v>42657</v>
       </c>
       <c r="D22" s="163" t="s">
+        <v>633</v>
+      </c>
+      <c r="E22" s="349" t="s">
+        <v>647</v>
+      </c>
+      <c r="F22" s="349" t="s">
         <v>634</v>
-      </c>
-      <c r="E22" s="349" t="s">
-        <v>648</v>
-      </c>
-      <c r="F22" s="349" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="27">
       <c r="F23" s="343" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -7921,8 +7917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="D181" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8310,7 +8306,7 @@
       </c>
       <c r="M10" s="197"/>
       <c r="N10" s="352" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O10" s="34">
         <v>42660</v>
@@ -8599,11 +8595,11 @@
       </c>
       <c r="F18" s="363"/>
       <c r="G18" s="355" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H18" s="356"/>
       <c r="I18" s="267" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J18" s="272"/>
       <c r="K18" s="268">
@@ -8614,7 +8610,7 @@
       </c>
       <c r="M18" s="356"/>
       <c r="N18" s="356" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O18" s="268">
         <v>42632</v>
@@ -8736,7 +8732,7 @@
         <v>42663</v>
       </c>
       <c r="P21" s="237" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="274" customFormat="1" ht="81" hidden="1">
@@ -12153,7 +12149,7 @@
       </c>
       <c r="M108" s="197"/>
       <c r="N108" s="352" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O108" s="34">
         <v>42660</v>
@@ -12359,7 +12355,7 @@
         <v>42663</v>
       </c>
       <c r="P113" s="237" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="207" customFormat="1" ht="40.5" hidden="1">
@@ -13263,7 +13259,7 @@
       </c>
       <c r="M136" s="262"/>
       <c r="N136" s="352" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O136" s="34">
         <v>42663</v>
@@ -13909,7 +13905,7 @@
       </c>
       <c r="M153" s="197"/>
       <c r="N153" s="352" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O153" s="34">
         <v>42657</v>
@@ -15049,7 +15045,7 @@
         <v>471</v>
       </c>
       <c r="G181" s="362" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H181" s="262"/>
       <c r="I181" s="254"/>
@@ -15060,13 +15056,13 @@
       </c>
       <c r="M181" s="254"/>
       <c r="N181" s="350" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O181" s="367">
         <v>42663</v>
       </c>
       <c r="P181" s="350" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="40.5">
@@ -15089,7 +15085,7 @@
         <v>472</v>
       </c>
       <c r="G182" s="362" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H182" s="262"/>
       <c r="I182" s="254"/>
@@ -15100,13 +15096,13 @@
       </c>
       <c r="M182" s="254"/>
       <c r="N182" s="350" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O182" s="367">
         <v>42663</v>
       </c>
       <c r="P182" s="350" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15126,10 +15122,10 @@
         <v>42645</v>
       </c>
       <c r="F183" s="363" t="s">
+        <v>618</v>
+      </c>
+      <c r="G183" s="341" t="s">
         <v>619</v>
-      </c>
-      <c r="G183" s="341" t="s">
-        <v>620</v>
       </c>
       <c r="H183" s="356"/>
       <c r="I183" s="298" t="s">
@@ -15144,7 +15140,7 @@
       </c>
       <c r="M183" s="274"/>
       <c r="N183" s="274" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O183" s="230">
         <v>42651</v>
@@ -15171,12 +15167,10 @@
         <v>390</v>
       </c>
       <c r="G184" s="362" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H184" s="262"/>
-      <c r="I184" s="254" t="s">
-        <v>615</v>
-      </c>
+      <c r="I184" s="254"/>
       <c r="J184" s="254"/>
       <c r="K184" s="254"/>
       <c r="L184" s="258" t="s">
@@ -15187,10 +15181,10 @@
         <v>528</v>
       </c>
       <c r="O184" s="367">
-        <v>42651</v>
+        <v>42664</v>
       </c>
       <c r="P184" s="350" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="372" customFormat="1" ht="27" hidden="1">
@@ -15256,7 +15250,7 @@
         <v>394</v>
       </c>
       <c r="G186" s="341" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H186" s="356" t="s">
         <v>47</v>
@@ -15298,13 +15292,13 @@
         <v>42645</v>
       </c>
       <c r="F187" s="363" t="s">
+        <v>623</v>
+      </c>
+      <c r="G187" s="341" t="s">
+        <v>626</v>
+      </c>
+      <c r="H187" s="356" t="s">
         <v>624</v>
-      </c>
-      <c r="G187" s="341" t="s">
-        <v>627</v>
-      </c>
-      <c r="H187" s="356" t="s">
-        <v>625</v>
       </c>
       <c r="I187" s="298" t="s">
         <v>597</v>
@@ -15320,7 +15314,7 @@
         <v>42654</v>
       </c>
       <c r="P187" s="372" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="381" customFormat="1" ht="81" hidden="1">
@@ -15340,13 +15334,13 @@
         <v>42645</v>
       </c>
       <c r="F188" s="376" t="s">
+        <v>627</v>
+      </c>
+      <c r="G188" s="384" t="s">
         <v>628</v>
       </c>
-      <c r="G188" s="384" t="s">
-        <v>629</v>
-      </c>
       <c r="H188" s="377" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I188" s="378" t="s">
         <v>597</v>
@@ -15359,13 +15353,13 @@
         <v>598</v>
       </c>
       <c r="N188" s="381" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O188" s="383">
         <v>42654</v>
       </c>
       <c r="P188" s="381" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="372" customFormat="1" ht="94.5" hidden="1">
@@ -15388,7 +15382,7 @@
         <v>350</v>
       </c>
       <c r="G189" s="342" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H189" s="356" t="s">
         <v>47</v>
@@ -15433,7 +15427,7 @@
         <v>398</v>
       </c>
       <c r="G190" s="341" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H190" s="356" t="s">
         <v>47</v>
@@ -15532,11 +15526,11 @@
       <c r="J192" s="254"/>
       <c r="K192" s="254"/>
       <c r="L192" s="258" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M192" s="254"/>
       <c r="N192" s="350" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O192" s="367">
         <v>42657</v>
@@ -15701,7 +15695,7 @@
         <v>404</v>
       </c>
       <c r="G196" s="341" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H196" s="356" t="s">
         <v>47</v>
@@ -15886,11 +15880,11 @@
       <c r="J200" s="254"/>
       <c r="K200" s="254"/>
       <c r="L200" s="258" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M200" s="254"/>
       <c r="N200" s="350" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O200" s="367">
         <v>42657</v>
@@ -16047,7 +16041,7 @@
         <v>435</v>
       </c>
       <c r="G204" s="341" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H204" s="356" t="s">
         <v>47</v>
@@ -16133,7 +16127,7 @@
         <v>453</v>
       </c>
       <c r="G206" s="362" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H206" s="262" t="s">
         <v>47</v>
@@ -16142,7 +16136,7 @@
       <c r="J206" s="254"/>
       <c r="K206" s="254"/>
       <c r="L206" s="258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M206" s="254"/>
       <c r="N206" s="350"/>
@@ -16150,7 +16144,7 @@
         <v>42663</v>
       </c>
       <c r="P206" s="350" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="40.5">
@@ -16215,7 +16209,7 @@
         <v>47</v>
       </c>
       <c r="L208" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M208" s="350"/>
       <c r="N208" s="350"/>
@@ -16250,7 +16244,7 @@
       </c>
       <c r="H209" s="262"/>
       <c r="L209" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M209" s="350"/>
       <c r="N209" s="350"/>
@@ -16285,7 +16279,7 @@
       </c>
       <c r="H210" s="262"/>
       <c r="L210" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M210" s="350"/>
       <c r="N210" s="350"/>
@@ -16320,7 +16314,7 @@
       </c>
       <c r="H211" s="262"/>
       <c r="L211" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M211" s="350"/>
       <c r="N211" s="350"/>
@@ -16355,7 +16349,7 @@
       </c>
       <c r="H212" s="262"/>
       <c r="L212" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M212" s="350"/>
       <c r="N212" s="350"/>
@@ -16392,7 +16386,7 @@
         <v>47</v>
       </c>
       <c r="I213" s="350" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L213" s="262" t="s">
         <v>537</v>
@@ -16471,7 +16465,7 @@
       </c>
       <c r="H215" s="262"/>
       <c r="I215" s="350" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L215" s="262" t="s">
         <v>539</v>
@@ -16506,7 +16500,7 @@
         <v>306</v>
       </c>
       <c r="G216" s="385" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H216" s="356"/>
       <c r="I216" s="298" t="s">
@@ -16630,7 +16624,7 @@
       </c>
       <c r="H219" s="262"/>
       <c r="I219" s="350" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L219" s="255" t="s">
         <v>550</v>
@@ -16705,7 +16699,7 @@
         <v>546</v>
       </c>
       <c r="G221" s="309" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H221" s="262" t="s">
         <v>547</v>
@@ -16747,7 +16741,7 @@
         <v>47</v>
       </c>
       <c r="L222" s="352" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O222" s="367">
         <v>42663</v>
@@ -16780,7 +16774,7 @@
       </c>
       <c r="H223" s="352"/>
       <c r="L223" s="352" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O223" s="367">
         <v>42663</v>
@@ -16815,10 +16809,10 @@
         <v>47</v>
       </c>
       <c r="L224" s="352" t="s">
+        <v>648</v>
+      </c>
+      <c r="N224" s="350" t="s">
         <v>649</v>
-      </c>
-      <c r="N224" s="350" t="s">
-        <v>650</v>
       </c>
       <c r="O224" s="367">
         <v>42657</v>
@@ -16855,7 +16849,7 @@
       <c r="L225" s="352"/>
       <c r="O225" s="367"/>
       <c r="P225" s="350" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="350" customFormat="1">
@@ -16915,7 +16909,7 @@
         <v>47</v>
       </c>
       <c r="L227" s="352" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O227" s="367">
         <v>42663</v>
@@ -17045,7 +17039,7 @@
       <c r="L231" s="352"/>
       <c r="O231" s="367"/>
       <c r="P231" s="350" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="350" customFormat="1" ht="54">
@@ -17074,10 +17068,10 @@
         <v>47</v>
       </c>
       <c r="L232" s="352" t="s">
+        <v>658</v>
+      </c>
+      <c r="N232" s="350" t="s">
         <v>659</v>
-      </c>
-      <c r="N232" s="350" t="s">
-        <v>660</v>
       </c>
       <c r="O232" s="367">
         <v>42663</v>
@@ -17112,7 +17106,7 @@
         <v>47</v>
       </c>
       <c r="L233" s="352" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O233" s="367">
         <v>42663</v>
@@ -17141,13 +17135,13 @@
         <v>306</v>
       </c>
       <c r="G234" s="362" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H234" s="352" t="s">
         <v>47</v>
       </c>
       <c r="L234" s="352" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O234" s="367">
         <v>42663</v>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="670">
   <si>
     <t>编号</t>
   </si>
@@ -5149,6 +5149,10 @@
   </si>
   <si>
     <t>按照目前的程序架构和设计，无法针对这种情况定位到当前发音的字上，然后针对仅一字/一句/一段的极限情况特殊处理。另外你建议的数据预处理下，前后加上空格或者空行，这种方法也不妥。因为别的问题，所以结尾的空格/空行我们讨论已经去掉了，如果在开头加上，这样会导致需要再开一个内存，并且预处理的数据还不能太大，否则会很慢。目前因为要替换掉中间连续的无效空行，一次处理的数据已经由4MB改为1MB了，如果再预处理，打开文章的速度会非常慢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插拔的时候如果正好操作数据库，因为没有捕获异常，会有IO错误。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7917,8 +7921,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D181" workbookViewId="0">
-      <selection activeCell="K206" sqref="K206"/>
+    <sheetView tabSelected="1" topLeftCell="H80" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12308,10 +12312,16 @@
       <c r="I112" s="281"/>
       <c r="J112" s="28"/>
       <c r="K112" s="28"/>
-      <c r="L112" s="262"/>
+      <c r="L112" s="352" t="s">
+        <v>58</v>
+      </c>
       <c r="M112" s="262"/>
-      <c r="N112" s="262"/>
-      <c r="O112" s="34"/>
+      <c r="N112" s="352" t="s">
+        <v>669</v>
+      </c>
+      <c r="O112" s="34">
+        <v>42666</v>
+      </c>
       <c r="P112" s="237" t="s">
         <v>532</v>
       </c>

--- a/测试单-电子书_txt-word_161014.xlsx
+++ b/测试单-电子书_txt-word_161014.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="674">
   <si>
     <t>编号</t>
   </si>
@@ -5148,11 +5148,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按照目前的程序架构和设计，无法针对这种情况定位到当前发音的字上，然后针对仅一字/一句/一段的极限情况特殊处理。另外你建议的数据预处理下，前后加上空格或者空行，这种方法也不妥。因为别的问题，所以结尾的空格/空行我们讨论已经去掉了，如果在开头加上，这样会导致需要再开一个内存，并且预处理的数据还不能太大，否则会很慢。目前因为要替换掉中间连续的无效空行，一次处理的数据已经由4MB改为1MB了，如果再预处理，打开文章的速度会非常慢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插拔的时候如果正好操作数据库，因为没有捕获异常，会有IO错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉无用的空行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间有些字符不发音，导致往前翻后，系统自动往后读数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照和陈刚讨论的规格，在这种情况下，按【4】【7】键发现到第一个词和字。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7921,8 +7937,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H80" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12317,7 +12333,7 @@
       </c>
       <c r="M112" s="262"/>
       <c r="N112" s="352" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O112" s="34">
         <v>42666</v>
@@ -13236,7 +13252,7 @@
       </c>
       <c r="P135" s="307"/>
     </row>
-    <row r="136" spans="1:16" ht="108">
+    <row r="136" spans="1:16" ht="81">
       <c r="A136" s="344">
         <v>134</v>
       </c>
@@ -13265,14 +13281,14 @@
       <c r="J136" s="28"/>
       <c r="K136" s="28"/>
       <c r="L136" s="352" t="s">
-        <v>370</v>
+        <v>58</v>
       </c>
       <c r="M136" s="262"/>
       <c r="N136" s="352" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="O136" s="34">
-        <v>42663</v>
+        <v>42666</v>
       </c>
       <c r="P136" s="237" t="s">
         <v>532</v>
@@ -16953,8 +16969,15 @@
       <c r="H228" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L228" s="352"/>
-      <c r="O228" s="367"/>
+      <c r="L228" s="352" t="s">
+        <v>669</v>
+      </c>
+      <c r="N228" s="350" t="s">
+        <v>671</v>
+      </c>
+      <c r="O228" s="367">
+        <v>42664</v>
+      </c>
       <c r="P228" s="350" t="s">
         <v>532</v>
       </c>
@@ -16984,8 +17007,15 @@
       <c r="H229" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L229" s="352"/>
-      <c r="O229" s="367"/>
+      <c r="L229" s="352" t="s">
+        <v>670</v>
+      </c>
+      <c r="N229" s="350" t="s">
+        <v>672</v>
+      </c>
+      <c r="O229" s="367">
+        <v>42664</v>
+      </c>
       <c r="P229" s="350" t="s">
         <v>532</v>
       </c>
@@ -17015,8 +17045,15 @@
       <c r="H230" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="L230" s="352"/>
-      <c r="O230" s="367"/>
+      <c r="L230" s="352" t="s">
+        <v>670</v>
+      </c>
+      <c r="N230" s="350" t="s">
+        <v>672</v>
+      </c>
+      <c r="O230" s="367">
+        <v>42664</v>
+      </c>
       <c r="P230" s="350" t="s">
         <v>532</v>
       </c>
